--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social32024-12-07121733trace/processed_No.2979240926social32024-12-07121733trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social32024-12-07121733trace/processed_No.2979240926social32024-12-07121733trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="B2" t="n">
-        <v>256</v>
+        <v>126</v>
       </c>
       <c r="C2" t="n">
-        <v>385</v>
+        <v>224</v>
       </c>
       <c r="D2" t="n">
-        <v>3.142699402599203</v>
+        <v>1.887720483988066</v>
       </c>
       <c r="E2" t="n">
-        <v>2.462959114172649</v>
+        <v>1.205648031329342</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.679740288426554</v>
+        <v>-0.6820724526587242</v>
       </c>
       <c r="G2" t="n">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H2" t="n">
-        <v>312.8680496098029</v>
+        <v>109.6958526269066</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="J2" t="n">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="K2" t="n">
-        <v>384.9575088812579</v>
+        <v>240.8566892542251</v>
       </c>
       <c r="L2" t="n">
-        <v>9.45690826737156</v>
+        <v>5.658168631140793</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8670172382226232</v>
+        <v>0.5567081724327337</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2635658914728682</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2330992008231318</v>
+        <v>0.2040783524187252</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8186316424218051</v>
+        <v>0.8546401515744898</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>910</v>
+        <v>1996</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2508</v>
+        <v>224</v>
       </c>
       <c r="B3" t="n">
-        <v>2541</v>
+        <v>255</v>
       </c>
       <c r="C3" t="n">
-        <v>2679</v>
+        <v>386</v>
       </c>
       <c r="D3" t="n">
-        <v>3.254626164343381</v>
+        <v>3.214595335570568</v>
       </c>
       <c r="E3" t="n">
-        <v>2.574885875916827</v>
+        <v>2.532522882911844</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.679740288426554</v>
+        <v>-0.6820724526587242</v>
       </c>
       <c r="G3" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H3" t="n">
-        <v>41.72942299873466</v>
+        <v>312.4923669466899</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K3" t="n">
-        <v>238.9043144759005</v>
+        <v>384.7778154573554</v>
       </c>
       <c r="L3" t="n">
-        <v>9.793714618498624</v>
+        <v>9.635283742384757</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8674183407930154</v>
+        <v>0.8482629223389593</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2391304347826087</v>
+        <v>0.2366412213740458</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4147460898870837</v>
+        <v>0.224265522865969</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8087296152831064</v>
+        <v>0.7982189822975471</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>911</v>
+        <v>1997</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2679</v>
+        <v>2510</v>
       </c>
       <c r="B4" t="n">
-        <v>2778</v>
+        <v>2541</v>
       </c>
       <c r="C4" t="n">
-        <v>2998</v>
+        <v>2681</v>
       </c>
       <c r="D4" t="n">
-        <v>2.630074369984026</v>
+        <v>3.340501366994273</v>
       </c>
       <c r="E4" t="n">
-        <v>1.950334081557472</v>
+        <v>2.658428914335549</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.679740288426554</v>
+        <v>-0.6820724526587242</v>
       </c>
       <c r="G4" t="n">
-        <v>319</v>
+        <v>171</v>
       </c>
       <c r="H4" t="n">
-        <v>82.72367021643231</v>
+        <v>39.38439005002101</v>
       </c>
       <c r="I4" t="n">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>505.8678291621081</v>
+        <v>238.0757157336639</v>
       </c>
       <c r="L4" t="n">
-        <v>7.914333783477041</v>
+        <v>10.01266882853268</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6160729598271258</v>
+        <v>0.850589898323669</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.45</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2990045558842291</v>
+        <v>0.4341355232331351</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3344122198662615</v>
+        <v>0.8051250446370141</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>912</v>
+        <v>1998</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B5" t="n">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C5" t="n">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="D5" t="n">
-        <v>2.790383737546758</v>
+        <v>2.866366188318144</v>
       </c>
       <c r="E5" t="n">
-        <v>2.100685754616157</v>
+        <v>2.175466278085658</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6896979829306003</v>
+        <v>-0.6908999102324863</v>
       </c>
       <c r="G5" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H5" t="n">
-        <v>106.6485215898657</v>
+        <v>107.1017215812401</v>
       </c>
       <c r="I5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J5" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K5" t="n">
-        <v>333.1507658036184</v>
+        <v>336.2385803480383</v>
       </c>
       <c r="L5" t="n">
-        <v>11.03244716441476</v>
+        <v>11.32164131956516</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6709344038524008</v>
+        <v>0.6610938273009049</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5963302752293578</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5277072117377621</v>
+        <v>0.5548648766904644</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8032660080905972</v>
+        <v>0.791985328782241</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>913</v>
+        <v>1999</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>370</v>
+        <v>1840</v>
       </c>
       <c r="B6" t="n">
-        <v>403</v>
+        <v>1865</v>
       </c>
       <c r="C6" t="n">
-        <v>459</v>
+        <v>1956</v>
       </c>
       <c r="D6" t="n">
-        <v>3.177338911674528</v>
+        <v>1.082790083736042</v>
       </c>
       <c r="E6" t="n">
-        <v>2.500385569898168</v>
+        <v>0.3918901735035559</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6769533417763598</v>
+        <v>-0.6908999102324863</v>
       </c>
       <c r="G6" t="n">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="H6" t="n">
-        <v>162.8003843168784</v>
+        <v>28.51569656208153</v>
       </c>
       <c r="I6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0949011365035</v>
+        <v>60.93902247616077</v>
       </c>
       <c r="L6" t="n">
-        <v>11.35768877411966</v>
+        <v>4.276830016486627</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.700690508385109</v>
+        <v>0.8921706064106179</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5892857142857143</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5481816000790416</v>
+        <v>0.3601028761976589</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6058387134904264</v>
+        <v>0.8304946447928889</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>914</v>
+        <v>2000</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>371</v>
+      </c>
+      <c r="B7" t="n">
+        <v>400</v>
+      </c>
+      <c r="C7" t="n">
         <v>459</v>
       </c>
-      <c r="B7" t="n">
-        <v>485</v>
-      </c>
-      <c r="C7" t="n">
-        <v>627</v>
-      </c>
       <c r="D7" t="n">
-        <v>3.032269414839593</v>
+        <v>3.165071943451025</v>
       </c>
       <c r="E7" t="n">
-        <v>2.355316073063233</v>
+        <v>2.483070510642664</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6769533417763598</v>
+        <v>-0.6820014328083612</v>
       </c>
       <c r="G7" t="n">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="H7" t="n">
-        <v>26.02560959141846</v>
+        <v>163.5695727986064</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="K7" t="n">
-        <v>252.923119898783</v>
+        <v>205.4900627720056</v>
       </c>
       <c r="L7" t="n">
-        <v>10.83912457890104</v>
+        <v>11.34954288610149</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7865146001744172</v>
+        <v>0.7336903958573134</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1830985915492958</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5195296690417184</v>
+        <v>0.5854041105217871</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7587732441554886</v>
+        <v>0.6086965849611299</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>915</v>
+        <v>2001</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1546</v>
+        <v>629</v>
       </c>
       <c r="B8" t="n">
-        <v>1582</v>
+        <v>662</v>
       </c>
       <c r="C8" t="n">
-        <v>1634</v>
+        <v>707</v>
       </c>
       <c r="D8" t="n">
-        <v>2.655226375242557</v>
+        <v>2.134244730573191</v>
       </c>
       <c r="E8" t="n">
-        <v>1.978273033466197</v>
+        <v>1.45224329776483</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6769533417763598</v>
+        <v>-0.6820014328083612</v>
       </c>
       <c r="G8" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>48.83009789211565</v>
+        <v>46.86389918877114</v>
       </c>
       <c r="I8" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
-        <v>166.2488849578996</v>
+        <v>96.36926371930622</v>
       </c>
       <c r="L8" t="n">
-        <v>9.491349721627682</v>
+        <v>7.653128438106028</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7579377613755078</v>
+        <v>0.7680331936110603</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7237867766633016</v>
+        <v>0.2745516097526541</v>
       </c>
       <c r="S8" t="n">
-        <v>0.808857621691506</v>
+        <v>0.9250958652119353</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>916</v>
+        <v>2002</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1634</v>
+        <v>748</v>
       </c>
       <c r="B9" t="n">
-        <v>1669</v>
+        <v>777</v>
       </c>
       <c r="C9" t="n">
-        <v>1978</v>
+        <v>825</v>
       </c>
       <c r="D9" t="n">
-        <v>3.568873373503953</v>
+        <v>1.263046102194553</v>
       </c>
       <c r="E9" t="n">
-        <v>2.891920031727593</v>
+        <v>0.5810446693861916</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6769533417763598</v>
+        <v>-0.6820014328083612</v>
       </c>
       <c r="G9" t="n">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="H9" t="n">
-        <v>169.5713982864497</v>
+        <v>33.71889817740589</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J9" t="n">
-        <v>309</v>
+        <v>48</v>
       </c>
       <c r="K9" t="n">
-        <v>492.2200647822248</v>
+        <v>73.15645642643264</v>
       </c>
       <c r="L9" t="n">
-        <v>12.75726454661962</v>
+        <v>4.529121662981946</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8424933012332788</v>
+        <v>0.737347009760228</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1132686084142395</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5013383536502234</v>
+        <v>0.1092107350329168</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7917950494473125</v>
+        <v>0.957592685088978</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>917</v>
+        <v>2003</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>412</v>
+        <v>1548</v>
       </c>
       <c r="B10" t="n">
-        <v>449</v>
+        <v>1580</v>
       </c>
       <c r="C10" t="n">
-        <v>594</v>
+        <v>1635</v>
       </c>
       <c r="D10" t="n">
-        <v>3.773510222672985</v>
+        <v>2.667238526547977</v>
       </c>
       <c r="E10" t="n">
-        <v>3.210255766291681</v>
+        <v>1.985237093739616</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5632544563813041</v>
+        <v>-0.6820014328083612</v>
       </c>
       <c r="G10" t="n">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="H10" t="n">
-        <v>39.63174973580652</v>
+        <v>50.37918598142755</v>
       </c>
       <c r="I10" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J10" t="n">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
-        <v>516.7181271145761</v>
+        <v>168.1356895245335</v>
       </c>
       <c r="L10" t="n">
-        <v>16.0866298386694</v>
+        <v>9.564375971660068</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7798314434194455</v>
+        <v>0.779475068174625</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2551724137931035</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1676682808122842</v>
+        <v>0.7199921211444192</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8168956876570319</v>
+        <v>0.7834152192453655</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>918</v>
+        <v>2004</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1483</v>
+        <v>1635</v>
       </c>
       <c r="B11" t="n">
-        <v>1535</v>
+        <v>1667</v>
       </c>
       <c r="C11" t="n">
-        <v>1673</v>
+        <v>1755</v>
       </c>
       <c r="D11" t="n">
-        <v>3.290694077474715</v>
+        <v>3.59201486356701</v>
       </c>
       <c r="E11" t="n">
-        <v>2.637962943658695</v>
+        <v>2.910013430758648</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.65273113381602</v>
+        <v>-0.6820014328083612</v>
       </c>
       <c r="G11" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="H11" t="n">
-        <v>103.2673932035104</v>
+        <v>100.2931156482575</v>
       </c>
       <c r="I11" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J11" t="n">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="K11" t="n">
-        <v>420.3552096501266</v>
+        <v>280.5832929791163</v>
       </c>
       <c r="L11" t="n">
-        <v>20.35487035989808</v>
+        <v>12.88050555246363</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8767287320752269</v>
+        <v>0.817371558895541</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3768115942028986</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2094658910275853</v>
+        <v>0.1411529315743301</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8940783946960837</v>
+        <v>0.9897111127329006</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>919</v>
+        <v>2005</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1673</v>
+        <v>1852</v>
       </c>
       <c r="B12" t="n">
-        <v>1734</v>
+        <v>1875</v>
       </c>
       <c r="C12" t="n">
-        <v>1852</v>
+        <v>1979</v>
       </c>
       <c r="D12" t="n">
-        <v>3.570414521164761</v>
+        <v>1.390341074000772</v>
       </c>
       <c r="E12" t="n">
-        <v>2.917683387348741</v>
+        <v>0.7083396411924102</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.65273113381602</v>
+        <v>-0.6820014328083612</v>
       </c>
       <c r="G12" t="n">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="H12" t="n">
-        <v>142.9205591426226</v>
+        <v>21.22342001152879</v>
       </c>
       <c r="I12" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K12" t="n">
-        <v>397.9341063391733</v>
+        <v>81.54597915465884</v>
       </c>
       <c r="L12" t="n">
-        <v>22.08510514753699</v>
+        <v>4.985585139172156</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7447261170382704</v>
+        <v>0.8385385263657417</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5169491525423728</v>
+        <v>0.2211538461538461</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1391318955348355</v>
+        <v>0.392236160307379</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9438706769823212</v>
+        <v>0.8894859595936969</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>920</v>
+        <v>2006</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1852</v>
+        <v>2560</v>
       </c>
       <c r="B13" t="n">
-        <v>1890</v>
+        <v>2603</v>
       </c>
       <c r="C13" t="n">
-        <v>1974</v>
+        <v>2761</v>
       </c>
       <c r="D13" t="n">
-        <v>2.538126239997664</v>
+        <v>2.679483049433047</v>
       </c>
       <c r="E13" t="n">
-        <v>1.885395106181644</v>
+        <v>1.997481616624686</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.65273113381602</v>
+        <v>-0.6820014328083612</v>
       </c>
       <c r="G13" t="n">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="H13" t="n">
-        <v>40.71266815439094</v>
+        <v>135.2128526790852</v>
       </c>
       <c r="I13" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J13" t="n">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="K13" t="n">
-        <v>200.4054960325783</v>
+        <v>311.6876193024348</v>
       </c>
       <c r="L13" t="n">
-        <v>15.69979747611619</v>
+        <v>9.608283263527952</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8704491836446935</v>
+        <v>0.826947917563282</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4523809523809524</v>
+        <v>0.2721518987341772</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1954468636230611</v>
+        <v>0.1908451312284214</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9900261557406502</v>
+        <v>0.8934918024092353</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>921</v>
+        <v>2007</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2691</v>
+        <v>228</v>
       </c>
       <c r="B14" t="n">
-        <v>2742</v>
+        <v>257</v>
       </c>
       <c r="C14" t="n">
-        <v>2998</v>
+        <v>299</v>
       </c>
       <c r="D14" t="n">
-        <v>3.497440826673995</v>
+        <v>1.488208500881121</v>
       </c>
       <c r="E14" t="n">
-        <v>2.844709692857975</v>
+        <v>0.9157141996773245</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.65273113381602</v>
+        <v>-0.5724943012037961</v>
       </c>
       <c r="G14" t="n">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="H14" t="n">
-        <v>114.8843835897246</v>
+        <v>30.61568161935222</v>
       </c>
       <c r="I14" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="K14" t="n">
-        <v>477.1029076045418</v>
+        <v>75.13926540767078</v>
       </c>
       <c r="L14" t="n">
-        <v>21.63372010350937</v>
+        <v>6.299658733876002</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.9364795269556109</v>
+        <v>0.8154610162443927</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.19921875</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2491945196035008</v>
+        <v>0.4745896363992413</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9221106204872923</v>
+        <v>0.9513333959019422</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>922</v>
+        <v>2008</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>61</v>
+        <v>416</v>
       </c>
       <c r="B15" t="n">
-        <v>119</v>
+        <v>461</v>
       </c>
       <c r="C15" t="n">
-        <v>251</v>
+        <v>596</v>
       </c>
       <c r="D15" t="n">
-        <v>2.826812264241696</v>
+        <v>3.874272240918784</v>
       </c>
       <c r="E15" t="n">
-        <v>2.147827922274916</v>
+        <v>3.301777939714988</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6789843419667791</v>
+        <v>-0.5724943012037961</v>
       </c>
       <c r="G15" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H15" t="n">
-        <v>118.1075301413514</v>
+        <v>36.33486558908066</v>
       </c>
       <c r="I15" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J15" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K15" t="n">
-        <v>373.4246609160895</v>
+        <v>508.4935648408028</v>
       </c>
       <c r="L15" t="n">
-        <v>8.206181938740654</v>
+        <v>16.3999822239068</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8014960478921733</v>
+        <v>0.7688892796697708</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3939039724694127</v>
+        <v>0.2329378448451807</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6760675091210961</v>
+        <v>0.8304813795756999</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>923</v>
+        <v>2009</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1794</v>
+        <v>747</v>
       </c>
       <c r="B16" t="n">
-        <v>1840</v>
+        <v>803</v>
       </c>
       <c r="C16" t="n">
-        <v>1915</v>
+        <v>896</v>
       </c>
       <c r="D16" t="n">
-        <v>2.699894824754245</v>
+        <v>1.125442294531007</v>
       </c>
       <c r="E16" t="n">
-        <v>2.020910482787466</v>
+        <v>0.5529479933272107</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6789843419667791</v>
+        <v>-0.5724943012037961</v>
       </c>
       <c r="G16" t="n">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="H16" t="n">
-        <v>41.74088764487124</v>
+        <v>47.45593895135517</v>
       </c>
       <c r="I16" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J16" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="K16" t="n">
-        <v>207.607751111647</v>
+        <v>75.47312272503896</v>
       </c>
       <c r="L16" t="n">
-        <v>7.837743039275034</v>
+        <v>4.764051795173862</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.803283789954755</v>
+        <v>0.7315407443274036</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6133333333333333</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3291727135065147</v>
+        <v>0.2535324288336148</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9415229697936242</v>
+        <v>0.7447837950324088</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>924</v>
+        <v>2010</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1744</v>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>1768</v>
       </c>
       <c r="C17" t="n">
-        <v>175</v>
+        <v>1803</v>
       </c>
       <c r="D17" t="n">
-        <v>3.400297257110412</v>
+        <v>1.080447447173643</v>
       </c>
       <c r="E17" t="n">
-        <v>2.716162487615251</v>
+        <v>0.5079531459698473</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6841347694951609</v>
+        <v>-0.5724943012037961</v>
       </c>
       <c r="G17" t="n">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="H17" t="n">
-        <v>34.08279606505321</v>
+        <v>37.42969069004744</v>
       </c>
       <c r="I17" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J17" t="n">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="K17" t="n">
-        <v>456.376376599738</v>
+        <v>41.88487764765011</v>
       </c>
       <c r="L17" t="n">
-        <v>12.61187225177537</v>
+        <v>4.573586424920696</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8092530095418038</v>
+        <v>0.6958601667738122</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1986301369863014</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2004245035740607</v>
+        <v>0.1482865913888855</v>
       </c>
       <c r="S17" t="n">
-        <v>0.829517383781875</v>
+        <v>0.8579637788393476</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>925</v>
+        <v>2011</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>223</v>
+        <v>1803</v>
       </c>
       <c r="B18" t="n">
-        <v>263</v>
+        <v>1829</v>
       </c>
       <c r="C18" t="n">
-        <v>377</v>
+        <v>1884</v>
       </c>
       <c r="D18" t="n">
-        <v>3.139668579775431</v>
+        <v>1.106808884192076</v>
       </c>
       <c r="E18" t="n">
-        <v>2.45553381028027</v>
+        <v>0.5343145829882797</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6841347694951609</v>
+        <v>-0.5724943012037961</v>
       </c>
       <c r="G18" t="n">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="H18" t="n">
-        <v>79.63517244262701</v>
+        <v>71.19245320119171</v>
       </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J18" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="K18" t="n">
-        <v>333.7218188281298</v>
+        <v>61.42875534576662</v>
       </c>
       <c r="L18" t="n">
-        <v>11.64518747831198</v>
+        <v>4.685175665845181</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8856389574643733</v>
+        <v>0.7796263432547933</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3508771929824561</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1986857036945304</v>
+        <v>0.263798074664085</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9038648913451793</v>
+        <v>0.7118576067562048</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>926</v>
+        <v>2012</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1171</v>
+        <v>1484</v>
       </c>
       <c r="B19" t="n">
-        <v>1257</v>
+        <v>1533</v>
       </c>
       <c r="C19" t="n">
-        <v>1394</v>
+        <v>1668</v>
       </c>
       <c r="D19" t="n">
-        <v>1.549593255650177</v>
+        <v>3.330141904418118</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8654584861550164</v>
+        <v>2.672731853961951</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6841347694951609</v>
+        <v>-0.6574100504561674</v>
       </c>
       <c r="G19" t="n">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="H19" t="n">
-        <v>24.53423471379256</v>
+        <v>102.8573731308434</v>
       </c>
       <c r="I19" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="J19" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K19" t="n">
-        <v>181.2643900673241</v>
+        <v>415.5429420239809</v>
       </c>
       <c r="L19" t="n">
-        <v>5.747518732841814</v>
+        <v>20.4749683129509</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.49199903650707</v>
+        <v>0.8705586846274518</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6277372262773723</v>
+        <v>0.362962962962963</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5167936949533286</v>
+        <v>0.2024471976855641</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3279118690212564</v>
+        <v>0.8757573106280215</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>927</v>
+        <v>2013</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,73 +2105,73 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1969</v>
+        <v>1668</v>
       </c>
       <c r="B20" t="n">
-        <v>1983</v>
+        <v>1738</v>
       </c>
       <c r="C20" t="n">
-        <v>2077</v>
+        <v>1854</v>
       </c>
       <c r="D20" t="n">
-        <v>2.359050227471848</v>
+        <v>3.582836947409697</v>
       </c>
       <c r="E20" t="n">
-        <v>1.867364761277126</v>
+        <v>2.92542689695353</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4916854661947213</v>
+        <v>-0.6574100504561674</v>
       </c>
       <c r="G20" t="n">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="H20" t="n">
-        <v>18.63346143918943</v>
+        <v>139.4132410250704</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="J20" t="n">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="K20" t="n">
-        <v>137.8515510342581</v>
+        <v>406.868451445601</v>
       </c>
       <c r="L20" t="n">
-        <v>5.666957134909038</v>
+        <v>22.02863273524716</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2055), 'value': np.float64(0.9735813353838072), 'amplitude': np.float64(1.4652668015785286), 'start_idx': np.int64(2049), 'end_idx': np.int64(2076), 'duration': np.float64(27.0), 'fwhm': np.float64(23.1004336590845), 'rise_time': np.float64(6.0), 'decay_time': np.float64(21.0), 'auc': np.float64(25.78369616664489)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.7038504958845251</v>
+        <v>0.6894330008845974</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.148936170212766</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3819256581214514</v>
+        <v>0.1733144962643135</v>
       </c>
       <c r="S20" t="n">
-        <v>0.4187097423053698</v>
+        <v>0.9295352570890295</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>928</v>
+        <v>2014</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1836</v>
+        <v>1854</v>
       </c>
       <c r="B21" t="n">
-        <v>1865</v>
+        <v>1888</v>
       </c>
       <c r="C21" t="n">
-        <v>1920</v>
+        <v>1976</v>
       </c>
       <c r="D21" t="n">
-        <v>2.474153443197609</v>
+        <v>2.575076640699382</v>
       </c>
       <c r="E21" t="n">
-        <v>1.916010726520539</v>
+        <v>1.917666590243214</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5581427166770698</v>
+        <v>-0.6574100504561674</v>
       </c>
       <c r="G21" t="n">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="H21" t="n">
-        <v>34.48262267656855</v>
+        <v>40.43968305819317</v>
       </c>
       <c r="I21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J21" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="K21" t="n">
-        <v>113.04358878018</v>
+        <v>200.3633723188129</v>
       </c>
       <c r="L21" t="n">
-        <v>7.455866844808758</v>
+        <v>15.83254231652707</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8485346688744196</v>
+        <v>0.8935348183003601</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1887320607346062</v>
+        <v>0.1916718553306647</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9838031138693853</v>
+        <v>0.9881799509100146</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>929</v>
+        <v>2015</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2286</v>
+        <v>2691</v>
       </c>
       <c r="B22" t="n">
-        <v>2319</v>
+        <v>2749</v>
       </c>
       <c r="C22" t="n">
-        <v>2387</v>
+        <v>2846</v>
       </c>
       <c r="D22" t="n">
-        <v>2.941311790901854</v>
+        <v>3.437567586578829</v>
       </c>
       <c r="E22" t="n">
-        <v>2.383169074224784</v>
+        <v>2.780157536122662</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5581427166770698</v>
+        <v>-0.6574100504561674</v>
       </c>
       <c r="G22" t="n">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51435344648553</v>
+        <v>116.5723249067655</v>
       </c>
       <c r="I22" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J22" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="K22" t="n">
-        <v>190.887342636732</v>
+        <v>377.3702940677399</v>
       </c>
       <c r="L22" t="n">
-        <v>8.863649553476247</v>
+        <v>21.13546191994091</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7546149921028015</v>
+        <v>0.7356617565942801</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4852941176470588</v>
+        <v>0.5979381443298969</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1604781044613909</v>
+        <v>0.283020795240802</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8059713595518466</v>
+        <v>0.8883040786213644</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>930</v>
+        <v>2016</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>542</v>
+        <v>2846</v>
       </c>
       <c r="B23" t="n">
-        <v>576</v>
+        <v>2867</v>
       </c>
       <c r="C23" t="n">
-        <v>640</v>
+        <v>2998</v>
       </c>
       <c r="D23" t="n">
-        <v>3.930889462760236</v>
+        <v>1.736748177086776</v>
       </c>
       <c r="E23" t="n">
-        <v>3.404533611088753</v>
+        <v>1.079338126630609</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5263558516714832</v>
+        <v>-0.6574100504561674</v>
       </c>
       <c r="G23" t="n">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="H23" t="n">
-        <v>121.1162938257675</v>
+        <v>17.34195602463251</v>
       </c>
       <c r="I23" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J23" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="K23" t="n">
-        <v>281.346654302679</v>
+        <v>101.080115054859</v>
       </c>
       <c r="L23" t="n">
-        <v>19.60682852780161</v>
+        <v>10.67818276640089</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7344994231436791</v>
+        <v>0.7751649338426241</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.53125</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="R23" t="n">
-        <v>0.146455750594156</v>
+        <v>0.6616871816048342</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9493506587365931</v>
+        <v>0.8127927879372513</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>931</v>
+        <v>2017</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1553</v>
+        <v>144</v>
       </c>
       <c r="B24" t="n">
-        <v>1589</v>
+        <v>173</v>
       </c>
       <c r="C24" t="n">
-        <v>1900</v>
+        <v>253</v>
       </c>
       <c r="D24" t="n">
-        <v>3.138734729926233</v>
+        <v>2.828086038525135</v>
       </c>
       <c r="E24" t="n">
-        <v>2.493810623821863</v>
+        <v>2.146705330926634</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6449241061043701</v>
+        <v>-0.6813807075985012</v>
       </c>
       <c r="G24" t="n">
-        <v>347</v>
+        <v>109</v>
       </c>
       <c r="H24" t="n">
-        <v>158.3143382959631</v>
+        <v>34.86182806788665</v>
       </c>
       <c r="I24" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J24" t="n">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>530.2115687721912</v>
+        <v>219.1279862035283</v>
       </c>
       <c r="L24" t="n">
-        <v>8.536365745749212</v>
+        <v>8.17856875995648</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.843979323760643</v>
+        <v>0.9147707522788179</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1157556270096463</v>
+        <v>0.3625</v>
       </c>
       <c r="R24" t="n">
-        <v>0.377130669954346</v>
+        <v>0.2979843313525469</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7562477570665882</v>
+        <v>0.9429794990264602</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>932</v>
+        <v>2018</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2029</v>
+        <v>444</v>
       </c>
       <c r="B25" t="n">
-        <v>2056</v>
+        <v>466</v>
       </c>
       <c r="C25" t="n">
-        <v>2147</v>
+        <v>567</v>
       </c>
       <c r="D25" t="n">
-        <v>2.816091554145606</v>
+        <v>2.183536934517123</v>
       </c>
       <c r="E25" t="n">
-        <v>2.171167448041236</v>
+        <v>1.502156226918622</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6449241061043701</v>
+        <v>-0.6813807075985012</v>
       </c>
       <c r="G25" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H25" t="n">
-        <v>29.52722593089243</v>
+        <v>57.18292890873238</v>
       </c>
       <c r="I25" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K25" t="n">
-        <v>163.3383372400608</v>
+        <v>211.7323020421454</v>
       </c>
       <c r="L25" t="n">
-        <v>7.658878353274278</v>
+        <v>6.314591110589427</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8673180308395037</v>
+        <v>0.8346030017942763</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3862934817223293</v>
+        <v>0.1661052482724957</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7356459706907261</v>
+        <v>0.7385519706487522</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>933</v>
+        <v>2019</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1137</v>
+        <v>1795</v>
       </c>
       <c r="B26" t="n">
-        <v>1169</v>
+        <v>1838</v>
       </c>
       <c r="C26" t="n">
-        <v>1226</v>
+        <v>1917</v>
       </c>
       <c r="D26" t="n">
-        <v>4.11711900179531</v>
+        <v>2.797157161275318</v>
       </c>
       <c r="E26" t="n">
-        <v>3.655626770310016</v>
+        <v>2.115776453676817</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4614922314852948</v>
+        <v>-0.6813807075985012</v>
       </c>
       <c r="G26" t="n">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="H26" t="n">
-        <v>16.24697642856017</v>
+        <v>39.67906215204334</v>
       </c>
       <c r="I26" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J26" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>310.0407152928667</v>
+        <v>210.6372804261822</v>
       </c>
       <c r="L26" t="n">
-        <v>16.9514086979289</v>
+        <v>8.089125247344041</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.4735951835938126</v>
+        <v>0.8450364328858589</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5614035087719298</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1519620781127864</v>
+        <v>0.3118938171593697</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6596604961173813</v>
+        <v>0.9430129955388414</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>934</v>
+        <v>2020</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1643</v>
+        <v>1917</v>
       </c>
       <c r="B27" t="n">
-        <v>1665</v>
+        <v>1948</v>
       </c>
       <c r="C27" t="n">
-        <v>1694</v>
+        <v>2108</v>
       </c>
       <c r="D27" t="n">
-        <v>2.448366931108108</v>
+        <v>3.125917038760144</v>
       </c>
       <c r="E27" t="n">
-        <v>2.046854282088326</v>
+        <v>2.444536331161643</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4015126490197818</v>
+        <v>-0.6813807075985012</v>
       </c>
       <c r="G27" t="n">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="H27" t="n">
-        <v>30.10113169902047</v>
+        <v>84.30580633815111</v>
       </c>
       <c r="I27" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J27" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>62.42201082186955</v>
+        <v>256.668211232743</v>
       </c>
       <c r="L27" t="n">
-        <v>6.19589979996608</v>
+        <v>9.039869046117129</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.6439349216462822</v>
+        <v>0.9210500160913315</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.19375</v>
       </c>
       <c r="R27" t="n">
-        <v>0.09602942040937623</v>
+        <v>0.4349876062583924</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8930636483319077</v>
+        <v>0.9337811580858342</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>935</v>
+        <v>2021</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>408</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="C28" t="n">
-        <v>538</v>
+        <v>121</v>
       </c>
       <c r="D28" t="n">
-        <v>3.236077797516851</v>
+        <v>3.235682371165767</v>
       </c>
       <c r="E28" t="n">
-        <v>2.679493246814987</v>
+        <v>2.553112595171586</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5565845507018641</v>
+        <v>-0.6825697759941806</v>
       </c>
       <c r="G28" t="n">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="H28" t="n">
-        <v>26.15996831703819</v>
+        <v>15.45817498271659</v>
       </c>
       <c r="I28" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J28" t="n">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="K28" t="n">
-        <v>199.7421215566214</v>
+        <v>156.7245028054134</v>
       </c>
       <c r="L28" t="n">
-        <v>11.88691419509919</v>
+        <v>11.91398990768585</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8703481967909765</v>
+        <v>0.8511451769347829</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.25</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5293601915264328</v>
+        <v>0.1950670115453452</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8949804305698039</v>
+        <v>0.9767862779900954</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>936</v>
+        <v>2022</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>541</v>
+        <v>121</v>
       </c>
       <c r="B29" t="n">
-        <v>596</v>
+        <v>141</v>
       </c>
       <c r="C29" t="n">
-        <v>776</v>
+        <v>177</v>
       </c>
       <c r="D29" t="n">
-        <v>2.381168174977541</v>
+        <v>2.357131987868402</v>
       </c>
       <c r="E29" t="n">
-        <v>1.861467673677489</v>
+        <v>1.674562211874221</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5197005013000521</v>
+        <v>-0.6825697759941806</v>
       </c>
       <c r="G29" t="n">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c r="H29" t="n">
-        <v>67.0590030867329</v>
+        <v>19.80744378270114</v>
       </c>
       <c r="I29" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="J29" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="K29" t="n">
-        <v>270.9930399682262</v>
+        <v>109.0272608096849</v>
       </c>
       <c r="L29" t="n">
-        <v>8.995205303533824</v>
+        <v>8.679111078640828</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7834663119142445</v>
+        <v>0.7114654329956146</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R29" t="n">
-        <v>0.344043397099585</v>
+        <v>0.06508452448739721</v>
       </c>
       <c r="S29" t="n">
-        <v>0.4627194948154449</v>
+        <v>0.9313288557051225</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>937</v>
+        <v>2023</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2272</v>
+        <v>221</v>
       </c>
       <c r="B30" t="n">
-        <v>2301</v>
+        <v>257</v>
       </c>
       <c r="C30" t="n">
-        <v>2361</v>
+        <v>378</v>
       </c>
       <c r="D30" t="n">
-        <v>3.269059321394348</v>
+        <v>3.150455198442239</v>
       </c>
       <c r="E30" t="n">
-        <v>2.801793234329145</v>
+        <v>2.467885422448059</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4672660870652027</v>
+        <v>-0.6825697759941806</v>
       </c>
       <c r="G30" t="n">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="H30" t="n">
-        <v>39.95472280468766</v>
+        <v>79.50799251301683</v>
       </c>
       <c r="I30" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="K30" t="n">
-        <v>209.9676870313583</v>
+        <v>338.0237204128914</v>
       </c>
       <c r="L30" t="n">
-        <v>21.20637872644789</v>
+        <v>11.60017799439757</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8002288612471274</v>
+        <v>0.8625157389311016</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.2975206611570248</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1379758070455666</v>
+        <v>0.1441628166268822</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9565638982083112</v>
+        <v>0.8909416954251419</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>938</v>
+        <v>2024</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2191</v>
+        <v>437</v>
       </c>
       <c r="B31" t="n">
-        <v>2255</v>
+        <v>463</v>
       </c>
       <c r="C31" t="n">
-        <v>2357</v>
+        <v>517</v>
       </c>
       <c r="D31" t="n">
-        <v>4.471878989325988</v>
+        <v>1.647092898232869</v>
       </c>
       <c r="E31" t="n">
-        <v>4.075688453981357</v>
+        <v>0.9645231222386882</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.3961905353446306</v>
+        <v>-0.6825697759941806</v>
       </c>
       <c r="G31" t="n">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="H31" t="n">
-        <v>82.86621967230076</v>
+        <v>38.65170737987893</v>
       </c>
       <c r="I31" t="n">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="J31" t="n">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="K31" t="n">
-        <v>401.4902627644786</v>
+        <v>81.65089470556443</v>
       </c>
       <c r="L31" t="n">
-        <v>29.66567052265964</v>
+        <v>6.064701634943671</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7369808292829296</v>
+        <v>0.8692712836321493</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3384000928674166</v>
+        <v>0.2332499143600265</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9807468661372961</v>
+        <v>0.9655083949265429</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>939</v>
+        <v>2025</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2035</v>
+        <v>1172</v>
       </c>
       <c r="B32" t="n">
-        <v>2091</v>
+        <v>1255</v>
       </c>
       <c r="C32" t="n">
-        <v>2192</v>
+        <v>1396</v>
       </c>
       <c r="D32" t="n">
-        <v>3.670779575026007</v>
+        <v>1.597465354872365</v>
       </c>
       <c r="E32" t="n">
-        <v>3.143755376430799</v>
+        <v>0.9148955788781838</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5270241985952083</v>
+        <v>-0.6825697759941806</v>
       </c>
       <c r="G32" t="n">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="H32" t="n">
-        <v>31.42049365466892</v>
+        <v>23.35107527900118</v>
       </c>
       <c r="I32" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="J32" t="n">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="K32" t="n">
-        <v>254.6398552544188</v>
+        <v>182.5094595338434</v>
       </c>
       <c r="L32" t="n">
-        <v>12.2510915222253</v>
+        <v>5.88196983901425</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6805910751009528</v>
+        <v>0.4670313810777186</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5544554455445545</v>
+        <v>0.5886524822695035</v>
       </c>
       <c r="R32" t="n">
-        <v>0.347820877046628</v>
+        <v>0.4964906629689914</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8295776729520405</v>
+        <v>0.3324763060296917</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>940</v>
+        <v>2026</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2462</v>
+        <v>1355</v>
       </c>
       <c r="B33" t="n">
-        <v>2510</v>
+        <v>1398</v>
       </c>
       <c r="C33" t="n">
-        <v>2578</v>
+        <v>1472</v>
       </c>
       <c r="D33" t="n">
-        <v>2.009711775390786</v>
+        <v>2.470835400972806</v>
       </c>
       <c r="E33" t="n">
-        <v>1.482687576795577</v>
+        <v>1.97484032978213</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5270241985952083</v>
+        <v>-0.4959950711906762</v>
       </c>
       <c r="G33" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H33" t="n">
-        <v>51.62082930182351</v>
+        <v>39.65836094823726</v>
       </c>
       <c r="I33" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J33" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K33" t="n">
-        <v>127.217222290777</v>
+        <v>134.6087475453922</v>
       </c>
       <c r="L33" t="n">
-        <v>6.707338969933101</v>
+        <v>5.883085845153738</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.7658354581041067</v>
+        <v>0.7584864078737811</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.581081081081081</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2775471610372809</v>
+        <v>0.3792961144481003</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8252848604868507</v>
+        <v>0.5728745970167675</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>941</v>
+        <v>2027</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2578</v>
+        <v>1966</v>
       </c>
       <c r="B34" t="n">
-        <v>2670</v>
+        <v>1985</v>
       </c>
       <c r="C34" t="n">
-        <v>2838</v>
+        <v>2032</v>
       </c>
       <c r="D34" t="n">
-        <v>3.127873658902918</v>
+        <v>2.595970941797484</v>
       </c>
       <c r="E34" t="n">
-        <v>2.60084946030771</v>
+        <v>2.099975870606808</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5270241985952083</v>
+        <v>-0.4959950711906762</v>
       </c>
       <c r="G34" t="n">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="H34" t="n">
-        <v>104.551820103949</v>
+        <v>13.78857129169251</v>
       </c>
       <c r="I34" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="J34" t="n">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="K34" t="n">
-        <v>378.9415547346543</v>
+        <v>96.46652458656864</v>
       </c>
       <c r="L34" t="n">
-        <v>10.43916303934046</v>
+        <v>6.181034922887316</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.6969408918321872</v>
+        <v>0.8208808486703757</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="R34" t="n">
-        <v>0.7033924777244355</v>
+        <v>0.3103365171463306</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9552084511199879</v>
+        <v>0.858758513453729</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>942</v>
+        <v>2028</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2064</v>
+        <v>255</v>
       </c>
       <c r="B35" t="n">
-        <v>2092</v>
+        <v>283</v>
       </c>
       <c r="C35" t="n">
-        <v>2128</v>
+        <v>380</v>
       </c>
       <c r="D35" t="n">
-        <v>2.994387962428544</v>
+        <v>4.267585515777478</v>
       </c>
       <c r="E35" t="n">
-        <v>2.546344236614877</v>
+        <v>3.846958532766517</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4480437258136671</v>
+        <v>-0.4206269830109615</v>
       </c>
       <c r="G35" t="n">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="H35" t="n">
-        <v>25.46070554369135</v>
+        <v>12.07548079592976</v>
       </c>
       <c r="I35" t="n">
         <v>28</v>
       </c>
       <c r="J35" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="K35" t="n">
-        <v>102.252229693503</v>
+        <v>363.3487441701985</v>
       </c>
       <c r="L35" t="n">
-        <v>10.36382740428955</v>
+        <v>15.78856663279073</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7758140520525846</v>
+        <v>0.6740581729388136</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.288659793814433</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1764101362986004</v>
+        <v>0.3358407090817978</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9884897152498966</v>
+        <v>0.8916815270172944</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>943</v>
+        <v>2029</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,73 +3481,73 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1894</v>
+        <v>1837</v>
       </c>
       <c r="B36" t="n">
-        <v>1946</v>
+        <v>1864</v>
       </c>
       <c r="C36" t="n">
-        <v>2109</v>
+        <v>1924</v>
       </c>
       <c r="D36" t="n">
-        <v>2.561741534324114</v>
+        <v>2.544750752517869</v>
       </c>
       <c r="E36" t="n">
-        <v>2.036637607402965</v>
+        <v>1.962929197962355</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5251039269211497</v>
+        <v>-0.5818215545555137</v>
       </c>
       <c r="G36" t="n">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="H36" t="n">
-        <v>32.93185813842661</v>
+        <v>34.8284382752679</v>
       </c>
       <c r="I36" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J36" t="n">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>234.2530918278383</v>
+        <v>117.227466101817</v>
       </c>
       <c r="L36" t="n">
-        <v>5.825334457409839</v>
+        <v>7.669924781569789</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2031), 'value': np.float64(1.0955057144489428), 'amplitude': np.float64(1.6206096413700926), 'start_idx': np.int64(2000), 'end_idx': np.int64(2040), 'duration': np.float64(40.0), 'fwhm': np.float64(52.51212181681194), 'rise_time': np.float64(31.0), 'decay_time': np.float64(9.0), 'auc': np.float64(50.20381516400671)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.6425923530175579</v>
+        <v>0.910228692963958</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.3190184049079755</v>
+        <v>0.45</v>
       </c>
       <c r="R36" t="n">
-        <v>0.5237748478128993</v>
+        <v>0.2283670192991269</v>
       </c>
       <c r="S36" t="n">
-        <v>0.335639353666663</v>
+        <v>0.9881787596465329</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>944</v>
+        <v>2030</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2330</v>
+        <v>2287</v>
       </c>
       <c r="B37" t="n">
-        <v>2358</v>
+        <v>2320</v>
       </c>
       <c r="C37" t="n">
-        <v>2397</v>
+        <v>2387</v>
       </c>
       <c r="D37" t="n">
-        <v>1.759642448029</v>
+        <v>2.951873040033001</v>
       </c>
       <c r="E37" t="n">
-        <v>1.211955453020596</v>
+        <v>2.370051485477487</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5476869950084042</v>
+        <v>-0.5818215545555137</v>
       </c>
       <c r="G37" t="n">
+        <v>100</v>
+      </c>
+      <c r="H37" t="n">
+        <v>67.40531628803683</v>
+      </c>
+      <c r="I37" t="n">
+        <v>33</v>
+      </c>
+      <c r="J37" t="n">
         <v>67</v>
       </c>
-      <c r="H37" t="n">
-        <v>39.70349858417194</v>
-      </c>
-      <c r="I37" t="n">
-        <v>28</v>
-      </c>
-      <c r="J37" t="n">
-        <v>39</v>
-      </c>
       <c r="K37" t="n">
-        <v>70.82834946243567</v>
+        <v>193.5916222365584</v>
       </c>
       <c r="L37" t="n">
-        <v>5.532721226220191</v>
+        <v>8.896998717613263</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.6030489035972678</v>
+        <v>0.7364337172487071</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.717948717948718</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="R37" t="n">
-        <v>0.05379733302205667</v>
+        <v>0.1506646294053974</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8415909687798594</v>
+        <v>0.7819746628471949</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>945</v>
+        <v>2031</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2529</v>
+        <v>2443</v>
       </c>
       <c r="B38" t="n">
-        <v>2546</v>
+        <v>2476</v>
       </c>
       <c r="C38" t="n">
-        <v>2574</v>
+        <v>2554</v>
       </c>
       <c r="D38" t="n">
-        <v>3.207250869350575</v>
+        <v>4.098318042268035</v>
       </c>
       <c r="E38" t="n">
-        <v>2.659563874342171</v>
+        <v>3.516496487712522</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5476869950084042</v>
+        <v>-0.5818215545555137</v>
       </c>
       <c r="G38" t="n">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="H38" t="n">
-        <v>21.13286546035124</v>
+        <v>110.4722428884456</v>
       </c>
       <c r="I38" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J38" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="K38" t="n">
-        <v>113.9433616778458</v>
+        <v>254.073962108342</v>
       </c>
       <c r="L38" t="n">
-        <v>10.08433558905408</v>
+        <v>12.35240468405185</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.6849523656805881</v>
+        <v>0.8548800818428554</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="R38" t="n">
-        <v>0.06942362760239461</v>
+        <v>0.3826086435112649</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9252258090600837</v>
+        <v>0.9818474987351552</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>946</v>
+        <v>2032</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,85 +3739,3955 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>542</v>
+      </c>
+      <c r="B39" t="n">
+        <v>572</v>
+      </c>
+      <c r="C39" t="n">
+        <v>638</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.886026214706997</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.359400433880629</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.5266257808263679</v>
+      </c>
+      <c r="G39" t="n">
+        <v>96</v>
+      </c>
+      <c r="H39" t="n">
+        <v>122.381565151147</v>
+      </c>
+      <c r="I39" t="n">
+        <v>30</v>
+      </c>
+      <c r="J39" t="n">
+        <v>66</v>
+      </c>
+      <c r="K39" t="n">
+        <v>277.830542207431</v>
+      </c>
+      <c r="L39" t="n">
+        <v>19.39211553810028</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.7051047545211589</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.09135386506494399</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.918724686270334</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>2033</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>813</v>
+      </c>
+      <c r="B40" t="n">
+        <v>840</v>
+      </c>
+      <c r="C40" t="n">
+        <v>902</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.696739260969777</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.170113480143409</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.5266257808263679</v>
+      </c>
+      <c r="G40" t="n">
+        <v>89</v>
+      </c>
+      <c r="H40" t="n">
+        <v>51.74934434588579</v>
+      </c>
+      <c r="I40" t="n">
+        <v>27</v>
+      </c>
+      <c r="J40" t="n">
+        <v>62</v>
+      </c>
+      <c r="K40" t="n">
+        <v>254.9285440724834</v>
+      </c>
+      <c r="L40" t="n">
+        <v>18.44753249261406</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7245181294162586</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.4354838709677419</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.1015683425418039</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7877236876458469</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>2034</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>902</v>
+      </c>
+      <c r="B41" t="n">
+        <v>914</v>
+      </c>
+      <c r="C41" t="n">
+        <v>938</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.860995483718733</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.334369702892366</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5266257808263679</v>
+      </c>
+      <c r="G41" t="n">
+        <v>36</v>
+      </c>
+      <c r="H41" t="n">
+        <v>17.24836689786139</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>24</v>
+      </c>
+      <c r="K41" t="n">
+        <v>57.99682183205622</v>
+      </c>
+      <c r="L41" t="n">
+        <v>9.286771998494496</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.7157886814152875</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.06764284817333656</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9244049288999694</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>2035</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1143</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1254</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.200616871993784</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.569209662567304</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.6314072094264797</v>
+      </c>
+      <c r="G42" t="n">
+        <v>130</v>
+      </c>
+      <c r="H42" t="n">
+        <v>38.42422303374656</v>
+      </c>
+      <c r="I42" t="n">
+        <v>19</v>
+      </c>
+      <c r="J42" t="n">
+        <v>111</v>
+      </c>
+      <c r="K42" t="n">
+        <v>105.8771861232581</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.940023889232576</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8172954456630871</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.1711711711711712</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.5139102576129038</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6099553340346205</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>2036</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1342</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1444</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.074969190112505</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.443561980686025</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.6314072094264797</v>
+      </c>
+      <c r="G43" t="n">
+        <v>102</v>
+      </c>
+      <c r="H43" t="n">
+        <v>53.70575288413102</v>
+      </c>
+      <c r="I43" t="n">
+        <v>28</v>
+      </c>
+      <c r="J43" t="n">
+        <v>74</v>
+      </c>
+      <c r="K43" t="n">
+        <v>179.9557884360071</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8.30012287935145</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8603816333690731</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.1811928744288054</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9277135234604391</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>2037</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1555</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1587</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1664</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.207955167044131</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.576547957617652</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6314072094264797</v>
+      </c>
+      <c r="G44" t="n">
+        <v>109</v>
+      </c>
+      <c r="H44" t="n">
+        <v>158.1188273904907</v>
+      </c>
+      <c r="I44" t="n">
+        <v>32</v>
+      </c>
+      <c r="J44" t="n">
+        <v>77</v>
+      </c>
+      <c r="K44" t="n">
+        <v>231.5752776612528</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8.659085809228062</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7531167136886081</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.4155844155844156</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.667505607532856</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.543684977921888</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>2038</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1664</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1678</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1743</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.167623638999787</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.536216429573307</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.6314072094264797</v>
+      </c>
+      <c r="G45" t="n">
+        <v>79</v>
+      </c>
+      <c r="H45" t="n">
+        <v>24.78945869139216</v>
+      </c>
+      <c r="I45" t="n">
+        <v>14</v>
+      </c>
+      <c r="J45" t="n">
+        <v>65</v>
+      </c>
+      <c r="K45" t="n">
+        <v>124.4800353482265</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5.850966773175024</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.9101030981756357</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.2153846153846154</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.2236211670524517</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.8959315778476165</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>2039</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2077</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2147</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.721624078364915</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.090216868938436</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.6314072094264797</v>
+      </c>
+      <c r="G46" t="n">
+        <v>70</v>
+      </c>
+      <c r="H46" t="n">
+        <v>16.07125217572457</v>
+      </c>
+      <c r="I46" t="n">
+        <v>23</v>
+      </c>
+      <c r="J46" t="n">
+        <v>47</v>
+      </c>
+      <c r="K46" t="n">
+        <v>68.00356419051131</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.647100676139186</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8110215828860878</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.4893617021276596</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.369565451261123</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9216955358440102</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>2040</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.673553763930868</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.140969207520742</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.5325845564101263</v>
+      </c>
+      <c r="G47" t="n">
+        <v>132</v>
+      </c>
+      <c r="H47" t="n">
+        <v>21.07067059472365</v>
+      </c>
+      <c r="I47" t="n">
+        <v>22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>110</v>
+      </c>
+      <c r="K47" t="n">
+        <v>214.7153006925828</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.257207903935115</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7869095109205487</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.3049128750332718</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.7159260408150765</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>2041</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1689</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1707</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1765</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.254293858821179</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.746348681730784</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5079451770903953</v>
+      </c>
+      <c r="G48" t="n">
+        <v>76</v>
+      </c>
+      <c r="H48" t="n">
+        <v>15.04966842635849</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>58</v>
+      </c>
+      <c r="K48" t="n">
+        <v>125.0394333743055</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6.875315720863591</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8127287338809766</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.2322842357099411</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.6410314149318772</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>2042</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1121</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1149</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.342636516795028</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.895055987389889</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.4475805294051393</v>
+      </c>
+      <c r="G49" t="n">
+        <v>47</v>
+      </c>
+      <c r="H49" t="n">
+        <v>22.35110054757615</v>
+      </c>
+      <c r="I49" t="n">
+        <v>19</v>
+      </c>
+      <c r="J49" t="n">
+        <v>28</v>
+      </c>
+      <c r="K49" t="n">
+        <v>102.0315781648012</v>
+      </c>
+      <c r="L49" t="n">
+        <v>9.144544446087737</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8049920079644199</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.23544766981915</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9428806279007558</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>2043</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1294</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.564761811719592</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.117181282314453</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.4475805294051393</v>
+      </c>
+      <c r="G50" t="n">
+        <v>98</v>
+      </c>
+      <c r="H50" t="n">
+        <v>29.57177196448356</v>
+      </c>
+      <c r="I50" t="n">
+        <v>22</v>
+      </c>
+      <c r="J50" t="n">
+        <v>76</v>
+      </c>
+      <c r="K50" t="n">
+        <v>184.5510974677207</v>
+      </c>
+      <c r="L50" t="n">
+        <v>9.75221884377714</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.9284240461374447</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.2694294989715032</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.875943769072167</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>2044</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1226</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.162057518176524</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.696048260837028</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.4660092573394963</v>
+      </c>
+      <c r="G51" t="n">
+        <v>90</v>
+      </c>
+      <c r="H51" t="n">
+        <v>110.6187850439728</v>
+      </c>
+      <c r="I51" t="n">
+        <v>34</v>
+      </c>
+      <c r="J51" t="n">
+        <v>56</v>
+      </c>
+      <c r="K51" t="n">
+        <v>314.3387357444949</v>
+      </c>
+      <c r="L51" t="n">
+        <v>17.1075345232906</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.4717135296411955</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.1530838809191918</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.6081083643697225</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>2045</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1255</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.391442287115937</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.925433029776441</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.4660092573394963</v>
+      </c>
+      <c r="G52" t="n">
+        <v>124</v>
+      </c>
+      <c r="H52" t="n">
+        <v>83.07582252607881</v>
+      </c>
+      <c r="I52" t="n">
+        <v>29</v>
+      </c>
+      <c r="J52" t="n">
+        <v>95</v>
+      </c>
+      <c r="K52" t="n">
+        <v>313.1437817273106</v>
+      </c>
+      <c r="L52" t="n">
+        <v>18.05038738791591</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.912192995268875</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3052631578947368</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2201184799429436</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.914827106453404</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>2046</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.469283375024905</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.863597976896633</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.6056853981282718</v>
+      </c>
+      <c r="G53" t="n">
+        <v>82</v>
+      </c>
+      <c r="H53" t="n">
+        <v>106.3820107113957</v>
+      </c>
+      <c r="I53" t="n">
+        <v>31</v>
+      </c>
+      <c r="J53" t="n">
+        <v>51</v>
+      </c>
+      <c r="K53" t="n">
+        <v>256.4100600154214</v>
+      </c>
+      <c r="L53" t="n">
+        <v>14.08810430382911</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.582316520417323</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0472656239833189</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.7814345401898941</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>2047</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>142</v>
+      </c>
+      <c r="B54" t="n">
+        <v>219</v>
+      </c>
+      <c r="C54" t="n">
+        <v>318</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.466724584374665</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.071503442459693</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.3952211419149721</v>
+      </c>
+      <c r="G54" t="n">
+        <v>176</v>
+      </c>
+      <c r="H54" t="n">
+        <v>143.9832643247616</v>
+      </c>
+      <c r="I54" t="n">
+        <v>77</v>
+      </c>
+      <c r="J54" t="n">
+        <v>99</v>
+      </c>
+      <c r="K54" t="n">
+        <v>162.0026191695246</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.586626195093373</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.5501319795026607</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.290221234099052</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.8244767979728181</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>2048</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1695</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1721</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1774</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.308334148508564</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.913113006593592</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.3952211419149721</v>
+      </c>
+      <c r="G55" t="n">
+        <v>79</v>
+      </c>
+      <c r="H55" t="n">
+        <v>57.84028370266105</v>
+      </c>
+      <c r="I55" t="n">
+        <v>26</v>
+      </c>
+      <c r="J55" t="n">
+        <v>53</v>
+      </c>
+      <c r="K55" t="n">
+        <v>104.088028556072</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.64463963600853</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8019495104459015</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.4905660377358491</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.3583927052157825</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8093073769983512</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>2049</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1774</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1793</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1824</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.638859047057563</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.243637905142591</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.3952211419149721</v>
+      </c>
+      <c r="G56" t="n">
+        <v>50</v>
+      </c>
+      <c r="H56" t="n">
+        <v>26.28961805431004</v>
+      </c>
+      <c r="I56" t="n">
+        <v>19</v>
+      </c>
+      <c r="J56" t="n">
+        <v>31</v>
+      </c>
+      <c r="K56" t="n">
+        <v>54.74248041174364</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4.007551827290384</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.7431662229056275</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.1516777737391194</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9077304502687918</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>2050</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1824</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1851</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1886</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.378164481030542</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9829433391155701</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.3952211419149721</v>
+      </c>
+      <c r="G57" t="n">
+        <v>62</v>
+      </c>
+      <c r="H57" t="n">
+        <v>27.84523823580957</v>
+      </c>
+      <c r="I57" t="n">
+        <v>27</v>
+      </c>
+      <c r="J57" t="n">
+        <v>35</v>
+      </c>
+      <c r="K57" t="n">
+        <v>48.38712379803489</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3.370067483336571</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7127634111644526</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.1387738518554771</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.9270838164158288</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>2051</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>407</v>
+      </c>
+      <c r="B58" t="n">
+        <v>433</v>
+      </c>
+      <c r="C58" t="n">
+        <v>537</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.412400666762986</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.840424952229466</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5719757145335207</v>
+      </c>
+      <c r="G58" t="n">
+        <v>130</v>
+      </c>
+      <c r="H58" t="n">
+        <v>25.32869088325265</v>
+      </c>
+      <c r="I58" t="n">
+        <v>26</v>
+      </c>
+      <c r="J58" t="n">
+        <v>104</v>
+      </c>
+      <c r="K58" t="n">
+        <v>203.5414103022501</v>
+      </c>
+      <c r="L58" t="n">
+        <v>12.36049526833017</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8594280181515332</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.5059639777933075</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.8594956039438115</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>2052</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1888</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.039974266678628</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.467998552145107</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5719757145335207</v>
+      </c>
+      <c r="G59" t="n">
+        <v>110</v>
+      </c>
+      <c r="H59" t="n">
+        <v>139.7763643235885</v>
+      </c>
+      <c r="I59" t="n">
+        <v>31</v>
+      </c>
+      <c r="J59" t="n">
+        <v>79</v>
+      </c>
+      <c r="K59" t="n">
+        <v>153.7966824304055</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7.389253119187673</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7317686426350963</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3924050632911392</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.1335545483457131</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.7464434155113026</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>2053</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2606</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2635</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2673</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.09384122245307</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.521865507919549</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5719757145335207</v>
+      </c>
+      <c r="G60" t="n">
+        <v>67</v>
+      </c>
+      <c r="H60" t="n">
+        <v>40.82161725492779</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>38</v>
+      </c>
+      <c r="K60" t="n">
+        <v>92.64859068567696</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.584371546649751</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.6782964942614841</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.1410104672793321</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.877620465084674</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>2054</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>541</v>
+      </c>
+      <c r="B61" t="n">
+        <v>596</v>
+      </c>
+      <c r="C61" t="n">
+        <v>693</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.486033062505185</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.955379476493026</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5306535860121596</v>
+      </c>
+      <c r="G61" t="n">
+        <v>152</v>
+      </c>
+      <c r="H61" t="n">
+        <v>71.84861343799582</v>
+      </c>
+      <c r="I61" t="n">
+        <v>55</v>
+      </c>
+      <c r="J61" t="n">
+        <v>97</v>
+      </c>
+      <c r="K61" t="n">
+        <v>202.0187364008434</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9.194467210235779</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7632101450500886</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.5670103092783505</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.2507372849358452</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.7752476862080275</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>2055</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>693</v>
+      </c>
+      <c r="B62" t="n">
+        <v>724</v>
+      </c>
+      <c r="C62" t="n">
+        <v>777</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.179460330802063</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6488067447899036</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.5306535860121596</v>
+      </c>
+      <c r="G62" t="n">
+        <v>84</v>
+      </c>
+      <c r="H62" t="n">
+        <v>30.49281350480067</v>
+      </c>
+      <c r="I62" t="n">
+        <v>31</v>
+      </c>
+      <c r="J62" t="n">
+        <v>53</v>
+      </c>
+      <c r="K62" t="n">
+        <v>72.11413951707632</v>
+      </c>
+      <c r="L62" t="n">
+        <v>4.362174220806766</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.6920364112051863</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.5849056603773585</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.1992819461577449</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.5102468898955499</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>2056</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>777</v>
+      </c>
+      <c r="B63" t="n">
+        <v>799</v>
+      </c>
+      <c r="C63" t="n">
+        <v>853</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.635688996652569</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.10503541064041</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5306535860121596</v>
+      </c>
+      <c r="G63" t="n">
+        <v>76</v>
+      </c>
+      <c r="H63" t="n">
+        <v>19.21467436945022</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22</v>
+      </c>
+      <c r="J63" t="n">
+        <v>54</v>
+      </c>
+      <c r="K63" t="n">
+        <v>92.35828976303361</v>
+      </c>
+      <c r="L63" t="n">
+        <v>6.049512805236129</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8093895213698743</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.4720552057621313</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.7107177081733758</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>2057</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2271</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2299</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2363</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.358310063520584</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.887731258013192</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4705788055073922</v>
+      </c>
+      <c r="G64" t="n">
+        <v>92</v>
+      </c>
+      <c r="H64" t="n">
+        <v>39.50492037875483</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28</v>
+      </c>
+      <c r="J64" t="n">
+        <v>64</v>
+      </c>
+      <c r="K64" t="n">
+        <v>214.8454040736355</v>
+      </c>
+      <c r="L64" t="n">
+        <v>21.32900257484572</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8037328826918418</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.1176108200961257</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9498035402287701</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>2058</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2363</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2390</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.805508298815356</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.334929493307964</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.4705788055073922</v>
+      </c>
+      <c r="G65" t="n">
+        <v>136</v>
+      </c>
+      <c r="H65" t="n">
+        <v>33.86294355376867</v>
+      </c>
+      <c r="I65" t="n">
+        <v>27</v>
+      </c>
+      <c r="J65" t="n">
+        <v>109</v>
+      </c>
+      <c r="K65" t="n">
+        <v>261.6636583414511</v>
+      </c>
+      <c r="L65" t="n">
+        <v>24.16920855096379</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8820207583375522</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.2477064220183486</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.2038000250736487</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.9101142852791033</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>2059</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>501</v>
+      </c>
+      <c r="B66" t="n">
+        <v>529</v>
+      </c>
+      <c r="C66" t="n">
+        <v>577</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.323464531396011</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.8206936807946709</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.5027708506013397</v>
+      </c>
+      <c r="G66" t="n">
+        <v>76</v>
+      </c>
+      <c r="H66" t="n">
+        <v>27.44480446933972</v>
+      </c>
+      <c r="I66" t="n">
+        <v>28</v>
+      </c>
+      <c r="J66" t="n">
+        <v>48</v>
+      </c>
+      <c r="K66" t="n">
+        <v>61.52514033844248</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3.805646677212875</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.7630144442631307</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.576830712789556</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.6599965475119909</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>2060</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>831</v>
+      </c>
+      <c r="B67" t="n">
+        <v>847</v>
+      </c>
+      <c r="C67" t="n">
+        <v>870</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.150541570080109</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6477707194787691</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.5027708506013397</v>
+      </c>
+      <c r="G67" t="n">
+        <v>39</v>
+      </c>
+      <c r="H67" t="n">
+        <v>14.90853448690609</v>
+      </c>
+      <c r="I67" t="n">
+        <v>16</v>
+      </c>
+      <c r="J67" t="n">
+        <v>23</v>
+      </c>
+      <c r="K67" t="n">
+        <v>30.15570153430046</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.308403511616653</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8142442156394403</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.254554640944191</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.8788285202197302</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>2061</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2748</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2766</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2797</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.662443921715374</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.159673071114034</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.5027708506013397</v>
+      </c>
+      <c r="G68" t="n">
+        <v>49</v>
+      </c>
+      <c r="H68" t="n">
+        <v>15.60924092299592</v>
+      </c>
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
+        <v>31</v>
+      </c>
+      <c r="K68" t="n">
+        <v>116.5006785948476</v>
+      </c>
+      <c r="L68" t="n">
+        <v>10.53142506694352</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.8348053057018453</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3244612240810708</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9638885430959879</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>2062</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2797</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2818</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2880</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.893033207828157</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.390262357226817</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.5027708506013397</v>
+      </c>
+      <c r="G69" t="n">
+        <v>83</v>
+      </c>
+      <c r="H69" t="n">
+        <v>52.11267603346641</v>
+      </c>
+      <c r="I69" t="n">
+        <v>21</v>
+      </c>
+      <c r="J69" t="n">
+        <v>62</v>
+      </c>
+      <c r="K69" t="n">
+        <v>114.274787313815</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5.443451914518433</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.8194672064324338</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.3387096774193548</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.151618994401545</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.8367750807296435</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>2063</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2254</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.552548724841018</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.15508379287775</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.3974649319632678</v>
+      </c>
+      <c r="G70" t="n">
+        <v>167</v>
+      </c>
+      <c r="H70" t="n">
+        <v>82.21007091546971</v>
+      </c>
+      <c r="I70" t="n">
+        <v>61</v>
+      </c>
+      <c r="J70" t="n">
+        <v>106</v>
+      </c>
+      <c r="K70" t="n">
+        <v>402.4149798927678</v>
+      </c>
+      <c r="L70" t="n">
+        <v>29.31184228780525</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.7377840310250297</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.5754716981132075</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.3614884767190567</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.9782601000319796</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>2064</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2462</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2510</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2576</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.014255377628066</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.493725267567032</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.5205301100610336</v>
+      </c>
+      <c r="G71" t="n">
+        <v>114</v>
+      </c>
+      <c r="H71" t="n">
+        <v>52.11367947537292</v>
+      </c>
+      <c r="I71" t="n">
+        <v>48</v>
+      </c>
+      <c r="J71" t="n">
+        <v>66</v>
+      </c>
+      <c r="K71" t="n">
+        <v>125.8776627757691</v>
+      </c>
+      <c r="L71" t="n">
+        <v>6.495673070352042</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.6752963976566843</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.3041570620959322</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.5798229734423647</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>2065</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2576</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2673</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2798</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.108443431013673</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.587913320952639</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.5205301100610336</v>
+      </c>
+      <c r="G72" t="n">
+        <v>222</v>
+      </c>
+      <c r="H72" t="n">
+        <v>103.8887476618597</v>
+      </c>
+      <c r="I72" t="n">
+        <v>97</v>
+      </c>
+      <c r="J72" t="n">
+        <v>125</v>
+      </c>
+      <c r="K72" t="n">
+        <v>351.4017244408595</v>
+      </c>
+      <c r="L72" t="n">
+        <v>10.02426629205534</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.6055572506844454</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.9178272299590873</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.902700869623921</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>2066</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2065</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2092</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2129</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.032449017732742</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.57391003742176</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.4585389803109813</v>
+      </c>
+      <c r="G73" t="n">
+        <v>64</v>
+      </c>
+      <c r="H73" t="n">
+        <v>25.89022816705256</v>
+      </c>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="n">
+        <v>37</v>
+      </c>
+      <c r="K73" t="n">
+        <v>103.6091031157072</v>
+      </c>
+      <c r="L73" t="n">
+        <v>10.33380997328157</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.8236482019874005</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.244515949642142</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.9900364203155267</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>2067</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2632</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2691</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2765</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.925769532943274</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.467230552632293</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.4585389803109813</v>
+      </c>
+      <c r="G74" t="n">
+        <v>133</v>
+      </c>
+      <c r="H74" t="n">
+        <v>111.9095597156816</v>
+      </c>
+      <c r="I74" t="n">
+        <v>59</v>
+      </c>
+      <c r="J74" t="n">
+        <v>74</v>
+      </c>
+      <c r="K74" t="n">
+        <v>237.9771494880932</v>
+      </c>
+      <c r="L74" t="n">
+        <v>9.970273598089298</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.6934966597405738</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.7972972972972973</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2489173489982019</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.7264012664743362</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>2068</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2765</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2789</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2819</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.888161148490827</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.429622168179845</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.4585389803109813</v>
+      </c>
+      <c r="G75" t="n">
+        <v>54</v>
+      </c>
+      <c r="H75" t="n">
+        <v>22.19048690952104</v>
+      </c>
+      <c r="I75" t="n">
+        <v>24</v>
+      </c>
+      <c r="J75" t="n">
+        <v>30</v>
+      </c>
+      <c r="K75" t="n">
+        <v>62.74990185647349</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.434369842110545</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.7519941983026148</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.1832617959370213</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.8945954331223794</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>2069</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2403</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2476</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2571</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.439685953616814</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.899287753656842</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.5403981999599716</v>
+      </c>
+      <c r="G76" t="n">
+        <v>168</v>
+      </c>
+      <c r="H76" t="n">
+        <v>152.817005112995</v>
+      </c>
+      <c r="I76" t="n">
+        <v>73</v>
+      </c>
+      <c r="J76" t="n">
+        <v>95</v>
+      </c>
+      <c r="K76" t="n">
+        <v>415.9522677325872</v>
+      </c>
+      <c r="L76" t="n">
+        <v>9.704515713602566</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.5243765208302186</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.7684210526315789</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.09689059861932936</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.9603075950005199</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>2070</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>598</v>
+      </c>
+      <c r="B77" t="n">
+        <v>625</v>
+      </c>
+      <c r="C77" t="n">
+        <v>675</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.675441688021672</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.144144116373939</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.5312975716477333</v>
+      </c>
+      <c r="G77" t="n">
+        <v>77</v>
+      </c>
+      <c r="H77" t="n">
+        <v>109.8587902948719</v>
+      </c>
+      <c r="I77" t="n">
+        <v>27</v>
+      </c>
+      <c r="J77" t="n">
+        <v>50</v>
+      </c>
+      <c r="K77" t="n">
+        <v>127.4441375495562</v>
+      </c>
+      <c r="L77" t="n">
+        <v>6.060653680560823</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.7660815139633967</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.2643744383749054</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.9295544963896823</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>2071</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2112</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.688455521048115</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.157157949400381</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.5312975716477333</v>
+      </c>
+      <c r="G78" t="n">
+        <v>113</v>
+      </c>
+      <c r="H78" t="n">
+        <v>51.336579232541</v>
+      </c>
+      <c r="I78" t="n">
+        <v>30</v>
+      </c>
+      <c r="J78" t="n">
+        <v>83</v>
+      </c>
+      <c r="K78" t="n">
+        <v>112.7609679490572</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3.824842908712502</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.8559284698507674</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.3614457831325301</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.1957166536611798</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.7436190356293029</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>2072</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1524</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1543</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1568</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.403385231978487</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8523312864036163</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.5510539455748705</v>
+      </c>
+      <c r="G79" t="n">
+        <v>44</v>
+      </c>
+      <c r="H79" t="n">
+        <v>18.05507895156165</v>
+      </c>
+      <c r="I79" t="n">
+        <v>19</v>
+      </c>
+      <c r="J79" t="n">
+        <v>25</v>
+      </c>
+      <c r="K79" t="n">
+        <v>30.95891087773044</v>
+      </c>
+      <c r="L79" t="n">
+        <v>4.357341844811867</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.8041369541774902</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.3273480909303288</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.9413747655668467</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>2073</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1758</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1789</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1886</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.241136291778225</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.690082346203354</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.5510539455748705</v>
+      </c>
+      <c r="G80" t="n">
+        <v>128</v>
+      </c>
+      <c r="H80" t="n">
+        <v>33.27588773764751</v>
+      </c>
+      <c r="I80" t="n">
+        <v>31</v>
+      </c>
+      <c r="J80" t="n">
+        <v>97</v>
+      </c>
+      <c r="K80" t="n">
+        <v>183.2328415347395</v>
+      </c>
+      <c r="L80" t="n">
+        <v>6.958457821538095</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.8486637459635794</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.3195876288659794</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.3760276626276877</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.8824886935925965</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>2074</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2531</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2573</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.312646218033473</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.761592272458602</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.5510539455748705</v>
+      </c>
+      <c r="G81" t="n">
+        <v>42</v>
+      </c>
+      <c r="H81" t="n">
+        <v>22.04304219160804</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>27</v>
+      </c>
+      <c r="K81" t="n">
+        <v>108.4452049098347</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10.28536687859082</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.6905458586134339</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.08025237263722876</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.8834871218738704</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>2075</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2573</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2597</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2643</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.937425213957614</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.386371268382744</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.5510539455748705</v>
+      </c>
+      <c r="G82" t="n">
+        <v>70</v>
+      </c>
+      <c r="H82" t="n">
+        <v>34.95768880454307</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>46</v>
+      </c>
+      <c r="K82" t="n">
+        <v>144.8183813725635</v>
+      </c>
+      <c r="L82" t="n">
+        <v>9.120350926550987</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.7544759019991153</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.1122414144006319</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.9698067867828517</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>2076</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>787</v>
+      </c>
+      <c r="B83" t="n">
+        <v>803</v>
+      </c>
+      <c r="C83" t="n">
+        <v>870</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9930484519827372</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.4939334829934919</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.4991149689892452</v>
+      </c>
+      <c r="G83" t="n">
+        <v>83</v>
+      </c>
+      <c r="H83" t="n">
+        <v>12.06569663435312</v>
+      </c>
+      <c r="I83" t="n">
+        <v>16</v>
+      </c>
+      <c r="J83" t="n">
+        <v>67</v>
+      </c>
+      <c r="K83" t="n">
+        <v>43.45517322190859</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5.597062706365451</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.7731343168588316</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.2388059701492537</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.4201878827662566</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.5907978114473156</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>2077</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
         <v>2126</v>
       </c>
-      <c r="B39" t="n">
-        <v>2139</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B84" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C84" t="n">
         <v>2168</v>
       </c>
-      <c r="D39" t="n">
-        <v>2.355786731703359</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.865729618855369</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-0.4900571128479903</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="D84" t="n">
+        <v>2.369182811274464</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.870067842285219</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.4991149689892452</v>
+      </c>
+      <c r="G84" t="n">
         <v>42</v>
       </c>
-      <c r="H39" t="n">
-        <v>14.84742178513761</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>29</v>
-      </c>
-      <c r="K39" t="n">
-        <v>76.04508073965341</v>
-      </c>
-      <c r="L39" t="n">
-        <v>13.44511930123168</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>0.7555290089698589</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.1489148182171589</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.6100870097087578</v>
-      </c>
-      <c r="T39" t="inlineStr">
+      <c r="H84" t="n">
+        <v>12.3997615778967</v>
+      </c>
+      <c r="I84" t="n">
+        <v>14</v>
+      </c>
+      <c r="J84" t="n">
+        <v>28</v>
+      </c>
+      <c r="K84" t="n">
+        <v>76.17683149226691</v>
+      </c>
+      <c r="L84" t="n">
+        <v>13.35329079972915</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.7405718415543739</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1048770244442359</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.9418005579477178</v>
+      </c>
+      <c r="T84" t="inlineStr">
         <is>
           <t>n35</t>
         </is>
       </c>
-      <c r="U39" t="n">
-        <v>947</v>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
+      <c r="U84" t="n">
+        <v>2078</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social32024-12-07121733trace/processed_No.2979240926social32024-12-07121733trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social32024-12-07121733trace/processed_No.2979240926social32024-12-07121733trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="C2" t="n">
-        <v>224</v>
+        <v>386</v>
       </c>
       <c r="D2" t="n">
-        <v>1.887720483988066</v>
+        <v>3.192284433813957</v>
       </c>
       <c r="E2" t="n">
-        <v>1.205648031329342</v>
+        <v>2.506877248827899</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6820724526587242</v>
+        <v>-0.6854071849860579</v>
       </c>
       <c r="G2" t="n">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="H2" t="n">
-        <v>109.6958526269066</v>
+        <v>312.935919841162</v>
       </c>
       <c r="I2" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="K2" t="n">
-        <v>240.8566892542251</v>
+        <v>385.3759601396834</v>
       </c>
       <c r="L2" t="n">
-        <v>5.658168631140793</v>
+        <v>9.581152541406265</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.5567081724327337</v>
+        <v>0.8478330824954451</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7959183673469388</v>
+        <v>0.2366412213740458</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2040783524187252</v>
+        <v>0.2174982399589062</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8546401515744898</v>
+        <v>0.8066796756610333</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1996</v>
+        <v>1579</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>224</v>
+        <v>2509</v>
       </c>
       <c r="B3" t="n">
-        <v>255</v>
+        <v>2541</v>
       </c>
       <c r="C3" t="n">
-        <v>386</v>
+        <v>2681</v>
       </c>
       <c r="D3" t="n">
-        <v>3.214595335570568</v>
+        <v>3.319089407315519</v>
       </c>
       <c r="E3" t="n">
-        <v>2.532522882911844</v>
+        <v>2.633682222329461</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6820724526587242</v>
+        <v>-0.6854071849860579</v>
       </c>
       <c r="G3" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="H3" t="n">
-        <v>312.4923669466899</v>
+        <v>40.13725438322444</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>384.7778154573554</v>
+        <v>239.7959058916375</v>
       </c>
       <c r="L3" t="n">
-        <v>9.635283742384757</v>
+        <v>9.96173823773656</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8482629223389593</v>
+        <v>0.856258948515301</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2366412213740458</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="R3" t="n">
-        <v>0.224265522865969</v>
+        <v>0.4252427795484165</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7982189822975471</v>
+        <v>0.8075152034587294</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1997</v>
+        <v>1580</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2510</v>
+        <v>895</v>
       </c>
       <c r="B4" t="n">
-        <v>2541</v>
+        <v>957</v>
       </c>
       <c r="C4" t="n">
-        <v>2681</v>
+        <v>1070</v>
       </c>
       <c r="D4" t="n">
-        <v>3.340501366994273</v>
+        <v>2.835094900456684</v>
       </c>
       <c r="E4" t="n">
-        <v>2.658428914335549</v>
+        <v>2.142182396583016</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6820724526587242</v>
+        <v>-0.6929125038736678</v>
       </c>
       <c r="G4" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H4" t="n">
-        <v>39.38439005002101</v>
+        <v>107.0512526310263</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="K4" t="n">
-        <v>238.0757157336639</v>
+        <v>335.8898419719803</v>
       </c>
       <c r="L4" t="n">
-        <v>10.01266882853268</v>
+        <v>11.20036589925188</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.850589898323669</v>
+        <v>0.6573328138406745</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2214285714285714</v>
+        <v>0.5486725663716814</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4341355232331351</v>
+        <v>0.5487283141981478</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8051250446370141</v>
+        <v>0.795964736923047</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1998</v>
+        <v>1581</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>896</v>
+        <v>1840</v>
       </c>
       <c r="B5" t="n">
-        <v>956</v>
+        <v>1865</v>
       </c>
       <c r="C5" t="n">
-        <v>1071</v>
+        <v>1957</v>
       </c>
       <c r="D5" t="n">
-        <v>2.866366188318144</v>
+        <v>1.067342288385328</v>
       </c>
       <c r="E5" t="n">
-        <v>2.175466278085658</v>
+        <v>0.37442978451166</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6908999102324863</v>
+        <v>-0.6929125038736678</v>
       </c>
       <c r="G5" t="n">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="H5" t="n">
-        <v>107.1017215812401</v>
+        <v>29.5438252594729</v>
       </c>
       <c r="I5" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="K5" t="n">
-        <v>336.2385803480383</v>
+        <v>61.4783773344553</v>
       </c>
       <c r="L5" t="n">
-        <v>11.32164131956516</v>
+        <v>4.216657498038183</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6610938273009049</v>
+        <v>0.8949581313882127</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5548648766904644</v>
+        <v>0.3404671830996981</v>
       </c>
       <c r="S5" t="n">
-        <v>0.791985328782241</v>
+        <v>0.8349690660433466</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1999</v>
+        <v>1582</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1840</v>
+        <v>370</v>
       </c>
       <c r="B6" t="n">
-        <v>1865</v>
+        <v>401</v>
       </c>
       <c r="C6" t="n">
-        <v>1956</v>
+        <v>459</v>
       </c>
       <c r="D6" t="n">
-        <v>1.082790083736042</v>
+        <v>3.169032673078981</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3918901735035559</v>
+        <v>2.486845364280765</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6908999102324863</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G6" t="n">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>28.51569656208153</v>
+        <v>163.5794668652842</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J6" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="K6" t="n">
-        <v>60.93902247616077</v>
+        <v>205.5000888874226</v>
       </c>
       <c r="L6" t="n">
-        <v>4.276830016486627</v>
+        <v>11.35510139215551</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8921706064106179</v>
+        <v>0.7187740073768341</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3601028761976589</v>
+        <v>0.602391340314213</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8304946447928889</v>
+        <v>0.6088890175904212</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>2000</v>
+        <v>1583</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>371</v>
+        <v>459</v>
       </c>
       <c r="B7" t="n">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="C7" t="n">
-        <v>459</v>
+        <v>628</v>
       </c>
       <c r="D7" t="n">
-        <v>3.165071943451025</v>
+        <v>3.065433862637344</v>
       </c>
       <c r="E7" t="n">
-        <v>2.483070510642664</v>
+        <v>2.383246553839129</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6820014328083612</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G7" t="n">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="H7" t="n">
-        <v>163.5695727986064</v>
+        <v>24.16435715644832</v>
       </c>
       <c r="I7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="K7" t="n">
-        <v>205.4900627720056</v>
+        <v>254.0207834256002</v>
       </c>
       <c r="L7" t="n">
-        <v>11.34954288610149</v>
+        <v>10.98389190395275</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7336903958573134</v>
+        <v>0.7792713466183776</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.1901408450704225</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5854041105217871</v>
+        <v>0.5268022350150821</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6086965849611299</v>
+        <v>0.7312748204681397</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>2001</v>
+        <v>1584</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B8" t="n">
         <v>662</v>
@@ -1082,31 +1082,31 @@
         <v>707</v>
       </c>
       <c r="D8" t="n">
-        <v>2.134244730573191</v>
+        <v>2.125687113989265</v>
       </c>
       <c r="E8" t="n">
-        <v>1.45224329776483</v>
+        <v>1.44349980519105</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6820014328083612</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="n">
-        <v>46.86389918877114</v>
+        <v>46.96295750918023</v>
       </c>
       <c r="I8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
         <v>45</v>
       </c>
       <c r="K8" t="n">
-        <v>96.36926371930622</v>
+        <v>96.46868400877435</v>
       </c>
       <c r="L8" t="n">
-        <v>7.653128438106028</v>
+        <v>7.616643688275715</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7680331936110603</v>
+        <v>0.7649996561567354</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2745516097526541</v>
+        <v>0.2945145110056229</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9250958652119353</v>
+        <v>0.930346254345942</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>2002</v>
+        <v>1585</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B9" t="n">
         <v>777</v>
       </c>
       <c r="C9" t="n">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D9" t="n">
-        <v>1.263046102194553</v>
+        <v>1.263313700485445</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5810446693861916</v>
+        <v>0.58112639168723</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6820014328083612</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G9" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9" t="n">
-        <v>33.71889817740589</v>
+        <v>33.20411731797469</v>
       </c>
       <c r="I9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" t="n">
-        <v>73.15645642643264</v>
+        <v>71.81814842660476</v>
       </c>
       <c r="L9" t="n">
-        <v>4.529121662981946</v>
+        <v>4.526635298200945</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.737347009760228</v>
+        <v>0.7271852551864019</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1092107350329168</v>
+        <v>0.095107145218757</v>
       </c>
       <c r="S9" t="n">
-        <v>0.957592685088978</v>
+        <v>0.964600984869015</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>2003</v>
+        <v>1586</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1248,37 +1248,37 @@
         <v>1548</v>
       </c>
       <c r="B10" t="n">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C10" t="n">
         <v>1635</v>
       </c>
       <c r="D10" t="n">
-        <v>2.667238526547977</v>
+        <v>2.671454694569127</v>
       </c>
       <c r="E10" t="n">
-        <v>1.985237093739616</v>
+        <v>1.989267385770912</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6820014328083612</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G10" t="n">
         <v>87</v>
       </c>
       <c r="H10" t="n">
-        <v>50.37918598142755</v>
+        <v>49.91690813043056</v>
       </c>
       <c r="I10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" t="n">
-        <v>168.1356895245335</v>
+        <v>168.2048962311488</v>
       </c>
       <c r="L10" t="n">
-        <v>9.564375971660068</v>
+        <v>9.57220768945548</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.779475068174625</v>
+        <v>0.7728352296240074</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7199921211444192</v>
+        <v>0.6711119313534148</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7834152192453655</v>
+        <v>0.789769795747072</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>2004</v>
+        <v>1587</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1334,37 +1334,37 @@
         <v>1635</v>
       </c>
       <c r="B11" t="n">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C11" t="n">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D11" t="n">
-        <v>3.59201486356701</v>
+        <v>3.586521829046637</v>
       </c>
       <c r="E11" t="n">
-        <v>2.910013430758648</v>
+        <v>2.904334520248422</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6820014328083612</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G11" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" t="n">
-        <v>100.2931156482575</v>
+        <v>170.1104511348392</v>
       </c>
       <c r="I11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K11" t="n">
-        <v>280.5832929791163</v>
+        <v>279.5446491823546</v>
       </c>
       <c r="L11" t="n">
-        <v>12.88050555246363</v>
+        <v>12.85102528603328</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.817371558895541</v>
+        <v>0.8025950080477149</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1411529315743301</v>
+        <v>0.1506144559117659</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9897111127329006</v>
+        <v>0.9902860444058211</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>2005</v>
+        <v>1588</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B12" t="n">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C12" t="n">
         <v>1979</v>
       </c>
       <c r="D12" t="n">
-        <v>1.390341074000772</v>
+        <v>1.361602035186237</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7083396411924102</v>
+        <v>0.6794147263880224</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6820014328083612</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G12" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>21.22342001152879</v>
+        <v>21.96275928972841</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" t="n">
-        <v>81.54597915465884</v>
+        <v>82.21314832742166</v>
       </c>
       <c r="L12" t="n">
-        <v>4.985585139172156</v>
+        <v>4.878816585467149</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8385385263657417</v>
+        <v>0.8536131047979419</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2211538461538461</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="R12" t="n">
-        <v>0.392236160307379</v>
+        <v>0.4004879565031293</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8894859595936969</v>
+        <v>0.8993198595884886</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>2006</v>
+        <v>1589</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2560</v>
+        <v>227</v>
       </c>
       <c r="B13" t="n">
-        <v>2603</v>
+        <v>259</v>
       </c>
       <c r="C13" t="n">
-        <v>2761</v>
+        <v>299</v>
       </c>
       <c r="D13" t="n">
-        <v>2.679483049433047</v>
+        <v>1.479924642774546</v>
       </c>
       <c r="E13" t="n">
-        <v>1.997481616624686</v>
+        <v>0.9097816386463948</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6820014328083612</v>
+        <v>-0.5701430041281517</v>
       </c>
       <c r="G13" t="n">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="H13" t="n">
-        <v>135.2128526790852</v>
+        <v>30.2392612336568</v>
       </c>
       <c r="I13" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J13" t="n">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
-        <v>311.6876193024348</v>
+        <v>75.03068803679534</v>
       </c>
       <c r="L13" t="n">
-        <v>9.608283263527952</v>
+        <v>6.281819421400305</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.826947917563282</v>
+        <v>0.7974102162667391</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2721518987341772</v>
+        <v>0.8</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1908451312284214</v>
+        <v>0.443803254997846</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8934918024092353</v>
+        <v>0.9632982243890703</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>2007</v>
+        <v>1590</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="B14" t="n">
-        <v>257</v>
+        <v>461</v>
       </c>
       <c r="C14" t="n">
-        <v>299</v>
+        <v>596</v>
       </c>
       <c r="D14" t="n">
-        <v>1.488208500881121</v>
+        <v>3.825081023257242</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9157141996773245</v>
+        <v>3.25493801912909</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5724943012037961</v>
+        <v>-0.5701430041281517</v>
       </c>
       <c r="G14" t="n">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="H14" t="n">
-        <v>30.61568161935222</v>
+        <v>37.35494378485407</v>
       </c>
       <c r="I14" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J14" t="n">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="K14" t="n">
-        <v>75.13926540767078</v>
+        <v>511.0123366748376</v>
       </c>
       <c r="L14" t="n">
-        <v>6.299658733876002</v>
+        <v>16.23627823054476</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,16 +1638,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8154610162443927</v>
+        <v>0.7689773992211911</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.3407407407407407</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4745896363992413</v>
+        <v>0.2313591128522273</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9513333959019422</v>
+        <v>0.8300843337653765</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>2008</v>
+        <v>1591</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>416</v>
+        <v>1484</v>
       </c>
       <c r="B15" t="n">
-        <v>461</v>
+        <v>1534</v>
       </c>
       <c r="C15" t="n">
-        <v>596</v>
+        <v>1670</v>
       </c>
       <c r="D15" t="n">
-        <v>3.874272240918784</v>
+        <v>3.313871531512</v>
       </c>
       <c r="E15" t="n">
-        <v>3.301777939714988</v>
+        <v>2.658262184049904</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5724943012037961</v>
+        <v>-0.6556093474620964</v>
       </c>
       <c r="G15" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H15" t="n">
-        <v>36.33486558908066</v>
+        <v>102.8360882124409</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J15" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K15" t="n">
-        <v>508.4935648408028</v>
+        <v>417.524361117954</v>
       </c>
       <c r="L15" t="n">
-        <v>16.3999822239068</v>
+        <v>20.42114789324691</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7688892796697708</v>
+        <v>0.8688127735983837</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2329378448451807</v>
+        <v>0.2003886013909852</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8304813795756999</v>
+        <v>0.8824582711223802</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>2009</v>
+        <v>1592</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>747</v>
+        <v>1670</v>
       </c>
       <c r="B16" t="n">
-        <v>803</v>
+        <v>1736</v>
       </c>
       <c r="C16" t="n">
-        <v>896</v>
+        <v>1853</v>
       </c>
       <c r="D16" t="n">
-        <v>1.125442294531007</v>
+        <v>3.567834290732038</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5529479933272107</v>
+        <v>2.912224943269941</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5724943012037961</v>
+        <v>-0.6556093474620964</v>
       </c>
       <c r="G16" t="n">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="H16" t="n">
-        <v>47.45593895135517</v>
+        <v>143.7722563616692</v>
       </c>
       <c r="I16" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J16" t="n">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="K16" t="n">
-        <v>75.47312272503896</v>
+        <v>403.0384559065129</v>
       </c>
       <c r="L16" t="n">
-        <v>4.764051795173862</v>
+        <v>21.9861485325575</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7315407443274036</v>
+        <v>0.7025597502904323</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2535324288336148</v>
+        <v>0.1566141247566804</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7447837950324088</v>
+        <v>0.9355137645139698</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>2010</v>
+        <v>1593</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1744</v>
+        <v>1853</v>
       </c>
       <c r="B17" t="n">
-        <v>1768</v>
+        <v>1889</v>
       </c>
       <c r="C17" t="n">
-        <v>1803</v>
+        <v>1975</v>
       </c>
       <c r="D17" t="n">
-        <v>1.080447447173643</v>
+        <v>2.560443185769862</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5079531459698473</v>
+        <v>1.904833838307766</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5724943012037961</v>
+        <v>-0.6556093474620964</v>
       </c>
       <c r="G17" t="n">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="H17" t="n">
-        <v>37.42969069004744</v>
+        <v>40.58043149681134</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="K17" t="n">
-        <v>41.88487764765011</v>
+        <v>200.4505286746506</v>
       </c>
       <c r="L17" t="n">
-        <v>4.573586424920696</v>
+        <v>15.77827881125068</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.6958601667738122</v>
+        <v>0.8818297544155361</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1482865913888855</v>
+        <v>0.1936043056150903</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8579637788393476</v>
+        <v>0.9887215104800612</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>2011</v>
+        <v>1594</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1803</v>
+        <v>2691</v>
       </c>
       <c r="B18" t="n">
-        <v>1829</v>
+        <v>2740</v>
       </c>
       <c r="C18" t="n">
-        <v>1884</v>
+        <v>2846</v>
       </c>
       <c r="D18" t="n">
-        <v>1.106808884192076</v>
+        <v>3.454207489079974</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5343145829882797</v>
+        <v>2.798598141617877</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5724943012037961</v>
+        <v>-0.6556093474620964</v>
       </c>
       <c r="G18" t="n">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="H18" t="n">
-        <v>71.19245320119171</v>
+        <v>116.2402008827439</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J18" t="n">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="K18" t="n">
-        <v>61.42875534576662</v>
+        <v>377.0810930174021</v>
       </c>
       <c r="L18" t="n">
-        <v>4.685175665845181</v>
+        <v>21.28594344038401</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7796263432547933</v>
+        <v>0.8264655697351715</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="R18" t="n">
-        <v>0.263798074664085</v>
+        <v>0.3942364117394264</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7118576067562048</v>
+        <v>0.8772199665258845</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>2012</v>
+        <v>1595</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1484</v>
+        <v>2846</v>
       </c>
       <c r="B19" t="n">
-        <v>1533</v>
+        <v>2867</v>
       </c>
       <c r="C19" t="n">
-        <v>1668</v>
+        <v>2998</v>
       </c>
       <c r="D19" t="n">
-        <v>3.330141904418118</v>
+        <v>1.71706436599666</v>
       </c>
       <c r="E19" t="n">
-        <v>2.672731853961951</v>
+        <v>1.061455018534563</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6574100504561674</v>
+        <v>-0.6556093474620964</v>
       </c>
       <c r="G19" t="n">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="H19" t="n">
-        <v>102.8573731308434</v>
+        <v>18.41357377302211</v>
       </c>
       <c r="I19" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K19" t="n">
-        <v>415.5429420239809</v>
+        <v>100.8441134708911</v>
       </c>
       <c r="L19" t="n">
-        <v>20.4749683129509</v>
+        <v>10.58110582344856</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,16 +2068,16 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8705586846274518</v>
+        <v>0.7782792996124422</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.362962962962963</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2024471976855641</v>
+        <v>0.6633624872057926</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8757573106280215</v>
+        <v>0.8190783171699658</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>2013</v>
+        <v>1596</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1668</v>
+        <v>342</v>
       </c>
       <c r="B20" t="n">
-        <v>1738</v>
+        <v>398</v>
       </c>
       <c r="C20" t="n">
-        <v>1854</v>
+        <v>573</v>
       </c>
       <c r="D20" t="n">
-        <v>3.582836947409697</v>
+        <v>2.939662543971956</v>
       </c>
       <c r="E20" t="n">
-        <v>2.92542689695353</v>
+        <v>2.258267873739988</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6574100504561674</v>
+        <v>-0.6813946702319682</v>
       </c>
       <c r="G20" t="n">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="H20" t="n">
-        <v>139.4132410250704</v>
+        <v>261.4116656913832</v>
       </c>
       <c r="I20" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J20" t="n">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="K20" t="n">
-        <v>406.868451445601</v>
+        <v>455.3547702511748</v>
       </c>
       <c r="L20" t="n">
-        <v>22.02863273524716</v>
+        <v>8.512270482367938</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.6894330008845974</v>
+        <v>0.8180328394316799</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.603448275862069</v>
+        <v>0.32</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1733144962643135</v>
+        <v>0.2336745851217464</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9295352570890295</v>
+        <v>0.6111287605798748</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>2014</v>
+        <v>1597</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1854</v>
+        <v>1795</v>
       </c>
       <c r="B21" t="n">
-        <v>1888</v>
+        <v>1838</v>
       </c>
       <c r="C21" t="n">
-        <v>1976</v>
+        <v>1916</v>
       </c>
       <c r="D21" t="n">
-        <v>2.575076640699382</v>
+        <v>2.758680947705056</v>
       </c>
       <c r="E21" t="n">
-        <v>1.917666590243214</v>
+        <v>2.077286277473088</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6574100504561674</v>
+        <v>-0.6813946702319682</v>
       </c>
       <c r="G21" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H21" t="n">
-        <v>40.43968305819317</v>
+        <v>40.54537405657084</v>
       </c>
       <c r="I21" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J21" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K21" t="n">
-        <v>200.3633723188129</v>
+        <v>209.3373294782928</v>
       </c>
       <c r="L21" t="n">
-        <v>15.83254231652707</v>
+        <v>7.988208867570133</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8935348183003601</v>
+        <v>0.8475752996983145</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1916718553306647</v>
+        <v>0.3090373675204875</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9881799509100146</v>
+        <v>0.9434109916966782</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>2015</v>
+        <v>1598</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,73 +2277,73 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2691</v>
+        <v>1916</v>
       </c>
       <c r="B22" t="n">
-        <v>2749</v>
+        <v>1948</v>
       </c>
       <c r="C22" t="n">
-        <v>2846</v>
+        <v>2269</v>
       </c>
       <c r="D22" t="n">
-        <v>3.437567586578829</v>
+        <v>3.090423704412395</v>
       </c>
       <c r="E22" t="n">
-        <v>2.780157536122662</v>
+        <v>2.409029034180427</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6574100504561674</v>
+        <v>-0.6813946702319682</v>
       </c>
       <c r="G22" t="n">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="H22" t="n">
-        <v>116.5723249067655</v>
+        <v>85.69671358798928</v>
       </c>
       <c r="I22" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="J22" t="n">
-        <v>97</v>
+        <v>321</v>
       </c>
       <c r="K22" t="n">
-        <v>377.3702940677399</v>
+        <v>361.7823652397507</v>
       </c>
       <c r="L22" t="n">
-        <v>21.13546191994091</v>
+        <v>8.948823915528573</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2191), 'value': np.float64(0.5907362977297098), 'amplitude': np.float64(1.2721309679616781), 'start_idx': np.int64(2166), 'end_idx': np.int64(2226), 'duration': np.float64(60.0), 'fwhm': np.float64(36.141997489161895), 'rise_time': np.float64(25.0), 'decay_time': np.float64(35.0), 'auc': np.float64(52.55029750989921)}]</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7356617565942801</v>
+        <v>0.7220780179593475</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5979381443298969</v>
+        <v>0.09968847352024922</v>
       </c>
       <c r="R22" t="n">
-        <v>0.283020795240802</v>
+        <v>0.5546920798167031</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8883040786213644</v>
+        <v>0.436494034349339</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>2016</v>
+        <v>1599</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2846</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>2867</v>
+        <v>34</v>
       </c>
       <c r="C23" t="n">
-        <v>2998</v>
+        <v>120</v>
       </c>
       <c r="D23" t="n">
-        <v>1.736748177086776</v>
+        <v>3.387490405228292</v>
       </c>
       <c r="E23" t="n">
-        <v>1.079338126630609</v>
+        <v>2.704757810449327</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6574100504561674</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G23" t="n">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="H23" t="n">
-        <v>17.34195602463251</v>
+        <v>36.21679679377062</v>
       </c>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K23" t="n">
-        <v>101.080115054859</v>
+        <v>349.0024909385019</v>
       </c>
       <c r="L23" t="n">
-        <v>10.67818276640089</v>
+        <v>12.50254047478934</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7751649338426241</v>
+        <v>0.7168210684888903</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1603053435114504</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6616871816048342</v>
+        <v>0.1167988453810293</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8127927879372513</v>
+        <v>0.6696700257763162</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>2017</v>
+        <v>1600</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B24" t="n">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C24" t="n">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="D24" t="n">
-        <v>2.828086038525135</v>
+        <v>2.324456634708414</v>
       </c>
       <c r="E24" t="n">
-        <v>2.146705330926634</v>
+        <v>1.641724039929449</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6813807075985012</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G24" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="H24" t="n">
-        <v>34.86182806788665</v>
+        <v>20.54845578964495</v>
       </c>
       <c r="I24" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K24" t="n">
-        <v>219.1279862035283</v>
+        <v>109.0726701209526</v>
       </c>
       <c r="L24" t="n">
-        <v>8.17856875995648</v>
+        <v>8.579098294265435</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.9147707522788179</v>
+        <v>0.7059685653627551</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3625</v>
+        <v>0.6</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2979843313525469</v>
+        <v>0.05831129021727938</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9429794990264602</v>
+        <v>0.9691315567395065</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>2018</v>
+        <v>1601</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="B25" t="n">
-        <v>466</v>
+        <v>258</v>
       </c>
       <c r="C25" t="n">
-        <v>567</v>
+        <v>378</v>
       </c>
       <c r="D25" t="n">
-        <v>2.183536934517123</v>
+        <v>3.134947093726718</v>
       </c>
       <c r="E25" t="n">
-        <v>1.502156226918622</v>
+        <v>2.452214498947753</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6813807075985012</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G25" t="n">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="H25" t="n">
-        <v>57.18292890873238</v>
+        <v>79.74035551195431</v>
       </c>
       <c r="I25" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>211.7323020421454</v>
+        <v>336.163598515244</v>
       </c>
       <c r="L25" t="n">
-        <v>6.314591110589427</v>
+        <v>11.57045430007648</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8346030017942763</v>
+        <v>0.8723276437488585</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2178217821782178</v>
+        <v>0.3</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1661052482724957</v>
+        <v>0.1569736891064739</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7385519706487522</v>
+        <v>0.8926182739971089</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>2019</v>
+        <v>1602</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1795</v>
+        <v>436</v>
       </c>
       <c r="B26" t="n">
-        <v>1838</v>
+        <v>463</v>
       </c>
       <c r="C26" t="n">
-        <v>1917</v>
+        <v>517</v>
       </c>
       <c r="D26" t="n">
-        <v>2.797157161275318</v>
+        <v>1.622799402729844</v>
       </c>
       <c r="E26" t="n">
-        <v>2.115776453676817</v>
+        <v>0.9400668079508786</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6813807075985012</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G26" t="n">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="H26" t="n">
-        <v>39.67906215204334</v>
+        <v>38.94418212516973</v>
       </c>
       <c r="I26" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="J26" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="K26" t="n">
-        <v>210.6372804261822</v>
+        <v>82.52499365444201</v>
       </c>
       <c r="L26" t="n">
-        <v>8.089125247344041</v>
+        <v>5.989423670035901</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8450364328858589</v>
+        <v>0.8648987408822524</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5443037974683544</v>
+        <v>0.5</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3118938171593697</v>
+        <v>0.2238651482032091</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9430129955388414</v>
+        <v>0.9742584281794406</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>2020</v>
+        <v>1603</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1917</v>
+        <v>1171</v>
       </c>
       <c r="B27" t="n">
-        <v>1948</v>
+        <v>1256</v>
       </c>
       <c r="C27" t="n">
-        <v>2108</v>
+        <v>1396</v>
       </c>
       <c r="D27" t="n">
-        <v>3.125917038760144</v>
+        <v>1.580403565771348</v>
       </c>
       <c r="E27" t="n">
-        <v>2.444536331161643</v>
+        <v>0.8976709709923825</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6813807075985012</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G27" t="n">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="H27" t="n">
-        <v>84.30580633815111</v>
+        <v>23.61454813085584</v>
       </c>
       <c r="I27" t="n">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K27" t="n">
-        <v>256.668211232743</v>
+        <v>182.4685679991099</v>
       </c>
       <c r="L27" t="n">
-        <v>9.039869046117129</v>
+        <v>5.832949229040269</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.9210500160913315</v>
+        <v>0.496614046898315</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.19375</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4349876062583924</v>
+        <v>0.5162779030471452</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9337811580858342</v>
+        <v>0.3318038002831204</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>2021</v>
+        <v>1604</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>62</v>
+        <v>1355</v>
       </c>
       <c r="B28" t="n">
-        <v>79</v>
+        <v>1398</v>
       </c>
       <c r="C28" t="n">
-        <v>121</v>
+        <v>1471</v>
       </c>
       <c r="D28" t="n">
-        <v>3.235682371165767</v>
+        <v>2.403084310302626</v>
       </c>
       <c r="E28" t="n">
-        <v>2.553112595171586</v>
+        <v>1.911301417198715</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6825697759941806</v>
+        <v>-0.491782893103911</v>
       </c>
       <c r="G28" t="n">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="H28" t="n">
-        <v>15.45817498271659</v>
+        <v>40.65329394124342</v>
       </c>
       <c r="I28" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J28" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="K28" t="n">
-        <v>156.7245028054134</v>
+        <v>133.5614185715482</v>
       </c>
       <c r="L28" t="n">
-        <v>11.91398990768585</v>
+        <v>5.739420128250011</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8511451769347829</v>
+        <v>0.761081341185187</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1950670115453452</v>
+        <v>0.3788988529910823</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9767862779900954</v>
+        <v>0.5710812183779346</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>2022</v>
+        <v>1605</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,73 +2879,73 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>121</v>
+        <v>1471</v>
       </c>
       <c r="B29" t="n">
-        <v>141</v>
+        <v>1553</v>
       </c>
       <c r="C29" t="n">
-        <v>177</v>
+        <v>1664</v>
       </c>
       <c r="D29" t="n">
-        <v>2.357131987868402</v>
+        <v>2.049022018513618</v>
       </c>
       <c r="E29" t="n">
-        <v>1.674562211874221</v>
+        <v>1.557239125409707</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6825697759941806</v>
+        <v>-0.491782893103911</v>
       </c>
       <c r="G29" t="n">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="H29" t="n">
-        <v>19.80744378270114</v>
+        <v>75.7522779453484</v>
       </c>
       <c r="I29" t="n">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J29" t="n">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="K29" t="n">
-        <v>109.0272608096849</v>
+        <v>219.5887564651581</v>
       </c>
       <c r="L29" t="n">
-        <v>8.679111078640828</v>
+        <v>4.893793432825308</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1521), 'value': np.float64(1.5059698273166466), 'amplitude': np.float64(1.9977527204205576), 'start_idx': np.int64(1513), 'end_idx': np.int64(1539), 'duration': np.float64(26.0), 'fwhm': np.float64(22.23936299137449), 'rise_time': np.float64(8.0), 'decay_time': np.float64(18.0), 'auc': np.float64(44.78945270779928)}]</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7114654329956146</v>
+        <v>0.6086833800268964</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7387387387387387</v>
       </c>
       <c r="R29" t="n">
-        <v>0.06508452448739721</v>
+        <v>0.4247800127396131</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9313288557051225</v>
+        <v>0.7734850146465306</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>2023</v>
+        <v>1606</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,73 +2965,73 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>221</v>
+        <v>1967</v>
       </c>
       <c r="B30" t="n">
-        <v>257</v>
+        <v>1984</v>
       </c>
       <c r="C30" t="n">
-        <v>378</v>
+        <v>2076</v>
       </c>
       <c r="D30" t="n">
-        <v>3.150455198442239</v>
+        <v>2.502663295173999</v>
       </c>
       <c r="E30" t="n">
-        <v>2.467885422448059</v>
+        <v>2.010880402070088</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6825697759941806</v>
+        <v>-0.491782893103911</v>
       </c>
       <c r="G30" t="n">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="H30" t="n">
-        <v>79.50799251301683</v>
+        <v>14.78028004917496</v>
       </c>
       <c r="I30" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J30" t="n">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="K30" t="n">
-        <v>338.0237204128914</v>
+        <v>140.4642417187941</v>
       </c>
       <c r="L30" t="n">
-        <v>11.60017799439757</v>
+        <v>5.977250165120206</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2053), 'value': np.float64(1.015314453736898), 'amplitude': np.float64(1.507097346840809), 'start_idx': np.int64(2047), 'end_idx': np.int64(2075), 'duration': np.float64(28.0), 'fwhm': np.float64(22.989375768464242), 'rise_time': np.float64(6.0), 'decay_time': np.float64(22.0), 'auc': np.float64(28.205178668230715)}]</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8625157389311016</v>
+        <v>0.6970439377185594</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2975206611570248</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1441628166268822</v>
+        <v>0.3674363356600903</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8909416954251419</v>
+        <v>0.3802386881098624</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>2024</v>
+        <v>1607</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>437</v>
+        <v>255</v>
       </c>
       <c r="B31" t="n">
-        <v>463</v>
+        <v>284</v>
       </c>
       <c r="C31" t="n">
-        <v>517</v>
+        <v>380</v>
       </c>
       <c r="D31" t="n">
-        <v>1.647092898232869</v>
+        <v>4.258341234249293</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9645231222386882</v>
+        <v>3.834210904668902</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6825697759941806</v>
+        <v>-0.4241303295803909</v>
       </c>
       <c r="G31" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="H31" t="n">
-        <v>38.65170737987893</v>
+        <v>12.19964560501597</v>
       </c>
       <c r="I31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J31" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="K31" t="n">
-        <v>81.65089470556443</v>
+        <v>363.5854829014353</v>
       </c>
       <c r="L31" t="n">
-        <v>6.064701634943671</v>
+        <v>15.77578646775305</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8692712836321493</v>
+        <v>0.7190877296816479</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.3020833333333333</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2332499143600265</v>
+        <v>0.3418481963584756</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9655083949265429</v>
+        <v>0.8890221050424419</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>2025</v>
+        <v>1608</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1172</v>
+        <v>74</v>
       </c>
       <c r="B32" t="n">
-        <v>1255</v>
+        <v>96</v>
       </c>
       <c r="C32" t="n">
-        <v>1396</v>
+        <v>212</v>
       </c>
       <c r="D32" t="n">
-        <v>1.597465354872365</v>
+        <v>1.647838413119804</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9148955788781838</v>
+        <v>1.074306019552746</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6825697759941806</v>
+        <v>-0.5735323935670584</v>
       </c>
       <c r="G32" t="n">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="H32" t="n">
-        <v>23.35107527900118</v>
+        <v>19.76395472587878</v>
       </c>
       <c r="I32" t="n">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="J32" t="n">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="K32" t="n">
-        <v>182.5094595338434</v>
+        <v>138.8661735935054</v>
       </c>
       <c r="L32" t="n">
-        <v>5.88196983901425</v>
+        <v>4.965820292223112</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.4670313810777186</v>
+        <v>0.6743505820122855</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5886524822695035</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4964906629689914</v>
+        <v>0.3222549269745065</v>
       </c>
       <c r="S32" t="n">
-        <v>0.3324763060296917</v>
+        <v>0.2550204169955226</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>2026</v>
+        <v>1609</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1355</v>
+        <v>1837</v>
       </c>
       <c r="B33" t="n">
-        <v>1398</v>
+        <v>1865</v>
       </c>
       <c r="C33" t="n">
-        <v>1472</v>
+        <v>1922</v>
       </c>
       <c r="D33" t="n">
-        <v>2.470835400972806</v>
+        <v>2.523837676346235</v>
       </c>
       <c r="E33" t="n">
-        <v>1.97484032978213</v>
+        <v>1.950305282779176</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.4959950711906762</v>
+        <v>-0.5735323935670584</v>
       </c>
       <c r="G33" t="n">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="H33" t="n">
-        <v>39.65836094823726</v>
+        <v>34.34524438254903</v>
       </c>
       <c r="I33" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J33" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K33" t="n">
-        <v>134.6087475453922</v>
+        <v>115.4738062530465</v>
       </c>
       <c r="L33" t="n">
-        <v>5.883085845153738</v>
+        <v>7.605675561203324</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.7584864078737811</v>
+        <v>0.8925576236815315</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.581081081081081</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3792961144481003</v>
+        <v>0.2276550392459284</v>
       </c>
       <c r="S33" t="n">
-        <v>0.5728745970167675</v>
+        <v>0.9860004075717309</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>2027</v>
+        <v>1610</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1966</v>
+        <v>2286</v>
       </c>
       <c r="B34" t="n">
-        <v>1985</v>
+        <v>2319</v>
       </c>
       <c r="C34" t="n">
-        <v>2032</v>
+        <v>2387</v>
       </c>
       <c r="D34" t="n">
-        <v>2.595970941797484</v>
+        <v>2.959437574053979</v>
       </c>
       <c r="E34" t="n">
-        <v>2.099975870606808</v>
+        <v>2.38590518048692</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.4959950711906762</v>
+        <v>-0.5735323935670584</v>
       </c>
       <c r="G34" t="n">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="H34" t="n">
-        <v>13.78857129169251</v>
+        <v>67.10504223399857</v>
       </c>
       <c r="I34" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J34" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="K34" t="n">
-        <v>96.46652458656864</v>
+        <v>192.6117965188446</v>
       </c>
       <c r="L34" t="n">
-        <v>6.181034922887316</v>
+        <v>8.918371511306875</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8208808486703757</v>
+        <v>0.7599434891061209</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4042553191489361</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3103365171463306</v>
+        <v>0.1712353224920229</v>
       </c>
       <c r="S34" t="n">
-        <v>0.858758513453729</v>
+        <v>0.7880324008160153</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>2028</v>
+        <v>1611</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>255</v>
+        <v>2442</v>
       </c>
       <c r="B35" t="n">
-        <v>283</v>
+        <v>2476</v>
       </c>
       <c r="C35" t="n">
-        <v>380</v>
+        <v>2554</v>
       </c>
       <c r="D35" t="n">
-        <v>4.267585515777478</v>
+        <v>4.063941601963686</v>
       </c>
       <c r="E35" t="n">
-        <v>3.846958532766517</v>
+        <v>3.490409208396628</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4206269830109615</v>
+        <v>-0.5735323935670584</v>
       </c>
       <c r="G35" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H35" t="n">
-        <v>12.07548079592976</v>
+        <v>109.5673371391931</v>
       </c>
       <c r="I35" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J35" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K35" t="n">
-        <v>363.3487441701985</v>
+        <v>255.4228034081735</v>
       </c>
       <c r="L35" t="n">
-        <v>15.78856663279073</v>
+        <v>12.24683410264314</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.6740581729388136</v>
+        <v>0.85007488125932</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.288659793814433</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3358407090817978</v>
+        <v>0.3805302600686474</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8916815270172944</v>
+        <v>0.9818780722604469</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>2029</v>
+        <v>1612</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1837</v>
+        <v>542</v>
       </c>
       <c r="B36" t="n">
-        <v>1864</v>
+        <v>574</v>
       </c>
       <c r="C36" t="n">
-        <v>1924</v>
+        <v>639</v>
       </c>
       <c r="D36" t="n">
-        <v>2.544750752517869</v>
+        <v>3.892650563921128</v>
       </c>
       <c r="E36" t="n">
-        <v>1.962929197962355</v>
+        <v>3.366280058207948</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5818215545555137</v>
+        <v>-0.5263705057131801</v>
       </c>
       <c r="G36" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H36" t="n">
-        <v>34.8284382752679</v>
+        <v>122.0119721144318</v>
       </c>
       <c r="I36" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K36" t="n">
-        <v>117.227466101817</v>
+        <v>279.4671885957063</v>
       </c>
       <c r="L36" t="n">
-        <v>7.669924781569789</v>
+        <v>19.41616941410477</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.910228692963958</v>
+        <v>0.7203276645097118</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.45</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2283670192991269</v>
+        <v>0.1199042019143856</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9881787596465329</v>
+        <v>0.9339804336391723</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>2030</v>
+        <v>1613</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2287</v>
+        <v>812</v>
       </c>
       <c r="B37" t="n">
-        <v>2320</v>
+        <v>840</v>
       </c>
       <c r="C37" t="n">
-        <v>2387</v>
+        <v>902</v>
       </c>
       <c r="D37" t="n">
-        <v>2.951873040033001</v>
+        <v>3.67036806415077</v>
       </c>
       <c r="E37" t="n">
-        <v>2.370051485477487</v>
+        <v>3.14399755843759</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5818215545555137</v>
+        <v>-0.5263705057131801</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H37" t="n">
-        <v>67.40531628803683</v>
+        <v>52.0851671450838</v>
       </c>
       <c r="I37" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J37" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K37" t="n">
-        <v>193.5916222365584</v>
+        <v>257.2772381463366</v>
       </c>
       <c r="L37" t="n">
-        <v>8.896998717613263</v>
+        <v>18.30744552469803</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.7364337172487071</v>
+        <v>0.7119428110351437</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4925373134328358</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1506646294053974</v>
+        <v>0.09145217412174672</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7819746628471949</v>
+        <v>0.8004222124834017</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>2031</v>
+        <v>1614</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2443</v>
+        <v>902</v>
       </c>
       <c r="B38" t="n">
-        <v>2476</v>
+        <v>914</v>
       </c>
       <c r="C38" t="n">
-        <v>2554</v>
+        <v>938</v>
       </c>
       <c r="D38" t="n">
-        <v>4.098318042268035</v>
+        <v>1.83906528308339</v>
       </c>
       <c r="E38" t="n">
-        <v>3.516496487712522</v>
+        <v>1.31269477737021</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5818215545555137</v>
+        <v>-0.5263705057131801</v>
       </c>
       <c r="G38" t="n">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="H38" t="n">
-        <v>110.4722428884456</v>
+        <v>17.35269768217586</v>
       </c>
       <c r="I38" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="J38" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="K38" t="n">
-        <v>254.073962108342</v>
+        <v>57.88133712682564</v>
       </c>
       <c r="L38" t="n">
-        <v>12.35240468405185</v>
+        <v>9.17308207186643</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8548800818428554</v>
+        <v>0.7134287141299774</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3826086435112649</v>
+        <v>0.06622600251165452</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9818474987351552</v>
+        <v>0.9223925378018161</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>2032</v>
+        <v>1615</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>542</v>
+        <v>1124</v>
       </c>
       <c r="B39" t="n">
-        <v>572</v>
+        <v>1148</v>
       </c>
       <c r="C39" t="n">
-        <v>638</v>
+        <v>1253</v>
       </c>
       <c r="D39" t="n">
-        <v>3.886026214706997</v>
+        <v>2.209468042400285</v>
       </c>
       <c r="E39" t="n">
-        <v>3.359400433880629</v>
+        <v>1.571797328661024</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5266257808263679</v>
+        <v>-0.6376707137392609</v>
       </c>
       <c r="G39" t="n">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="H39" t="n">
-        <v>122.381565151147</v>
+        <v>38.07157587583265</v>
       </c>
       <c r="I39" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J39" t="n">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="K39" t="n">
-        <v>277.830542207431</v>
+        <v>106.4811950412531</v>
       </c>
       <c r="L39" t="n">
-        <v>19.39211553810028</v>
+        <v>5.979856194193678</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.7051047545211589</v>
+        <v>0.8488278827802238</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="R39" t="n">
-        <v>0.09135386506494399</v>
+        <v>0.5904083788659132</v>
       </c>
       <c r="S39" t="n">
-        <v>0.918724686270334</v>
+        <v>0.629753445054074</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>2033</v>
+        <v>1616</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>813</v>
+        <v>1342</v>
       </c>
       <c r="B40" t="n">
-        <v>840</v>
+        <v>1370</v>
       </c>
       <c r="C40" t="n">
-        <v>902</v>
+        <v>1443</v>
       </c>
       <c r="D40" t="n">
-        <v>3.696739260969777</v>
+        <v>3.057398101415031</v>
       </c>
       <c r="E40" t="n">
-        <v>3.170113480143409</v>
+        <v>2.41972738767577</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5266257808263679</v>
+        <v>-0.6376707137392609</v>
       </c>
       <c r="G40" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H40" t="n">
-        <v>51.74934434588579</v>
+        <v>54.09007415604538</v>
       </c>
       <c r="I40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J40" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K40" t="n">
-        <v>254.9285440724834</v>
+        <v>179.6069591081969</v>
       </c>
       <c r="L40" t="n">
-        <v>18.44753249261406</v>
+        <v>8.274752394698996</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7245181294162586</v>
+        <v>0.8379753615425878</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4354838709677419</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1015683425418039</v>
+        <v>0.1580960916951803</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7877236876458469</v>
+        <v>0.9386926558975114</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>2034</v>
+        <v>1617</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>902</v>
+        <v>1443</v>
       </c>
       <c r="B41" t="n">
-        <v>914</v>
+        <v>1474</v>
       </c>
       <c r="C41" t="n">
-        <v>938</v>
+        <v>1554</v>
       </c>
       <c r="D41" t="n">
-        <v>1.860995483718733</v>
+        <v>2.303031955145058</v>
       </c>
       <c r="E41" t="n">
-        <v>1.334369702892366</v>
+        <v>1.665361241405797</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5266257808263679</v>
+        <v>-0.6376707137392609</v>
       </c>
       <c r="G41" t="n">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="H41" t="n">
-        <v>17.24836689786139</v>
+        <v>39.24895831580307</v>
       </c>
       <c r="I41" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J41" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="K41" t="n">
-        <v>57.99682183205622</v>
+        <v>147.1148270289102</v>
       </c>
       <c r="L41" t="n">
-        <v>9.286771998494496</v>
+        <v>6.233083999458517</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.7157886814152875</v>
+        <v>0.8646475631774707</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="R41" t="n">
-        <v>0.06764284817333656</v>
+        <v>0.2904873586504881</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9244049288999694</v>
+        <v>0.6946738918414581</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>2035</v>
+        <v>1618</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1124</v>
+        <v>1554</v>
       </c>
       <c r="B42" t="n">
-        <v>1143</v>
+        <v>1587</v>
       </c>
       <c r="C42" t="n">
-        <v>1254</v>
+        <v>1744</v>
       </c>
       <c r="D42" t="n">
-        <v>2.200616871993784</v>
+        <v>3.186742915472643</v>
       </c>
       <c r="E42" t="n">
-        <v>1.569209662567304</v>
+        <v>2.549072201733382</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6314072094264797</v>
+        <v>-0.6376707137392609</v>
       </c>
       <c r="G42" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="H42" t="n">
-        <v>38.42422303374656</v>
+        <v>157.8099769586447</v>
       </c>
       <c r="I42" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J42" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="K42" t="n">
-        <v>105.8771861232581</v>
+        <v>358.4133520442783</v>
       </c>
       <c r="L42" t="n">
-        <v>5.940023889232576</v>
+        <v>8.624820090943647</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,16 +4046,16 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8172954456630871</v>
+        <v>0.8553336372869262</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1711711711711712</v>
+        <v>0.2101910828025478</v>
       </c>
       <c r="R42" t="n">
-        <v>0.5139102576129038</v>
+        <v>0.4549530883325994</v>
       </c>
       <c r="S42" t="n">
-        <v>0.6099553340346205</v>
+        <v>0.8051618827159222</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>2036</v>
+        <v>1619</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1342</v>
+        <v>2078</v>
       </c>
       <c r="B43" t="n">
-        <v>1370</v>
+        <v>2099</v>
       </c>
       <c r="C43" t="n">
-        <v>1444</v>
+        <v>2147</v>
       </c>
       <c r="D43" t="n">
-        <v>3.074969190112505</v>
+        <v>1.691822603378259</v>
       </c>
       <c r="E43" t="n">
-        <v>2.443561980686025</v>
+        <v>1.054151889638998</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6314072094264797</v>
+        <v>-0.6376707137392609</v>
       </c>
       <c r="G43" t="n">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H43" t="n">
-        <v>53.70575288413102</v>
+        <v>16.64965413447271</v>
       </c>
       <c r="I43" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J43" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K43" t="n">
-        <v>179.9557884360071</v>
+        <v>67.37953088841493</v>
       </c>
       <c r="L43" t="n">
-        <v>8.30012287935145</v>
+        <v>4.5788649938099</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8603816333690731</v>
+        <v>0.8423718390432904</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.4375</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1811928744288054</v>
+        <v>0.3494928266683455</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9277135234604391</v>
+        <v>0.9453019691719923</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="U43" t="n">
-        <v>2037</v>
+        <v>1620</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1555</v>
+        <v>435</v>
       </c>
       <c r="B44" t="n">
-        <v>1587</v>
+        <v>466</v>
       </c>
       <c r="C44" t="n">
-        <v>1664</v>
+        <v>513</v>
       </c>
       <c r="D44" t="n">
-        <v>3.207955167044131</v>
+        <v>2.509108112391998</v>
       </c>
       <c r="E44" t="n">
-        <v>2.576547957617652</v>
+        <v>1.972279407642962</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6314072094264797</v>
+        <v>-0.5368287047490357</v>
       </c>
       <c r="G44" t="n">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="H44" t="n">
-        <v>158.1188273904907</v>
+        <v>41.85202763770076</v>
       </c>
       <c r="I44" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J44" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="K44" t="n">
-        <v>231.5752776612528</v>
+        <v>148.8047064002711</v>
       </c>
       <c r="L44" t="n">
-        <v>8.659085809228062</v>
+        <v>5.887583554646186</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.7531167136886081</v>
+        <v>0.7116304172472246</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.4155844155844156</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="R44" t="n">
-        <v>0.667505607532856</v>
+        <v>0.1547835070914456</v>
       </c>
       <c r="S44" t="n">
-        <v>0.543684977921888</v>
+        <v>0.8177177481992517</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>2038</v>
+        <v>1621</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1664</v>
+        <v>1689</v>
       </c>
       <c r="B45" t="n">
-        <v>1678</v>
+        <v>1706</v>
       </c>
       <c r="C45" t="n">
-        <v>1743</v>
+        <v>1765</v>
       </c>
       <c r="D45" t="n">
-        <v>2.167623638999787</v>
+        <v>2.216464669474953</v>
       </c>
       <c r="E45" t="n">
-        <v>1.536216429573307</v>
+        <v>1.711665678596882</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6314072094264797</v>
+        <v>-0.5047989908780709</v>
       </c>
       <c r="G45" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H45" t="n">
-        <v>24.78945869139216</v>
+        <v>14.8972164751649</v>
       </c>
       <c r="I45" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J45" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K45" t="n">
-        <v>124.4800353482265</v>
+        <v>124.7777883698248</v>
       </c>
       <c r="L45" t="n">
-        <v>5.850966773175024</v>
+        <v>6.812237468071915</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.9101030981756357</v>
+        <v>0.8319165608829791</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.2153846153846154</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2236211670524517</v>
+        <v>0.2232599189873385</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8959315778476165</v>
+        <v>0.6782738149521836</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>2039</v>
+        <v>1622</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2077</v>
+        <v>1102</v>
       </c>
       <c r="B46" t="n">
-        <v>2100</v>
+        <v>1121</v>
       </c>
       <c r="C46" t="n">
-        <v>2147</v>
+        <v>1149</v>
       </c>
       <c r="D46" t="n">
-        <v>1.721624078364915</v>
+        <v>3.235379400143386</v>
       </c>
       <c r="E46" t="n">
-        <v>1.090216868938436</v>
+        <v>2.792485284532181</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.6314072094264797</v>
+        <v>-0.442894115611206</v>
       </c>
       <c r="G46" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H46" t="n">
-        <v>16.07125217572457</v>
+        <v>22.88093644764604</v>
       </c>
       <c r="I46" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J46" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K46" t="n">
-        <v>68.00356419051131</v>
+        <v>102.0251758393748</v>
       </c>
       <c r="L46" t="n">
-        <v>4.647100676139186</v>
+        <v>8.882750106231011</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8110215828860878</v>
+        <v>0.8035291496946864</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4893617021276596</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="R46" t="n">
-        <v>0.369565451261123</v>
+        <v>0.2395615729976662</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9216955358440102</v>
+        <v>0.9473157841401028</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>2040</v>
+        <v>1623</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1219</v>
+        <v>1196</v>
       </c>
       <c r="B47" t="n">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="C47" t="n">
-        <v>1351</v>
+        <v>1294</v>
       </c>
       <c r="D47" t="n">
-        <v>2.673553763930868</v>
+        <v>3.498669293580539</v>
       </c>
       <c r="E47" t="n">
-        <v>2.140969207520742</v>
+        <v>3.055775177969334</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.5325845564101263</v>
+        <v>-0.442894115611206</v>
       </c>
       <c r="G47" t="n">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="H47" t="n">
-        <v>21.07067059472365</v>
+        <v>31.55591449512963</v>
       </c>
       <c r="I47" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J47" t="n">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="K47" t="n">
-        <v>214.7153006925828</v>
+        <v>184.1844516520535</v>
       </c>
       <c r="L47" t="n">
-        <v>6.257207903935115</v>
+        <v>9.605613807716772</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7869095109205487</v>
+        <v>0.7801349941306955</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3049128750332718</v>
+        <v>0.407582421311755</v>
       </c>
       <c r="S47" t="n">
-        <v>0.7159260408150765</v>
+        <v>0.8703190939226495</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>2041</v>
+        <v>1624</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1689</v>
+        <v>1226</v>
       </c>
       <c r="B48" t="n">
-        <v>1707</v>
+        <v>1254</v>
       </c>
       <c r="C48" t="n">
-        <v>1765</v>
+        <v>1349</v>
       </c>
       <c r="D48" t="n">
-        <v>2.254293858821179</v>
+        <v>4.365443284267479</v>
       </c>
       <c r="E48" t="n">
-        <v>1.746348681730784</v>
+        <v>3.899830073597338</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5079451770903953</v>
+        <v>-0.4656132106701414</v>
       </c>
       <c r="G48" t="n">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H48" t="n">
-        <v>15.04966842635849</v>
+        <v>83.12909331095557</v>
       </c>
       <c r="I48" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J48" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="K48" t="n">
-        <v>125.0394333743055</v>
+        <v>312.4027521620425</v>
       </c>
       <c r="L48" t="n">
-        <v>6.875315720863591</v>
+        <v>17.97511610623974</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.8127287338809766</v>
+        <v>0.8945502987710549</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2322842357099411</v>
+        <v>0.19434762578328</v>
       </c>
       <c r="S48" t="n">
-        <v>0.6410314149318772</v>
+        <v>0.9170887774099538</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>2042</v>
+        <v>1625</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1102</v>
+        <v>1151</v>
       </c>
       <c r="B49" t="n">
-        <v>1121</v>
+        <v>1181</v>
       </c>
       <c r="C49" t="n">
-        <v>1149</v>
+        <v>1233</v>
       </c>
       <c r="D49" t="n">
-        <v>3.342636516795028</v>
+        <v>3.458490322902049</v>
       </c>
       <c r="E49" t="n">
-        <v>2.895055987389889</v>
+        <v>2.856258858413004</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.4475805294051393</v>
+        <v>-0.6022314644890453</v>
       </c>
       <c r="G49" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H49" t="n">
-        <v>22.35110054757615</v>
+        <v>106.0396535616742</v>
       </c>
       <c r="I49" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J49" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="K49" t="n">
-        <v>102.0315781648012</v>
+        <v>256.1273992735316</v>
       </c>
       <c r="L49" t="n">
-        <v>9.144544446087737</v>
+        <v>14.06474549652267</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.8049920079644199</v>
+        <v>0.5922954264759135</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="R49" t="n">
-        <v>0.23544766981915</v>
+        <v>0.04626368274387134</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9428806279007558</v>
+        <v>0.7884940256896212</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>2043</v>
+        <v>1626</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1196</v>
+        <v>1695</v>
       </c>
       <c r="B50" t="n">
-        <v>1218</v>
+        <v>1721</v>
       </c>
       <c r="C50" t="n">
-        <v>1294</v>
+        <v>1773</v>
       </c>
       <c r="D50" t="n">
-        <v>3.564761811719592</v>
+        <v>2.288015803188451</v>
       </c>
       <c r="E50" t="n">
-        <v>3.117181282314453</v>
+        <v>1.892230241673345</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.4475805294051393</v>
+        <v>-0.3957855615151062</v>
       </c>
       <c r="G50" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="H50" t="n">
-        <v>29.57177196448356</v>
+        <v>57.88713160842804</v>
       </c>
       <c r="I50" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J50" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="K50" t="n">
-        <v>184.5510974677207</v>
+        <v>103.3344245863242</v>
       </c>
       <c r="L50" t="n">
-        <v>9.75221884377714</v>
+        <v>5.659967384959074</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.9284240461374447</v>
+        <v>0.8041969804465374</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.5</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2694294989715032</v>
+        <v>0.3451311296851756</v>
       </c>
       <c r="S50" t="n">
-        <v>0.875943769072167</v>
+        <v>0.8380521326292854</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>2044</v>
+        <v>1627</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1136</v>
+        <v>408</v>
       </c>
       <c r="B51" t="n">
-        <v>1170</v>
+        <v>434</v>
       </c>
       <c r="C51" t="n">
-        <v>1226</v>
+        <v>537</v>
       </c>
       <c r="D51" t="n">
-        <v>4.162057518176524</v>
+        <v>3.358495193590307</v>
       </c>
       <c r="E51" t="n">
-        <v>3.696048260837028</v>
+        <v>2.79028193696322</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.4660092573394963</v>
+        <v>-0.5682132566270868</v>
       </c>
       <c r="G51" t="n">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="H51" t="n">
-        <v>110.6187850439728</v>
+        <v>25.78851374427734</v>
       </c>
       <c r="I51" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J51" t="n">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="K51" t="n">
-        <v>314.3387357444949</v>
+        <v>201.137448652236</v>
       </c>
       <c r="L51" t="n">
-        <v>17.1075345232906</v>
+        <v>12.25150814104687</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.4717135296411955</v>
+        <v>0.8649352278067201</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.2524271844660194</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1530838809191918</v>
+        <v>0.5243463872701345</v>
       </c>
       <c r="S51" t="n">
-        <v>0.6081083643697225</v>
+        <v>0.8674832084557216</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>2045</v>
+        <v>1628</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1226</v>
+        <v>1886</v>
       </c>
       <c r="B52" t="n">
-        <v>1255</v>
+        <v>1920</v>
       </c>
       <c r="C52" t="n">
-        <v>1350</v>
+        <v>1999</v>
       </c>
       <c r="D52" t="n">
-        <v>4.391442287115937</v>
+        <v>2.016800454782514</v>
       </c>
       <c r="E52" t="n">
-        <v>3.925433029776441</v>
+        <v>1.448587198155427</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.4660092573394963</v>
+        <v>-0.5682132566270868</v>
       </c>
       <c r="G52" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H52" t="n">
-        <v>83.07582252607881</v>
+        <v>138.8915344624638</v>
       </c>
       <c r="I52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J52" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="K52" t="n">
-        <v>313.1437817273106</v>
+        <v>155.9224509461534</v>
       </c>
       <c r="L52" t="n">
-        <v>18.05038738791591</v>
+        <v>7.357118520756522</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.912192995268875</v>
+        <v>0.7264168615006029</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3052631578947368</v>
+        <v>0.4303797468354431</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2201184799429436</v>
+        <v>0.1384907295269243</v>
       </c>
       <c r="S52" t="n">
-        <v>0.914827106453404</v>
+        <v>0.7728650091655233</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>2046</v>
+        <v>1629</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1151</v>
+        <v>541</v>
       </c>
       <c r="B53" t="n">
-        <v>1182</v>
+        <v>596</v>
       </c>
       <c r="C53" t="n">
-        <v>1233</v>
+        <v>695</v>
       </c>
       <c r="D53" t="n">
-        <v>3.469283375024905</v>
+        <v>2.453450113324513</v>
       </c>
       <c r="E53" t="n">
-        <v>2.863597976896633</v>
+        <v>1.929643775419043</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.6056853981282718</v>
+        <v>-0.5238063379054693</v>
       </c>
       <c r="G53" t="n">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="H53" t="n">
-        <v>106.3820107113957</v>
+        <v>69.10820388613604</v>
       </c>
       <c r="I53" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J53" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="K53" t="n">
-        <v>256.4100600154214</v>
+        <v>202.0803797421484</v>
       </c>
       <c r="L53" t="n">
-        <v>14.08810430382911</v>
+        <v>9.137021844666936</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.582316520417323</v>
+        <v>0.7765272439580769</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0472656239833189</v>
+        <v>0.2482900546773558</v>
       </c>
       <c r="S53" t="n">
-        <v>0.7814345401898941</v>
+        <v>0.7922500405015855</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>2047</v>
+        <v>1630</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>142</v>
+        <v>695</v>
       </c>
       <c r="B54" t="n">
-        <v>219</v>
+        <v>724</v>
       </c>
       <c r="C54" t="n">
-        <v>318</v>
+        <v>777</v>
       </c>
       <c r="D54" t="n">
-        <v>1.466724584374665</v>
+        <v>1.176768295069884</v>
       </c>
       <c r="E54" t="n">
-        <v>1.071503442459693</v>
+        <v>0.6529619571644145</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.3952211419149721</v>
+        <v>-0.5238063379054693</v>
       </c>
       <c r="G54" t="n">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="H54" t="n">
-        <v>143.9832643247616</v>
+        <v>33.06796647037311</v>
       </c>
       <c r="I54" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="J54" t="n">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="K54" t="n">
-        <v>162.0026191695246</v>
+        <v>70.33210891082319</v>
       </c>
       <c r="L54" t="n">
-        <v>3.586626195093373</v>
+        <v>4.382464334518478</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.5501319795026607</v>
+        <v>0.736693017112917</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="R54" t="n">
-        <v>0.290221234099052</v>
+        <v>0.1739113264134698</v>
       </c>
       <c r="S54" t="n">
-        <v>0.8244767979728181</v>
+        <v>0.5549205934817978</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>2048</v>
+        <v>1631</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1695</v>
+        <v>777</v>
       </c>
       <c r="B55" t="n">
-        <v>1721</v>
+        <v>804</v>
       </c>
       <c r="C55" t="n">
-        <v>1774</v>
+        <v>852</v>
       </c>
       <c r="D55" t="n">
-        <v>2.308334148508564</v>
+        <v>1.623807022106642</v>
       </c>
       <c r="E55" t="n">
-        <v>1.913113006593592</v>
+        <v>1.100000684201172</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.3952211419149721</v>
+        <v>-0.5238063379054693</v>
       </c>
       <c r="G55" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H55" t="n">
-        <v>57.84028370266105</v>
+        <v>19.18454105129604</v>
       </c>
       <c r="I55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J55" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K55" t="n">
-        <v>104.088028556072</v>
+        <v>90.64725935180297</v>
       </c>
       <c r="L55" t="n">
-        <v>5.64463963600853</v>
+        <v>6.047304631112964</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.8019495104459015</v>
+        <v>0.743718557063393</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.4905660377358491</v>
+        <v>0.5625</v>
       </c>
       <c r="R55" t="n">
-        <v>0.3583927052157825</v>
+        <v>0.3863702227455731</v>
       </c>
       <c r="S55" t="n">
-        <v>0.8093073769983512</v>
+        <v>0.6683177623227736</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>2049</v>
+        <v>1632</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1774</v>
+        <v>2271</v>
       </c>
       <c r="B56" t="n">
-        <v>1793</v>
+        <v>2300</v>
       </c>
       <c r="C56" t="n">
-        <v>1824</v>
+        <v>2362</v>
       </c>
       <c r="D56" t="n">
-        <v>1.638859047057563</v>
+        <v>3.325268040722614</v>
       </c>
       <c r="E56" t="n">
-        <v>1.243637905142591</v>
+        <v>2.854675425500283</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.3952211419149721</v>
+        <v>-0.4705926152223304</v>
       </c>
       <c r="G56" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="H56" t="n">
-        <v>26.28961805431004</v>
+        <v>39.77421862435676</v>
       </c>
       <c r="I56" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J56" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="K56" t="n">
-        <v>54.74248041174364</v>
+        <v>213.5698422557777</v>
       </c>
       <c r="L56" t="n">
-        <v>4.007551827290384</v>
+        <v>21.29795933980454</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.7431662229056275</v>
+        <v>0.7963897663088647</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1516777737391194</v>
+        <v>0.1241989878012205</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9077304502687918</v>
+        <v>0.9541625801300148</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>2050</v>
+        <v>1633</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1824</v>
+        <v>2362</v>
       </c>
       <c r="B57" t="n">
-        <v>1851</v>
+        <v>2391</v>
       </c>
       <c r="C57" t="n">
-        <v>1886</v>
+        <v>2499</v>
       </c>
       <c r="D57" t="n">
-        <v>1.378164481030542</v>
+        <v>3.737250622882307</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9829433391155701</v>
+        <v>3.266658007659976</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.3952211419149721</v>
+        <v>-0.4705926152223304</v>
       </c>
       <c r="G57" t="n">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="H57" t="n">
-        <v>27.84523823580957</v>
+        <v>34.71088612844051</v>
       </c>
       <c r="I57" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J57" t="n">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="K57" t="n">
-        <v>48.38712379803489</v>
+        <v>262.9002912940071</v>
       </c>
       <c r="L57" t="n">
-        <v>3.370067483336571</v>
+        <v>23.93666039370156</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.7127634111644526</v>
+        <v>0.9056455595352697</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1387738518554771</v>
+        <v>0.2137132473753202</v>
       </c>
       <c r="S57" t="n">
-        <v>0.9270838164158288</v>
+        <v>0.9155625960572978</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>2051</v>
+        <v>1634</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>407</v>
+        <v>2748</v>
       </c>
       <c r="B58" t="n">
-        <v>433</v>
+        <v>2767</v>
       </c>
       <c r="C58" t="n">
-        <v>537</v>
+        <v>2798</v>
       </c>
       <c r="D58" t="n">
-        <v>3.412400666762986</v>
+        <v>3.627564489375928</v>
       </c>
       <c r="E58" t="n">
-        <v>2.840424952229466</v>
+        <v>3.126979262145471</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5719757145335207</v>
+        <v>-0.500585227230457</v>
       </c>
       <c r="G58" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H58" t="n">
-        <v>25.32869088325265</v>
+        <v>15.71514447934396</v>
       </c>
       <c r="I58" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J58" t="n">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="K58" t="n">
-        <v>203.5414103022501</v>
+        <v>117.1979719639432</v>
       </c>
       <c r="L58" t="n">
-        <v>12.36049526833017</v>
+        <v>10.44242142869087</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.8594280181515332</v>
+        <v>0.8257856948980551</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.25</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="R58" t="n">
-        <v>0.5059639777933075</v>
+        <v>0.3602559185057533</v>
       </c>
       <c r="S58" t="n">
-        <v>0.8594956039438115</v>
+        <v>0.9759584747121894</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>2052</v>
+        <v>1635</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1888</v>
+        <v>2798</v>
       </c>
       <c r="B59" t="n">
-        <v>1919</v>
+        <v>2817</v>
       </c>
       <c r="C59" t="n">
-        <v>1998</v>
+        <v>2880</v>
       </c>
       <c r="D59" t="n">
-        <v>2.039974266678628</v>
+        <v>1.863685885441994</v>
       </c>
       <c r="E59" t="n">
-        <v>1.467998552145107</v>
+        <v>1.363100658211537</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.5719757145335207</v>
+        <v>-0.500585227230457</v>
       </c>
       <c r="G59" t="n">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="H59" t="n">
-        <v>139.7763643235885</v>
+        <v>53.08315184737239</v>
       </c>
       <c r="I59" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J59" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="K59" t="n">
-        <v>153.7966824304055</v>
+        <v>113.254108451288</v>
       </c>
       <c r="L59" t="n">
-        <v>7.389253119187673</v>
+        <v>5.364864906877576</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.7317686426350963</v>
+        <v>0.8431677118416925</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.3924050632911392</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1335545483457131</v>
+        <v>0.156568748103813</v>
       </c>
       <c r="S59" t="n">
-        <v>0.7464434155113026</v>
+        <v>0.8452894273879474</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>2053</v>
+        <v>1636</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2606</v>
+        <v>2193</v>
       </c>
       <c r="B60" t="n">
-        <v>2635</v>
+        <v>2254</v>
       </c>
       <c r="C60" t="n">
-        <v>2673</v>
+        <v>2359</v>
       </c>
       <c r="D60" t="n">
-        <v>2.09384122245307</v>
+        <v>4.536175848020631</v>
       </c>
       <c r="E60" t="n">
-        <v>1.521865507919549</v>
+        <v>4.141667469376149</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5719757145335207</v>
+        <v>-0.3945083786444811</v>
       </c>
       <c r="G60" t="n">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="H60" t="n">
-        <v>40.82161725492779</v>
+        <v>82.2442496849053</v>
       </c>
       <c r="I60" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J60" t="n">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K60" t="n">
-        <v>92.64859068567696</v>
+        <v>401.7250210860714</v>
       </c>
       <c r="L60" t="n">
-        <v>7.584371546649751</v>
+        <v>29.5017174995421</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.6782964942614841</v>
+        <v>0.735679559795742</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1410104672793321</v>
+        <v>0.3539665222777896</v>
       </c>
       <c r="S60" t="n">
-        <v>0.877620465084674</v>
+        <v>0.9792598900751064</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>2054</v>
+        <v>1637</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>541</v>
+        <v>2036</v>
       </c>
       <c r="B61" t="n">
-        <v>596</v>
+        <v>2091</v>
       </c>
       <c r="C61" t="n">
-        <v>693</v>
+        <v>2193</v>
       </c>
       <c r="D61" t="n">
-        <v>2.486033062505185</v>
+        <v>3.683124947161222</v>
       </c>
       <c r="E61" t="n">
-        <v>1.955379476493026</v>
+        <v>3.162398928600501</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5306535860121596</v>
+        <v>-0.5207260185607203</v>
       </c>
       <c r="G61" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H61" t="n">
-        <v>71.84861343799582</v>
+        <v>32.22219809257194</v>
       </c>
       <c r="I61" t="n">
         <v>55</v>
       </c>
       <c r="J61" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K61" t="n">
-        <v>202.0187364008434</v>
+        <v>255.2983457877875</v>
       </c>
       <c r="L61" t="n">
-        <v>9.194467210235779</v>
+        <v>12.03515898795437</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.7632101450500886</v>
+        <v>0.6566665763017729</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.5670103092783505</v>
+        <v>0.5392156862745098</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2507372849358452</v>
+        <v>0.3498818928994173</v>
       </c>
       <c r="S61" t="n">
-        <v>0.7752476862080275</v>
+        <v>0.8050644822151661</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>2055</v>
+        <v>1638</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>693</v>
+        <v>2462</v>
       </c>
       <c r="B62" t="n">
-        <v>724</v>
+        <v>2510</v>
       </c>
       <c r="C62" t="n">
-        <v>777</v>
+        <v>2576</v>
       </c>
       <c r="D62" t="n">
-        <v>1.179460330802063</v>
+        <v>2.017377748643269</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6488067447899036</v>
+        <v>1.496651730082549</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.5306535860121596</v>
+        <v>-0.5207260185607203</v>
       </c>
       <c r="G62" t="n">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="H62" t="n">
-        <v>30.49281350480067</v>
+        <v>51.84231992329433</v>
       </c>
       <c r="I62" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J62" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="K62" t="n">
-        <v>72.11413951707632</v>
+        <v>126.0283806553718</v>
       </c>
       <c r="L62" t="n">
-        <v>4.362174220806766</v>
+        <v>6.592082074868693</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.6920364112051863</v>
+        <v>0.7439201347027747</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.5849056603773585</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R62" t="n">
-        <v>0.1992819461577449</v>
+        <v>0.2979474866414841</v>
       </c>
       <c r="S62" t="n">
-        <v>0.5102468898955499</v>
+        <v>0.6958067785214479</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>2056</v>
+        <v>1639</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>777</v>
+        <v>2576</v>
       </c>
       <c r="B63" t="n">
-        <v>799</v>
+        <v>2672</v>
       </c>
       <c r="C63" t="n">
-        <v>853</v>
+        <v>2836</v>
       </c>
       <c r="D63" t="n">
-        <v>1.635688996652569</v>
+        <v>3.109780192827931</v>
       </c>
       <c r="E63" t="n">
-        <v>1.10503541064041</v>
+        <v>2.589054174267211</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5306535860121596</v>
+        <v>-0.5207260185607203</v>
       </c>
       <c r="G63" t="n">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="H63" t="n">
-        <v>19.21467436945022</v>
+        <v>104.2960125110235</v>
       </c>
       <c r="I63" t="n">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="J63" t="n">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="K63" t="n">
-        <v>92.35828976303361</v>
+        <v>376.3735210812119</v>
       </c>
       <c r="L63" t="n">
-        <v>6.049512805236129</v>
+        <v>10.16166966236708</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.8093895213698743</v>
+        <v>0.6835852747918811</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="R63" t="n">
-        <v>0.4720552057621313</v>
+        <v>0.6633897058592002</v>
       </c>
       <c r="S63" t="n">
-        <v>0.7107177081733758</v>
+        <v>0.9469837382607582</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>2057</v>
+        <v>1640</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2271</v>
+        <v>2065</v>
       </c>
       <c r="B64" t="n">
-        <v>2299</v>
+        <v>2092</v>
       </c>
       <c r="C64" t="n">
-        <v>2363</v>
+        <v>2129</v>
       </c>
       <c r="D64" t="n">
-        <v>3.358310063520584</v>
+        <v>3.024453544187844</v>
       </c>
       <c r="E64" t="n">
-        <v>2.887731258013192</v>
+        <v>2.5741602436632</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4705788055073922</v>
+        <v>-0.4502933005246437</v>
       </c>
       <c r="G64" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="H64" t="n">
-        <v>39.50492037875483</v>
+        <v>25.54039858461738</v>
       </c>
       <c r="I64" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J64" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="K64" t="n">
-        <v>214.8454040736355</v>
+        <v>103.0842713846724</v>
       </c>
       <c r="L64" t="n">
-        <v>21.32900257484572</v>
+        <v>10.35537906645225</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.8037328826918418</v>
+        <v>0.8255347909910605</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.4375</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1176108200961257</v>
+        <v>0.2242314828404958</v>
       </c>
       <c r="S64" t="n">
-        <v>0.9498035402287701</v>
+        <v>0.9891484780908142</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>2058</v>
+        <v>1641</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2363</v>
+        <v>2631</v>
       </c>
       <c r="B65" t="n">
-        <v>2390</v>
+        <v>2691</v>
       </c>
       <c r="C65" t="n">
-        <v>2499</v>
+        <v>2766</v>
       </c>
       <c r="D65" t="n">
-        <v>3.805508298815356</v>
+        <v>2.876461111367161</v>
       </c>
       <c r="E65" t="n">
-        <v>3.334929493307964</v>
+        <v>2.426167810842517</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4705788055073922</v>
+        <v>-0.4502933005246437</v>
       </c>
       <c r="G65" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H65" t="n">
-        <v>33.86294355376867</v>
+        <v>112.941383823696</v>
       </c>
       <c r="I65" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J65" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="K65" t="n">
-        <v>261.6636583414511</v>
+        <v>237.6103724340774</v>
       </c>
       <c r="L65" t="n">
-        <v>24.16920855096379</v>
+        <v>9.848670096241847</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.8820207583375522</v>
+        <v>0.698968652260745</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.2477064220183486</v>
+        <v>0.8</v>
       </c>
       <c r="R65" t="n">
-        <v>0.2038000250736487</v>
+        <v>0.2608874930617854</v>
       </c>
       <c r="S65" t="n">
-        <v>0.9101142852791033</v>
+        <v>0.7527111302402074</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>2059</v>
+        <v>1642</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>501</v>
+        <v>2401</v>
       </c>
       <c r="B66" t="n">
-        <v>529</v>
+        <v>2476</v>
       </c>
       <c r="C66" t="n">
-        <v>577</v>
+        <v>2571</v>
       </c>
       <c r="D66" t="n">
-        <v>1.323464531396011</v>
+        <v>3.427337025390122</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8206936807946709</v>
+        <v>2.886972229500205</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5027708506013397</v>
+        <v>-0.5403647958899167</v>
       </c>
       <c r="G66" t="n">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="H66" t="n">
-        <v>27.44480446933972</v>
+        <v>155.2986889042172</v>
       </c>
       <c r="I66" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="J66" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="K66" t="n">
-        <v>61.52514033844248</v>
+        <v>418.7106007129643</v>
       </c>
       <c r="L66" t="n">
-        <v>3.805646677212875</v>
+        <v>9.725824298461395</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.7630144442631307</v>
+        <v>0.534911848482011</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="R66" t="n">
-        <v>0.576830712789556</v>
+        <v>0.09851434684311233</v>
       </c>
       <c r="S66" t="n">
-        <v>0.6599965475119909</v>
+        <v>0.9671350335795137</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>2060</v>
+        <v>1643</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>831</v>
+        <v>597</v>
       </c>
       <c r="B67" t="n">
-        <v>847</v>
+        <v>626</v>
       </c>
       <c r="C67" t="n">
-        <v>870</v>
+        <v>674</v>
       </c>
       <c r="D67" t="n">
-        <v>1.150541570080109</v>
+        <v>2.63467400453036</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6477707194787691</v>
+        <v>2.100882199974323</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5027708506013397</v>
+        <v>-0.5337918045560377</v>
       </c>
       <c r="G67" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="H67" t="n">
-        <v>14.90853448690609</v>
+        <v>109.9540820817098</v>
       </c>
       <c r="I67" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J67" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K67" t="n">
-        <v>30.15570153430046</v>
+        <v>128.8593040933869</v>
       </c>
       <c r="L67" t="n">
-        <v>3.308403511616653</v>
+        <v>5.978733904304915</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.8142442156394403</v>
+        <v>0.7029556527788919</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="R67" t="n">
-        <v>0.254554640944191</v>
+        <v>0.264126545868548</v>
       </c>
       <c r="S67" t="n">
-        <v>0.8788285202197302</v>
+        <v>0.9390916192221588</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>2061</v>
+        <v>1644</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,73 +6233,73 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2748</v>
+        <v>1895</v>
       </c>
       <c r="B68" t="n">
-        <v>2766</v>
+        <v>1947</v>
       </c>
       <c r="C68" t="n">
-        <v>2797</v>
+        <v>2111</v>
       </c>
       <c r="D68" t="n">
-        <v>3.662443921715374</v>
+        <v>2.626124647223469</v>
       </c>
       <c r="E68" t="n">
-        <v>3.159673071114034</v>
+        <v>2.092332842667431</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5027708506013397</v>
+        <v>-0.5337918045560377</v>
       </c>
       <c r="G68" t="n">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="H68" t="n">
-        <v>15.60924092299592</v>
+        <v>31.27631969619119</v>
       </c>
       <c r="I68" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J68" t="n">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="K68" t="n">
-        <v>116.5006785948476</v>
+        <v>236.9662991348128</v>
       </c>
       <c r="L68" t="n">
-        <v>10.53142506694352</v>
+        <v>5.959333275497389</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2029), 'value': np.float64(1.142276443299782), 'amplitude': np.float64(1.6760682478558198), 'start_idx': np.int64(1999), 'end_idx': np.int64(2038), 'duration': np.float64(39.0), 'fwhm': np.float64(51.83897973339526), 'rise_time': np.float64(30.0), 'decay_time': np.float64(9.0), 'auc': np.float64(47.68174056484277)}]</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.8348053057018453</v>
+        <v>0.6340001381896134</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3244612240810708</v>
+        <v>0.5068665798579021</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9638885430959879</v>
+        <v>0.3062520778413921</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>2062</v>
+        <v>1645</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2797</v>
+        <v>1523</v>
       </c>
       <c r="B69" t="n">
-        <v>2818</v>
+        <v>1543</v>
       </c>
       <c r="C69" t="n">
-        <v>2880</v>
+        <v>1568</v>
       </c>
       <c r="D69" t="n">
-        <v>1.893033207828157</v>
+        <v>1.347039749548971</v>
       </c>
       <c r="E69" t="n">
-        <v>1.390262357226817</v>
+        <v>0.7966911465224484</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5027708506013397</v>
+        <v>-0.5503486030265229</v>
       </c>
       <c r="G69" t="n">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H69" t="n">
-        <v>52.11267603346641</v>
+        <v>19.28274664045739</v>
       </c>
       <c r="I69" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J69" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K69" t="n">
-        <v>114.274787313815</v>
+        <v>30.88298481794355</v>
       </c>
       <c r="L69" t="n">
-        <v>5.443451914518433</v>
+        <v>4.203087859972732</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.8194672064324338</v>
+        <v>0.8000140601414312</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.3387096774193548</v>
+        <v>0.8</v>
       </c>
       <c r="R69" t="n">
-        <v>0.151618994401545</v>
+        <v>0.2962719848581348</v>
       </c>
       <c r="S69" t="n">
-        <v>0.8367750807296435</v>
+        <v>0.9875172173409916</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>2063</v>
+        <v>1646</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2193</v>
+        <v>1761</v>
       </c>
       <c r="B70" t="n">
-        <v>2254</v>
+        <v>1789</v>
       </c>
       <c r="C70" t="n">
-        <v>2360</v>
+        <v>1887</v>
       </c>
       <c r="D70" t="n">
-        <v>4.552548724841018</v>
+        <v>2.224510097638182</v>
       </c>
       <c r="E70" t="n">
-        <v>4.15508379287775</v>
+        <v>1.674161494611659</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.3974649319632678</v>
+        <v>-0.5503486030265229</v>
       </c>
       <c r="G70" t="n">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="H70" t="n">
-        <v>82.21007091546971</v>
+        <v>33.89212289801458</v>
       </c>
       <c r="I70" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="J70" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K70" t="n">
-        <v>402.4149798927678</v>
+        <v>178.382892314398</v>
       </c>
       <c r="L70" t="n">
-        <v>29.31184228780525</v>
+        <v>6.941006298366765</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.7377840310250297</v>
+        <v>0.8190437849297558</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.5754716981132075</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3614884767190567</v>
+        <v>0.3877163736045113</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9782601000319796</v>
+        <v>0.8864772055911495</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>2064</v>
+        <v>1647</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2462</v>
+        <v>2530</v>
       </c>
       <c r="B71" t="n">
-        <v>2510</v>
+        <v>2547</v>
       </c>
       <c r="C71" t="n">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="D71" t="n">
-        <v>2.014255377628066</v>
+        <v>3.280035175731883</v>
       </c>
       <c r="E71" t="n">
-        <v>1.493725267567032</v>
+        <v>2.72968657270536</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5205301100610336</v>
+        <v>-0.5503486030265229</v>
       </c>
       <c r="G71" t="n">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="H71" t="n">
-        <v>52.11367947537292</v>
+        <v>22.06573515811169</v>
       </c>
       <c r="I71" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J71" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="K71" t="n">
-        <v>125.8776627757691</v>
+        <v>110.4398774416964</v>
       </c>
       <c r="L71" t="n">
-        <v>6.495673070352042</v>
+        <v>10.23449830045346</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.6752963976566843</v>
+        <v>0.6717162826405985</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="R71" t="n">
-        <v>0.3041570620959322</v>
+        <v>0.08773269399291353</v>
       </c>
       <c r="S71" t="n">
-        <v>0.5798229734423647</v>
+        <v>0.8887385892221683</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>2065</v>
+        <v>1648</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="B72" t="n">
-        <v>2673</v>
+        <v>2597</v>
       </c>
       <c r="C72" t="n">
-        <v>2798</v>
+        <v>2643</v>
       </c>
       <c r="D72" t="n">
-        <v>3.108443431013673</v>
+        <v>2.902669907442327</v>
       </c>
       <c r="E72" t="n">
-        <v>2.587913320952639</v>
+        <v>2.352321304415804</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.5205301100610336</v>
+        <v>-0.5503486030265229</v>
       </c>
       <c r="G72" t="n">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="H72" t="n">
-        <v>103.8887476618597</v>
+        <v>34.52601191723443</v>
       </c>
       <c r="I72" t="n">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="J72" t="n">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="K72" t="n">
-        <v>351.4017244408595</v>
+        <v>144.7362732282568</v>
       </c>
       <c r="L72" t="n">
-        <v>10.02426629205534</v>
+        <v>9.05702794113091</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.6055572506844454</v>
+        <v>0.7588800878325651</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.776</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="R72" t="n">
-        <v>0.9178272299590873</v>
+        <v>0.1162528962336723</v>
       </c>
       <c r="S72" t="n">
-        <v>0.902700869623921</v>
+        <v>0.9677284542294881</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>2066</v>
+        <v>1649</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2065</v>
+        <v>787</v>
       </c>
       <c r="B73" t="n">
-        <v>2092</v>
+        <v>803</v>
       </c>
       <c r="C73" t="n">
-        <v>2129</v>
+        <v>852</v>
       </c>
       <c r="D73" t="n">
-        <v>3.032449017732742</v>
+        <v>0.9647047997317155</v>
       </c>
       <c r="E73" t="n">
-        <v>2.57391003742176</v>
+        <v>0.4668191548576527</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4585389803109813</v>
+        <v>-0.4978856448740628</v>
       </c>
       <c r="G73" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H73" t="n">
-        <v>25.89022816705256</v>
+        <v>11.36529475249279</v>
       </c>
       <c r="I73" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J73" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K73" t="n">
-        <v>103.6091031157072</v>
+        <v>37.12256324021772</v>
       </c>
       <c r="L73" t="n">
-        <v>10.33380997328157</v>
+        <v>5.468658501472524</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.8236482019874005</v>
+        <v>0.8298782952528271</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="R73" t="n">
-        <v>0.244515949642142</v>
+        <v>0.3748492318527384</v>
       </c>
       <c r="S73" t="n">
-        <v>0.9900364203155267</v>
+        <v>0.8065029237852871</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>2067</v>
+        <v>1650</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2632</v>
+        <v>2127</v>
       </c>
       <c r="B74" t="n">
-        <v>2691</v>
+        <v>2139</v>
       </c>
       <c r="C74" t="n">
-        <v>2765</v>
+        <v>2168</v>
       </c>
       <c r="D74" t="n">
-        <v>2.925769532943274</v>
+        <v>2.395460853335263</v>
       </c>
       <c r="E74" t="n">
-        <v>2.467230552632293</v>
+        <v>1.8975752084612</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.4585389803109813</v>
+        <v>-0.4978856448740628</v>
       </c>
       <c r="G74" t="n">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="H74" t="n">
-        <v>111.9095597156816</v>
+        <v>11.22893046730906</v>
       </c>
       <c r="I74" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="J74" t="n">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="K74" t="n">
-        <v>237.9771494880932</v>
+        <v>74.99010826688102</v>
       </c>
       <c r="L74" t="n">
-        <v>9.970273598089298</v>
+        <v>13.57923933225958</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.6934966597405738</v>
+        <v>0.7527293758036644</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.7972972972972973</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2489173489982019</v>
+        <v>0.1135211846128962</v>
       </c>
       <c r="S74" t="n">
-        <v>0.7264012664743362</v>
+        <v>0.8564208527496445</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>2068</v>
+        <v>1651</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6828,866 +6828,6 @@
         </is>
       </c>
       <c r="X74" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>2765</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2789</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2819</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.888161148490827</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.429622168179845</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-0.4585389803109813</v>
-      </c>
-      <c r="G75" t="n">
-        <v>54</v>
-      </c>
-      <c r="H75" t="n">
-        <v>22.19048690952104</v>
-      </c>
-      <c r="I75" t="n">
-        <v>24</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30</v>
-      </c>
-      <c r="K75" t="n">
-        <v>62.74990185647349</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6.434369842110545</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P75" t="n">
-        <v>0.7519941983026148</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.1832617959370213</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0.8945954331223794</v>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U75" t="n">
-        <v>2069</v>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>2403</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2476</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2571</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3.439685953616814</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2.899287753656842</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-0.5403981999599716</v>
-      </c>
-      <c r="G76" t="n">
-        <v>168</v>
-      </c>
-      <c r="H76" t="n">
-        <v>152.817005112995</v>
-      </c>
-      <c r="I76" t="n">
-        <v>73</v>
-      </c>
-      <c r="J76" t="n">
-        <v>95</v>
-      </c>
-      <c r="K76" t="n">
-        <v>415.9522677325872</v>
-      </c>
-      <c r="L76" t="n">
-        <v>9.704515713602566</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>0.5243765208302186</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.7684210526315789</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.09689059861932936</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.9603075950005199</v>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U76" t="n">
-        <v>2070</v>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>598</v>
-      </c>
-      <c r="B77" t="n">
-        <v>625</v>
-      </c>
-      <c r="C77" t="n">
-        <v>675</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2.675441688021672</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2.144144116373939</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-0.5312975716477333</v>
-      </c>
-      <c r="G77" t="n">
-        <v>77</v>
-      </c>
-      <c r="H77" t="n">
-        <v>109.8587902948719</v>
-      </c>
-      <c r="I77" t="n">
-        <v>27</v>
-      </c>
-      <c r="J77" t="n">
-        <v>50</v>
-      </c>
-      <c r="K77" t="n">
-        <v>127.4441375495562</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.060653680560823</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>0.7660815139633967</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.2643744383749054</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.9295544963896823</v>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U77" t="n">
-        <v>2071</v>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1999</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2029</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2112</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1.688455521048115</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.157157949400381</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-0.5312975716477333</v>
-      </c>
-      <c r="G78" t="n">
-        <v>113</v>
-      </c>
-      <c r="H78" t="n">
-        <v>51.336579232541</v>
-      </c>
-      <c r="I78" t="n">
-        <v>30</v>
-      </c>
-      <c r="J78" t="n">
-        <v>83</v>
-      </c>
-      <c r="K78" t="n">
-        <v>112.7609679490572</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.824842908712502</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>0.8559284698507674</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.3614457831325301</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.1957166536611798</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.7436190356293029</v>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U78" t="n">
-        <v>2072</v>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1524</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1543</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1568</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.403385231978487</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.8523312864036163</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-0.5510539455748705</v>
-      </c>
-      <c r="G79" t="n">
-        <v>44</v>
-      </c>
-      <c r="H79" t="n">
-        <v>18.05507895156165</v>
-      </c>
-      <c r="I79" t="n">
-        <v>19</v>
-      </c>
-      <c r="J79" t="n">
-        <v>25</v>
-      </c>
-      <c r="K79" t="n">
-        <v>30.95891087773044</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.357341844811867</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>0.8041369541774902</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.3273480909303288</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0.9413747655668467</v>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U79" t="n">
-        <v>2073</v>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1758</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1789</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1886</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2.241136291778225</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.690082346203354</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-0.5510539455748705</v>
-      </c>
-      <c r="G80" t="n">
-        <v>128</v>
-      </c>
-      <c r="H80" t="n">
-        <v>33.27588773764751</v>
-      </c>
-      <c r="I80" t="n">
-        <v>31</v>
-      </c>
-      <c r="J80" t="n">
-        <v>97</v>
-      </c>
-      <c r="K80" t="n">
-        <v>183.2328415347395</v>
-      </c>
-      <c r="L80" t="n">
-        <v>6.958457821538095</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>0.8486637459635794</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.3195876288659794</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.3760276626276877</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.8824886935925965</v>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U80" t="n">
-        <v>2074</v>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2531</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2546</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2573</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3.312646218033473</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.761592272458602</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-0.5510539455748705</v>
-      </c>
-      <c r="G81" t="n">
-        <v>42</v>
-      </c>
-      <c r="H81" t="n">
-        <v>22.04304219160804</v>
-      </c>
-      <c r="I81" t="n">
-        <v>15</v>
-      </c>
-      <c r="J81" t="n">
-        <v>27</v>
-      </c>
-      <c r="K81" t="n">
-        <v>108.4452049098347</v>
-      </c>
-      <c r="L81" t="n">
-        <v>10.28536687859082</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>0.6905458586134339</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.08025237263722876</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.8834871218738704</v>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U81" t="n">
-        <v>2075</v>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>2573</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2597</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2643</v>
-      </c>
-      <c r="D82" t="n">
-        <v>2.937425213957614</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2.386371268382744</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-0.5510539455748705</v>
-      </c>
-      <c r="G82" t="n">
-        <v>70</v>
-      </c>
-      <c r="H82" t="n">
-        <v>34.95768880454307</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>46</v>
-      </c>
-      <c r="K82" t="n">
-        <v>144.8183813725635</v>
-      </c>
-      <c r="L82" t="n">
-        <v>9.120350926550987</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>0.7544759019991153</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.1122414144006319</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.9698067867828517</v>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U82" t="n">
-        <v>2076</v>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>787</v>
-      </c>
-      <c r="B83" t="n">
-        <v>803</v>
-      </c>
-      <c r="C83" t="n">
-        <v>870</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.9930484519827372</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.4939334829934919</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-0.4991149689892452</v>
-      </c>
-      <c r="G83" t="n">
-        <v>83</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12.06569663435312</v>
-      </c>
-      <c r="I83" t="n">
-        <v>16</v>
-      </c>
-      <c r="J83" t="n">
-        <v>67</v>
-      </c>
-      <c r="K83" t="n">
-        <v>43.45517322190859</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5.597062706365451</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>0.7731343168588316</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.2388059701492537</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.4201878827662566</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.5907978114473156</v>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U83" t="n">
-        <v>2077</v>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>2126</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2140</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2168</v>
-      </c>
-      <c r="D84" t="n">
-        <v>2.369182811274464</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.870067842285219</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-0.4991149689892452</v>
-      </c>
-      <c r="G84" t="n">
-        <v>42</v>
-      </c>
-      <c r="H84" t="n">
-        <v>12.3997615778967</v>
-      </c>
-      <c r="I84" t="n">
-        <v>14</v>
-      </c>
-      <c r="J84" t="n">
-        <v>28</v>
-      </c>
-      <c r="K84" t="n">
-        <v>76.17683149226691</v>
-      </c>
-      <c r="L84" t="n">
-        <v>13.35329079972915</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>0.7405718415543739</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.1048770244442359</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.9418005579477178</v>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U84" t="n">
-        <v>2078</v>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social32024-12-07121733trace/processed_No.2979240926social32024-12-07121733trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social32024-12-07121733trace/processed_No.2979240926social32024-12-07121733trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2500</v>
+        <v>224</v>
       </c>
       <c r="B2" t="n">
-        <v>2545</v>
+        <v>255</v>
       </c>
       <c r="C2" t="n">
-        <v>2675</v>
+        <v>386</v>
       </c>
       <c r="D2" t="n">
-        <v>3.073833775375721</v>
+        <v>3.192284433813957</v>
       </c>
       <c r="E2" t="n">
-        <v>2.403859558189172</v>
+        <v>2.506877248827899</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6699742171865496</v>
+        <v>-0.6854071849860579</v>
       </c>
       <c r="G2" t="n">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H2" t="n">
-        <v>45.98476760327094</v>
+        <v>312.935919841162</v>
       </c>
       <c r="I2" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K2" t="n">
-        <v>243.9331825307907</v>
+        <v>385.3759601396834</v>
       </c>
       <c r="L2" t="n">
-        <v>9.34172842362857</v>
+        <v>9.581152541406265</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.863564420459665</v>
+        <v>0.8478330824954451</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.2366412213740458</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4129195998017693</v>
+        <v>0.2174982399589062</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8050849577019537</v>
+        <v>0.8066796756610333</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>782</v>
+        <v>1579</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2675</v>
+        <v>2509</v>
       </c>
       <c r="B3" t="n">
-        <v>2765</v>
+        <v>2541</v>
       </c>
       <c r="C3" t="n">
-        <v>2998</v>
+        <v>2681</v>
       </c>
       <c r="D3" t="n">
-        <v>2.519022882533496</v>
+        <v>3.319089407315519</v>
       </c>
       <c r="E3" t="n">
-        <v>1.849048665346946</v>
+        <v>2.633682222329461</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6699742171865496</v>
+        <v>-0.6854071849860579</v>
       </c>
       <c r="G3" t="n">
-        <v>323</v>
+        <v>172</v>
       </c>
       <c r="H3" t="n">
-        <v>76.05772908048448</v>
+        <v>40.13725438322444</v>
       </c>
       <c r="I3" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>504.9418087647918</v>
+        <v>239.7959058916375</v>
       </c>
       <c r="L3" t="n">
-        <v>7.65559538386475</v>
+        <v>9.96173823773656</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6940777517368794</v>
+        <v>0.856258948515301</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3862660944206008</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2422434267318279</v>
+        <v>0.4252427795484165</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4937529043298022</v>
+        <v>0.8075152034587294</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>783</v>
+        <v>1580</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B4" t="n">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="C4" t="n">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="D4" t="n">
-        <v>2.713287901091533</v>
+        <v>2.835094900456684</v>
       </c>
       <c r="E4" t="n">
-        <v>2.026952837898834</v>
+        <v>2.142182396583016</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6863350631926998</v>
+        <v>-0.6929125038736678</v>
       </c>
       <c r="G4" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H4" t="n">
-        <v>110.4040883643731</v>
+        <v>107.0512526310263</v>
       </c>
       <c r="I4" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K4" t="n">
-        <v>328.6180952781644</v>
+        <v>335.8898419719803</v>
       </c>
       <c r="L4" t="n">
-        <v>10.68931690611151</v>
+        <v>11.20036589925188</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6739043823629529</v>
+        <v>0.6573328138406745</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.72</v>
+        <v>0.5486725663716814</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4396553772043733</v>
+        <v>0.5487283141981478</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8459711210223484</v>
+        <v>0.795964736923047</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>784</v>
+        <v>1581</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>367</v>
+        <v>1840</v>
       </c>
       <c r="B5" t="n">
-        <v>407</v>
+        <v>1865</v>
       </c>
       <c r="C5" t="n">
-        <v>622</v>
+        <v>1957</v>
       </c>
       <c r="D5" t="n">
-        <v>2.994399549667891</v>
+        <v>1.067342288385328</v>
       </c>
       <c r="E5" t="n">
-        <v>2.328588394711259</v>
+        <v>0.37442978451166</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6658111549566321</v>
+        <v>-0.6929125038736678</v>
       </c>
       <c r="G5" t="n">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c r="H5" t="n">
-        <v>163.4506677983118</v>
+        <v>29.5438252594729</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="K5" t="n">
-        <v>454.0059479388162</v>
+        <v>61.4783773344553</v>
       </c>
       <c r="L5" t="n">
-        <v>10.57184248552125</v>
+        <v>4.216657498038183</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.7801295259251831</v>
+        <v>0.8949581313882127</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.186046511627907</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1511060144105229</v>
+        <v>0.3404671830996981</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7428865439638828</v>
+        <v>0.8349690660433466</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>785</v>
+        <v>1582</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1630</v>
+        <v>370</v>
       </c>
       <c r="B6" t="n">
-        <v>1672</v>
+        <v>401</v>
       </c>
       <c r="C6" t="n">
-        <v>1986</v>
+        <v>459</v>
       </c>
       <c r="D6" t="n">
-        <v>3.458040203870287</v>
+        <v>3.169032673078981</v>
       </c>
       <c r="E6" t="n">
-        <v>2.792229048913655</v>
+        <v>2.486845364280765</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6658111549566321</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G6" t="n">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>170.1402363833297</v>
+        <v>163.5794668652842</v>
       </c>
       <c r="I6" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J6" t="n">
-        <v>314</v>
+        <v>58</v>
       </c>
       <c r="K6" t="n">
-        <v>497.0988685899765</v>
+        <v>205.5000888874226</v>
       </c>
       <c r="L6" t="n">
-        <v>12.20874360202569</v>
+        <v>11.35510139215551</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8573801220271754</v>
+        <v>0.7187740073768341</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1337579617834395</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5194105469410086</v>
+        <v>0.602391340314213</v>
       </c>
       <c r="S6" t="n">
-        <v>0.806938387633929</v>
+        <v>0.6088890175904212</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>786</v>
+        <v>1583</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="B7" t="n">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="C7" t="n">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="D7" t="n">
-        <v>3.783824794875114</v>
+        <v>3.065433862637344</v>
       </c>
       <c r="E7" t="n">
-        <v>3.235305897804248</v>
+        <v>2.383246553839129</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5485188970708661</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G7" t="n">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H7" t="n">
-        <v>41.09449324858633</v>
+        <v>24.16435715644832</v>
       </c>
       <c r="I7" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K7" t="n">
-        <v>515.8253719783971</v>
+        <v>254.0207834256002</v>
       </c>
       <c r="L7" t="n">
-        <v>16.14671785907311</v>
+        <v>10.98389190395275</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.6769639434671482</v>
+        <v>0.7792713466183776</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.1901408450704225</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1701024869845648</v>
+        <v>0.5268022350150821</v>
       </c>
       <c r="S7" t="n">
-        <v>0.808938456863142</v>
+        <v>0.7312748204681397</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>787</v>
+        <v>1584</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1481</v>
+        <v>628</v>
       </c>
       <c r="B8" t="n">
-        <v>1541</v>
+        <v>662</v>
       </c>
       <c r="C8" t="n">
-        <v>1671</v>
+        <v>707</v>
       </c>
       <c r="D8" t="n">
-        <v>3.226228878599618</v>
+        <v>2.125687113989265</v>
       </c>
       <c r="E8" t="n">
-        <v>2.579018305009325</v>
+        <v>1.44349980519105</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6472105735902925</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G8" t="n">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="H8" t="n">
-        <v>107.2847873778746</v>
+        <v>46.96295750918023</v>
       </c>
       <c r="I8" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
-        <v>417.1154152277294</v>
+        <v>96.46868400877435</v>
       </c>
       <c r="L8" t="n">
-        <v>20.13871301814053</v>
+        <v>7.616643688275715</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8055574740540903</v>
+        <v>0.7649996561567354</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2379194758037236</v>
+        <v>0.2945145110056229</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9102498259242908</v>
+        <v>0.930346254345942</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>788</v>
+        <v>1585</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1671</v>
+        <v>749</v>
       </c>
       <c r="B9" t="n">
-        <v>1735</v>
+        <v>777</v>
       </c>
       <c r="C9" t="n">
-        <v>1848</v>
+        <v>824</v>
       </c>
       <c r="D9" t="n">
-        <v>3.460683437822004</v>
+        <v>1.263313700485445</v>
       </c>
       <c r="E9" t="n">
-        <v>2.813472864231712</v>
+        <v>0.58112639168723</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6472105735902925</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G9" t="n">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="H9" t="n">
-        <v>143.4321332239856</v>
+        <v>33.20411731797469</v>
       </c>
       <c r="I9" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="K9" t="n">
-        <v>393.9193296351811</v>
+        <v>71.81814842660476</v>
       </c>
       <c r="L9" t="n">
-        <v>21.60222142428428</v>
+        <v>4.526635298200945</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7372206388189667</v>
+        <v>0.7271852551864019</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5663716814159292</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1486784995456492</v>
+        <v>0.095107145218757</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9476410944368933</v>
+        <v>0.964600984869015</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>789</v>
+        <v>1586</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1848</v>
+        <v>1548</v>
       </c>
       <c r="B10" t="n">
-        <v>1887</v>
+        <v>1581</v>
       </c>
       <c r="C10" t="n">
-        <v>1968</v>
+        <v>1635</v>
       </c>
       <c r="D10" t="n">
-        <v>2.461449276817545</v>
+        <v>2.671454694569127</v>
       </c>
       <c r="E10" t="n">
-        <v>1.814238703227252</v>
+        <v>1.989267385770912</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6472105735902925</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G10" t="n">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="H10" t="n">
-        <v>43.34119643313625</v>
+        <v>49.91690813043056</v>
       </c>
       <c r="I10" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J10" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="K10" t="n">
-        <v>199.2217517644113</v>
+        <v>168.2048962311488</v>
       </c>
       <c r="L10" t="n">
-        <v>15.36481832499581</v>
+        <v>9.57220768945548</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7932786965956816</v>
+        <v>0.7728352296240074</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1078105530167297</v>
+        <v>0.6711119313534148</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9938738296827806</v>
+        <v>0.789769795747072</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>790</v>
+        <v>1587</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2298</v>
+        <v>1635</v>
       </c>
       <c r="B11" t="n">
-        <v>2335</v>
+        <v>1668</v>
       </c>
       <c r="C11" t="n">
-        <v>2426</v>
+        <v>1754</v>
       </c>
       <c r="D11" t="n">
-        <v>1.463961996410396</v>
+        <v>3.586521829046637</v>
       </c>
       <c r="E11" t="n">
-        <v>0.816751422820103</v>
+        <v>2.904334520248422</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6472105735902925</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G11" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H11" t="n">
-        <v>52.76466840130934</v>
+        <v>170.1104511348392</v>
       </c>
       <c r="I11" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J11" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K11" t="n">
-        <v>79.77713575953761</v>
+        <v>279.5446491823546</v>
       </c>
       <c r="L11" t="n">
-        <v>9.138319575135096</v>
+        <v>12.85102528603328</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.9131820431657881</v>
+        <v>0.8025950080477149</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4065934065934066</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3910053774350748</v>
+        <v>0.1506144559117659</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9393255740260223</v>
+        <v>0.9902860444058211</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>791</v>
+        <v>1588</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,73 +1417,73 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2551</v>
+        <v>1851</v>
       </c>
       <c r="B12" t="n">
-        <v>2585</v>
+        <v>1876</v>
       </c>
       <c r="C12" t="n">
-        <v>2694</v>
+        <v>1979</v>
       </c>
       <c r="D12" t="n">
-        <v>1.219964081848363</v>
+        <v>1.361602035186237</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5727535082580708</v>
+        <v>0.6794147263880224</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6472105735902925</v>
+        <v>-0.6821873087982151</v>
       </c>
       <c r="G12" t="n">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>42.85658139061297</v>
+        <v>21.96275928972841</v>
       </c>
       <c r="I12" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K12" t="n">
-        <v>116.2355559317697</v>
+        <v>82.21314832742166</v>
       </c>
       <c r="L12" t="n">
-        <v>7.615239792735269</v>
+        <v>4.878816585467149</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2661), 'value': np.float64(0.2834175821896296), 'amplitude': np.float64(0.9306281557799221), 'start_idx': np.int64(2635), 'end_idx': np.int64(2693), 'duration': np.float64(58.0), 'fwhm': np.float64(27.159772776411955), 'rise_time': np.float64(26.0), 'decay_time': np.float64(32.0), 'auc': np.float64(42.36186903517695)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7882630357260897</v>
+        <v>0.8536131047979419</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3119266055045872</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2370858491782466</v>
+        <v>0.4004879565031293</v>
       </c>
       <c r="S12" t="n">
-        <v>0.298362723610082</v>
+        <v>0.8993198595884886</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>792</v>
+        <v>1589</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2694</v>
+        <v>227</v>
       </c>
       <c r="B13" t="n">
-        <v>2742</v>
+        <v>259</v>
       </c>
       <c r="C13" t="n">
-        <v>2998</v>
+        <v>299</v>
       </c>
       <c r="D13" t="n">
-        <v>3.509318333083038</v>
+        <v>1.479924642774546</v>
       </c>
       <c r="E13" t="n">
-        <v>2.862107759492746</v>
+        <v>0.9097816386463948</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6472105735902925</v>
+        <v>-0.5701430041281517</v>
       </c>
       <c r="G13" t="n">
-        <v>304</v>
+        <v>72</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1160372426766</v>
+        <v>30.2392612336568</v>
       </c>
       <c r="I13" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J13" t="n">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
-        <v>474.1398161211503</v>
+        <v>75.03068803679534</v>
       </c>
       <c r="L13" t="n">
-        <v>21.90580937020659</v>
+        <v>6.281819421400305</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.9325696419575863</v>
+        <v>0.7974102162667391</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1875</v>
+        <v>0.8</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2832681890538007</v>
+        <v>0.443803254997846</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9203929229248388</v>
+        <v>0.9632982243890703</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>793</v>
+        <v>1590</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1789</v>
+        <v>415</v>
       </c>
       <c r="B14" t="n">
-        <v>1836</v>
+        <v>461</v>
       </c>
       <c r="C14" t="n">
-        <v>1910</v>
+        <v>596</v>
       </c>
       <c r="D14" t="n">
-        <v>2.661170570821474</v>
+        <v>3.825081023257242</v>
       </c>
       <c r="E14" t="n">
-        <v>1.971768928413311</v>
+        <v>3.25493801912909</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6894016424081626</v>
+        <v>-0.5701430041281517</v>
       </c>
       <c r="G14" t="n">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="H14" t="n">
-        <v>41.94617173823644</v>
+        <v>37.35494378485407</v>
       </c>
       <c r="I14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" t="n">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="K14" t="n">
-        <v>202.0790553894161</v>
+        <v>511.0123366748376</v>
       </c>
       <c r="L14" t="n">
-        <v>7.76989943990828</v>
+        <v>16.23627823054476</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8326306996992521</v>
+        <v>0.7689773992211911</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6351351351351351</v>
+        <v>0.3407407407407407</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3924971311689495</v>
+        <v>0.2313591128522273</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9647880905552754</v>
+        <v>0.8300843337653765</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>794</v>
+        <v>1591</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1484</v>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>1534</v>
       </c>
       <c r="C15" t="n">
-        <v>170</v>
+        <v>1670</v>
       </c>
       <c r="D15" t="n">
-        <v>3.379976970036363</v>
+        <v>3.313871531512</v>
       </c>
       <c r="E15" t="n">
-        <v>2.682755171699919</v>
+        <v>2.658262184049904</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6972217983364444</v>
+        <v>-0.6556093474620964</v>
       </c>
       <c r="G15" t="n">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="H15" t="n">
-        <v>41.43425810289805</v>
+        <v>102.8360882124409</v>
       </c>
       <c r="I15" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J15" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K15" t="n">
-        <v>450.2466156242219</v>
+        <v>417.524361117954</v>
       </c>
       <c r="L15" t="n">
-        <v>12.65847222556423</v>
+        <v>20.42114789324691</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8364537553403182</v>
+        <v>0.8688127735983837</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2056737588652482</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="R15" t="n">
-        <v>0.19331313060338</v>
+        <v>0.2003886013909852</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8548736897714855</v>
+        <v>0.8824582711223802</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>795</v>
+        <v>1592</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1833</v>
+        <v>1670</v>
       </c>
       <c r="B16" t="n">
-        <v>1869</v>
+        <v>1736</v>
       </c>
       <c r="C16" t="n">
-        <v>1916</v>
+        <v>1853</v>
       </c>
       <c r="D16" t="n">
-        <v>2.276022341272126</v>
+        <v>3.567834290732038</v>
       </c>
       <c r="E16" t="n">
-        <v>1.727151559059682</v>
+        <v>2.912224943269941</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5488707822124441</v>
+        <v>-0.6556093474620964</v>
       </c>
       <c r="G16" t="n">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="H16" t="n">
-        <v>33.6634208474195</v>
+        <v>143.7722563616692</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J16" t="n">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="K16" t="n">
-        <v>109.4253838511493</v>
+        <v>403.0384559065129</v>
       </c>
       <c r="L16" t="n">
-        <v>6.845215153018263</v>
+        <v>21.9861485325575</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7707035585700602</v>
+        <v>0.7025597502904323</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1712260075376852</v>
+        <v>0.1566141247566804</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9888784260038798</v>
+        <v>0.9355137645139698</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>796</v>
+        <v>1593</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2284</v>
+        <v>1853</v>
       </c>
       <c r="B17" t="n">
-        <v>2318</v>
+        <v>1889</v>
       </c>
       <c r="C17" t="n">
-        <v>2386</v>
+        <v>1975</v>
       </c>
       <c r="D17" t="n">
-        <v>2.860174006458203</v>
+        <v>2.560443185769862</v>
       </c>
       <c r="E17" t="n">
-        <v>2.311303224245759</v>
+        <v>1.904833838307766</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5488707822124441</v>
+        <v>-0.6556093474620964</v>
       </c>
       <c r="G17" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H17" t="n">
-        <v>58.33087798182351</v>
+        <v>40.58043149681134</v>
       </c>
       <c r="I17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K17" t="n">
-        <v>188.2129290284714</v>
+        <v>200.4505286746506</v>
       </c>
       <c r="L17" t="n">
-        <v>8.602071295281629</v>
+        <v>15.77827881125068</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.825153976615385</v>
+        <v>0.8818297544155361</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2185175942398965</v>
+        <v>0.1936043056150903</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8692677643435648</v>
+        <v>0.9887215104800612</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>797</v>
+        <v>1594</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1553</v>
+        <v>2691</v>
       </c>
       <c r="B18" t="n">
-        <v>1593</v>
+        <v>2740</v>
       </c>
       <c r="C18" t="n">
-        <v>1893</v>
+        <v>2846</v>
       </c>
       <c r="D18" t="n">
-        <v>2.942020893871464</v>
+        <v>3.454207489079974</v>
       </c>
       <c r="E18" t="n">
-        <v>2.309027555282116</v>
+        <v>2.798598141617877</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6329933385893485</v>
+        <v>-0.6556093474620964</v>
       </c>
       <c r="G18" t="n">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="H18" t="n">
-        <v>166.0736479721086</v>
+        <v>116.2402008827439</v>
       </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="K18" t="n">
-        <v>523.0819472996167</v>
+        <v>377.0810930174021</v>
       </c>
       <c r="L18" t="n">
-        <v>8.038093028430184</v>
+        <v>21.28594344038401</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.842253742084874</v>
+        <v>0.8264655697351715</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3086402643373435</v>
+        <v>0.3942364117394264</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7492125663169782</v>
+        <v>0.8772199665258845</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>798</v>
+        <v>1595</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2022</v>
+        <v>2846</v>
       </c>
       <c r="B19" t="n">
-        <v>2053</v>
+        <v>2867</v>
       </c>
       <c r="C19" t="n">
-        <v>2139</v>
+        <v>2998</v>
       </c>
       <c r="D19" t="n">
-        <v>2.466540429467289</v>
+        <v>1.71706436599666</v>
       </c>
       <c r="E19" t="n">
-        <v>1.83354709087794</v>
+        <v>1.061455018534563</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6329933385893485</v>
+        <v>-0.6556093474620964</v>
       </c>
       <c r="G19" t="n">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="H19" t="n">
-        <v>41.50601589122152</v>
+        <v>18.41357377302211</v>
       </c>
       <c r="I19" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="K19" t="n">
-        <v>167.5386912372436</v>
+        <v>100.8441134708911</v>
       </c>
       <c r="L19" t="n">
-        <v>6.739000892802092</v>
+        <v>10.58110582344856</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8875834626838304</v>
+        <v>0.7782792996124422</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3604651162790697</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2289070490773222</v>
+        <v>0.6633624872057926</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7394577665898896</v>
+        <v>0.8190783171699658</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>799</v>
+        <v>1596</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="B20" t="n">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="C20" t="n">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="D20" t="n">
-        <v>3.073845934020203</v>
+        <v>2.939662543971956</v>
       </c>
       <c r="E20" t="n">
-        <v>2.521936792452826</v>
+        <v>2.258267873739988</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5519091415673769</v>
+        <v>-0.6813946702319682</v>
       </c>
       <c r="G20" t="n">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="H20" t="n">
-        <v>102.956792078409</v>
+        <v>261.4116656913832</v>
       </c>
       <c r="I20" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="J20" t="n">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="K20" t="n">
-        <v>208.7210610996788</v>
+        <v>455.3547702511748</v>
       </c>
       <c r="L20" t="n">
-        <v>11.67558324535562</v>
+        <v>8.512270482367938</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8951490869555885</v>
+        <v>0.8180328394316799</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.32</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4676633767528683</v>
+        <v>0.2336745851217464</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9593319476706333</v>
+        <v>0.6111287605798748</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>800</v>
+        <v>1597</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>538</v>
+        <v>1795</v>
       </c>
       <c r="B21" t="n">
-        <v>601</v>
+        <v>1838</v>
       </c>
       <c r="C21" t="n">
-        <v>770</v>
+        <v>1916</v>
       </c>
       <c r="D21" t="n">
-        <v>2.23329595172071</v>
+        <v>2.758680947705056</v>
       </c>
       <c r="E21" t="n">
-        <v>1.717160530509877</v>
+        <v>2.077286277473088</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5161354212108329</v>
+        <v>-0.6813946702319682</v>
       </c>
       <c r="G21" t="n">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="H21" t="n">
-        <v>62.06833456373261</v>
+        <v>40.54537405657084</v>
       </c>
       <c r="I21" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J21" t="n">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="K21" t="n">
-        <v>266.5594674514176</v>
+        <v>209.3373294782928</v>
       </c>
       <c r="L21" t="n">
-        <v>8.830523905058406</v>
+        <v>7.988208867570133</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7804601937370299</v>
+        <v>0.8475752996983145</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3727810650887574</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="R21" t="n">
-        <v>0.411643464475156</v>
+        <v>0.3090373675204875</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4740142235193873</v>
+        <v>0.9434109916966782</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>801</v>
+        <v>1598</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,73 +2277,73 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2273</v>
+        <v>1916</v>
       </c>
       <c r="B22" t="n">
-        <v>2306</v>
+        <v>1948</v>
       </c>
       <c r="C22" t="n">
-        <v>2357</v>
+        <v>2269</v>
       </c>
       <c r="D22" t="n">
-        <v>3.189619394948148</v>
+        <v>3.090423704412395</v>
       </c>
       <c r="E22" t="n">
-        <v>2.735297143596604</v>
+        <v>2.409029034180427</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4543222513515439</v>
+        <v>-0.6813946702319682</v>
       </c>
       <c r="G22" t="n">
-        <v>84</v>
+        <v>353</v>
       </c>
       <c r="H22" t="n">
-        <v>35.80654810751594</v>
+        <v>85.69671358798928</v>
       </c>
       <c r="I22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J22" t="n">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="K22" t="n">
-        <v>200.4189128732819</v>
+        <v>361.7823652397507</v>
       </c>
       <c r="L22" t="n">
-        <v>21.35129914197294</v>
+        <v>8.948823915528573</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2191), 'value': np.float64(0.5907362977297098), 'amplitude': np.float64(1.2721309679616781), 'start_idx': np.int64(2166), 'end_idx': np.int64(2226), 'duration': np.float64(60.0), 'fwhm': np.float64(36.141997489161895), 'rise_time': np.float64(25.0), 'decay_time': np.float64(35.0), 'auc': np.float64(52.55029750989921)}]</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7825391307926807</v>
+        <v>0.7220780179593475</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.09968847352024922</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1704273568699012</v>
+        <v>0.5546920798167031</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9487872820804195</v>
+        <v>0.436494034349339</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>802</v>
+        <v>1599</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2033</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>2093</v>
+        <v>34</v>
       </c>
       <c r="C23" t="n">
-        <v>2183</v>
+        <v>120</v>
       </c>
       <c r="D23" t="n">
-        <v>3.32756089246148</v>
+        <v>3.387490405228292</v>
       </c>
       <c r="E23" t="n">
-        <v>2.799729964023075</v>
+        <v>2.704757810449327</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5278309284384053</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G23" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H23" t="n">
-        <v>39.87437762139689</v>
+        <v>36.21679679377062</v>
       </c>
       <c r="I23" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5426135022368</v>
+        <v>349.0024909385019</v>
       </c>
       <c r="L23" t="n">
-        <v>11.59058059374431</v>
+        <v>12.50254047478934</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7816554006861767</v>
+        <v>0.7168210684888903</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3432173820567034</v>
+        <v>0.1167988453810293</v>
       </c>
       <c r="S23" t="n">
-        <v>0.953283522704612</v>
+        <v>0.6696700257763162</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>803</v>
+        <v>1600</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2460</v>
+        <v>120</v>
       </c>
       <c r="B24" t="n">
-        <v>2503</v>
+        <v>141</v>
       </c>
       <c r="C24" t="n">
-        <v>2621</v>
+        <v>176</v>
       </c>
       <c r="D24" t="n">
-        <v>2.064271873682618</v>
+        <v>2.324456634708414</v>
       </c>
       <c r="E24" t="n">
-        <v>1.536440945244212</v>
+        <v>1.641724039929449</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5278309284384053</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G24" t="n">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="H24" t="n">
-        <v>53.39590796841776</v>
+        <v>20.54845578964495</v>
       </c>
       <c r="I24" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J24" t="n">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="K24" t="n">
-        <v>141.3898337751983</v>
+        <v>109.0726701209526</v>
       </c>
       <c r="L24" t="n">
-        <v>7.190284503439758</v>
+        <v>8.579098294265435</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.901083558039354</v>
+        <v>0.7059685653627551</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3644067796610169</v>
+        <v>0.6</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3286495528917862</v>
+        <v>0.05831129021727938</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8588566722359928</v>
+        <v>0.9691315567395065</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>804</v>
+        <v>1601</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,73 +2535,73 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2621</v>
+        <v>222</v>
       </c>
       <c r="B25" t="n">
-        <v>2671</v>
+        <v>258</v>
       </c>
       <c r="C25" t="n">
-        <v>2998</v>
+        <v>378</v>
       </c>
       <c r="D25" t="n">
-        <v>3.234441325271876</v>
+        <v>3.134947093726718</v>
       </c>
       <c r="E25" t="n">
-        <v>2.706610396833471</v>
+        <v>2.452214498947753</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5278309284384053</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G25" t="n">
-        <v>377</v>
+        <v>156</v>
       </c>
       <c r="H25" t="n">
-        <v>103.2826140182756</v>
+        <v>79.74035551195431</v>
       </c>
       <c r="I25" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>327</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>541.0313497662719</v>
+        <v>336.163598515244</v>
       </c>
       <c r="L25" t="n">
-        <v>11.26622594382315</v>
+        <v>11.57045430007648</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2903), 'value': np.float64(1.1642788863331142), 'amplitude': np.float64(1.6921098147715194), 'start_idx': np.int64(2891), 'end_idx': np.int64(2935), 'duration': np.float64(44.0), 'fwhm': np.float64(69.96507762761257), 'rise_time': np.float64(12.0), 'decay_time': np.float64(32.0), 'auc': np.float64(54.70970236551843)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7539533442290762</v>
+        <v>0.8723276437488585</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1529051987767584</v>
+        <v>0.3</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4485104649742317</v>
+        <v>0.1569736891064739</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4086613208044638</v>
+        <v>0.8926182739971089</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>805</v>
+        <v>1602</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2331</v>
+        <v>436</v>
       </c>
       <c r="B26" t="n">
-        <v>2358</v>
+        <v>463</v>
       </c>
       <c r="C26" t="n">
-        <v>2395</v>
+        <v>517</v>
       </c>
       <c r="D26" t="n">
-        <v>1.778049574145992</v>
+        <v>1.622799402729844</v>
       </c>
       <c r="E26" t="n">
-        <v>1.243267123589627</v>
+        <v>0.9400668079508786</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5347824505563648</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G26" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H26" t="n">
-        <v>34.07781962651006</v>
+        <v>38.94418212516973</v>
       </c>
       <c r="I26" t="n">
         <v>27</v>
       </c>
       <c r="J26" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K26" t="n">
-        <v>68.29784295989536</v>
+        <v>82.52499365444201</v>
       </c>
       <c r="L26" t="n">
-        <v>5.723204503539175</v>
+        <v>5.989423670035901</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.6428362935368348</v>
+        <v>0.8648987408822524</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.5</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07518137198254191</v>
+        <v>0.2238651482032091</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9089945452116606</v>
+        <v>0.9742584281794406</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>806</v>
+        <v>1603</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,85 +2707,4127 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2579</v>
+        <v>1171</v>
       </c>
       <c r="B27" t="n">
-        <v>2601</v>
+        <v>1256</v>
       </c>
       <c r="C27" t="n">
-        <v>2638</v>
+        <v>1396</v>
       </c>
       <c r="D27" t="n">
-        <v>2.831495324184463</v>
+        <v>1.580403565771348</v>
       </c>
       <c r="E27" t="n">
-        <v>2.296712873628098</v>
+        <v>0.8976709709923825</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5347824505563648</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G27" t="n">
+        <v>225</v>
+      </c>
+      <c r="H27" t="n">
+        <v>23.61454813085584</v>
+      </c>
+      <c r="I27" t="n">
+        <v>85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>140</v>
+      </c>
+      <c r="K27" t="n">
+        <v>182.4685679991099</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.832949229040269</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0.496614046898315</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.5162779030471452</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.3318038002831204</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>n7</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>1604</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1355</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1471</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.403084310302626</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.911301417198715</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.491782893103911</v>
+      </c>
+      <c r="G28" t="n">
+        <v>116</v>
+      </c>
+      <c r="H28" t="n">
+        <v>40.65329394124342</v>
+      </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>73</v>
+      </c>
+      <c r="K28" t="n">
+        <v>133.5614185715482</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.739420128250011</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0.761081341185187</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.589041095890411</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.3788988529910823</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.5710812183779346</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>n8</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>1605</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1471</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1553</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1664</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.049022018513618</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.557239125409707</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.491782893103911</v>
+      </c>
+      <c r="G29" t="n">
+        <v>193</v>
+      </c>
+      <c r="H29" t="n">
+        <v>75.7522779453484</v>
+      </c>
+      <c r="I29" t="n">
+        <v>82</v>
+      </c>
+      <c r="J29" t="n">
+        <v>111</v>
+      </c>
+      <c r="K29" t="n">
+        <v>219.5887564651581</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.893793432825308</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1521), 'value': np.float64(1.5059698273166466), 'amplitude': np.float64(1.9977527204205576), 'start_idx': np.int64(1513), 'end_idx': np.int64(1539), 'duration': np.float64(26.0), 'fwhm': np.float64(22.23936299137449), 'rise_time': np.float64(8.0), 'decay_time': np.float64(18.0), 'auc': np.float64(44.78945270779928)}]</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0.6086833800268964</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.7387387387387387</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.4247800127396131</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.7734850146465306</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>n8</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>1606</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2076</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.502663295173999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.010880402070088</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.491782893103911</v>
+      </c>
+      <c r="G30" t="n">
+        <v>109</v>
+      </c>
+      <c r="H30" t="n">
+        <v>14.78028004917496</v>
+      </c>
+      <c r="I30" t="n">
+        <v>17</v>
+      </c>
+      <c r="J30" t="n">
+        <v>92</v>
+      </c>
+      <c r="K30" t="n">
+        <v>140.4642417187941</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5.977250165120206</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(2053), 'value': np.float64(1.015314453736898), 'amplitude': np.float64(1.507097346840809), 'start_idx': np.int64(2047), 'end_idx': np.int64(2075), 'duration': np.float64(28.0), 'fwhm': np.float64(22.989375768464242), 'rise_time': np.float64(6.0), 'decay_time': np.float64(22.0), 'auc': np.float64(28.205178668230715)}]</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6970439377185594</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.3674363356600903</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.3802386881098624</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>n8</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>1607</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>255</v>
+      </c>
+      <c r="B31" t="n">
+        <v>284</v>
+      </c>
+      <c r="C31" t="n">
+        <v>380</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.258341234249293</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.834210904668902</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.4241303295803909</v>
+      </c>
+      <c r="G31" t="n">
+        <v>125</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12.19964560501597</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29</v>
+      </c>
+      <c r="J31" t="n">
+        <v>96</v>
+      </c>
+      <c r="K31" t="n">
+        <v>363.5854829014353</v>
+      </c>
+      <c r="L31" t="n">
+        <v>15.77578646775305</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.7190877296816479</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.3418481963584756</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.8890221050424419</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>n9</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>1608</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>74</v>
+      </c>
+      <c r="B32" t="n">
+        <v>96</v>
+      </c>
+      <c r="C32" t="n">
+        <v>212</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.647838413119804</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.074306019552746</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.5735323935670584</v>
+      </c>
+      <c r="G32" t="n">
+        <v>138</v>
+      </c>
+      <c r="H32" t="n">
+        <v>19.76395472587878</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22</v>
+      </c>
+      <c r="J32" t="n">
+        <v>116</v>
+      </c>
+      <c r="K32" t="n">
+        <v>138.8661735935054</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.965820292223112</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.6743505820122855</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.1896551724137931</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.3222549269745065</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.2550204169955226</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>1609</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.523837676346235</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.950305282779176</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.5735323935670584</v>
+      </c>
+      <c r="G33" t="n">
+        <v>85</v>
+      </c>
+      <c r="H33" t="n">
+        <v>34.34524438254903</v>
+      </c>
+      <c r="I33" t="n">
+        <v>28</v>
+      </c>
+      <c r="J33" t="n">
+        <v>57</v>
+      </c>
+      <c r="K33" t="n">
+        <v>115.4738062530465</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.605675561203324</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8925576236815315</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.4912280701754386</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.2276550392459284</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.9860004075717309</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2286</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2319</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2387</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.959437574053979</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.38590518048692</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.5735323935670584</v>
+      </c>
+      <c r="G34" t="n">
+        <v>101</v>
+      </c>
+      <c r="H34" t="n">
+        <v>67.10504223399857</v>
+      </c>
+      <c r="I34" t="n">
+        <v>33</v>
+      </c>
+      <c r="J34" t="n">
+        <v>68</v>
+      </c>
+      <c r="K34" t="n">
+        <v>192.6117965188446</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.918371511306875</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0.7599434891061209</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.4852941176470588</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1712353224920229</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.7880324008160153</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>1611</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2442</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2476</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2554</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.063941601963686</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.490409208396628</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.5735323935670584</v>
+      </c>
+      <c r="G35" t="n">
+        <v>112</v>
+      </c>
+      <c r="H35" t="n">
+        <v>109.5673371391931</v>
+      </c>
+      <c r="I35" t="n">
+        <v>34</v>
+      </c>
+      <c r="J35" t="n">
+        <v>78</v>
+      </c>
+      <c r="K35" t="n">
+        <v>255.4228034081735</v>
+      </c>
+      <c r="L35" t="n">
+        <v>12.24683410264314</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.85007488125932</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.3805302600686474</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.9818780722604469</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>1612</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>542</v>
+      </c>
+      <c r="B36" t="n">
+        <v>574</v>
+      </c>
+      <c r="C36" t="n">
+        <v>639</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.892650563921128</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.366280058207948</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.5263705057131801</v>
+      </c>
+      <c r="G36" t="n">
+        <v>97</v>
+      </c>
+      <c r="H36" t="n">
+        <v>122.0119721144318</v>
+      </c>
+      <c r="I36" t="n">
+        <v>32</v>
+      </c>
+      <c r="J36" t="n">
+        <v>65</v>
+      </c>
+      <c r="K36" t="n">
+        <v>279.4671885957063</v>
+      </c>
+      <c r="L36" t="n">
+        <v>19.41616941410477</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7203276645097118</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1199042019143856</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.9339804336391723</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1613</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>812</v>
+      </c>
+      <c r="B37" t="n">
+        <v>840</v>
+      </c>
+      <c r="C37" t="n">
+        <v>902</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.67036806415077</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.14399755843759</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.5263705057131801</v>
+      </c>
+      <c r="G37" t="n">
+        <v>90</v>
+      </c>
+      <c r="H37" t="n">
+        <v>52.0851671450838</v>
+      </c>
+      <c r="I37" t="n">
+        <v>28</v>
+      </c>
+      <c r="J37" t="n">
+        <v>62</v>
+      </c>
+      <c r="K37" t="n">
+        <v>257.2772381463366</v>
+      </c>
+      <c r="L37" t="n">
+        <v>18.30744552469803</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7119428110351437</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.09145217412174672</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.8004222124834017</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>1614</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>902</v>
+      </c>
+      <c r="B38" t="n">
+        <v>914</v>
+      </c>
+      <c r="C38" t="n">
+        <v>938</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.83906528308339</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.31269477737021</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.5263705057131801</v>
+      </c>
+      <c r="G38" t="n">
+        <v>36</v>
+      </c>
+      <c r="H38" t="n">
+        <v>17.35269768217586</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>24</v>
+      </c>
+      <c r="K38" t="n">
+        <v>57.88133712682564</v>
+      </c>
+      <c r="L38" t="n">
+        <v>9.17308207186643</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7134287141299774</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.06622600251165452</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.9223925378018161</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>1615</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1148</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1253</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.209468042400285</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.571797328661024</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.6376707137392609</v>
+      </c>
+      <c r="G39" t="n">
+        <v>129</v>
+      </c>
+      <c r="H39" t="n">
+        <v>38.07157587583265</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24</v>
+      </c>
+      <c r="J39" t="n">
+        <v>105</v>
+      </c>
+      <c r="K39" t="n">
+        <v>106.4811950412531</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.979856194193678</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8488278827802238</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5904083788659132</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.629753445054074</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1616</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1342</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1443</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.057398101415031</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.41972738767577</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.6376707137392609</v>
+      </c>
+      <c r="G40" t="n">
+        <v>101</v>
+      </c>
+      <c r="H40" t="n">
+        <v>54.09007415604538</v>
+      </c>
+      <c r="I40" t="n">
+        <v>28</v>
+      </c>
+      <c r="J40" t="n">
+        <v>73</v>
+      </c>
+      <c r="K40" t="n">
+        <v>179.6069591081969</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.274752394698996</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8379753615425878</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.1580960916951803</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.9386926558975114</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>1617</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1443</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1474</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1554</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.303031955145058</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.665361241405797</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.6376707137392609</v>
+      </c>
+      <c r="G41" t="n">
+        <v>111</v>
+      </c>
+      <c r="H41" t="n">
+        <v>39.24895831580307</v>
+      </c>
+      <c r="I41" t="n">
+        <v>31</v>
+      </c>
+      <c r="J41" t="n">
+        <v>80</v>
+      </c>
+      <c r="K41" t="n">
+        <v>147.1148270289102</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.233083999458517</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8646475631774707</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2904873586504881</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.6946738918414581</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1618</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1554</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1587</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1744</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.186742915472643</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.549072201733382</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.6376707137392609</v>
+      </c>
+      <c r="G42" t="n">
+        <v>190</v>
+      </c>
+      <c r="H42" t="n">
+        <v>157.8099769586447</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33</v>
+      </c>
+      <c r="J42" t="n">
+        <v>157</v>
+      </c>
+      <c r="K42" t="n">
+        <v>358.4133520442783</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.624820090943647</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8553336372869262</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.2101910828025478</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.4549530883325994</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.8051618827159222</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1619</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2099</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2147</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.691822603378259</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.054151889638998</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.6376707137392609</v>
+      </c>
+      <c r="G43" t="n">
+        <v>69</v>
+      </c>
+      <c r="H43" t="n">
+        <v>16.64965413447271</v>
+      </c>
+      <c r="I43" t="n">
+        <v>21</v>
+      </c>
+      <c r="J43" t="n">
+        <v>48</v>
+      </c>
+      <c r="K43" t="n">
+        <v>67.37953088841493</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.5788649938099</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8423718390432904</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.3494928266683455</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9453019691719923</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1620</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>435</v>
+      </c>
+      <c r="B44" t="n">
+        <v>466</v>
+      </c>
+      <c r="C44" t="n">
+        <v>513</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.509108112391998</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.972279407642962</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5368287047490357</v>
+      </c>
+      <c r="G44" t="n">
+        <v>78</v>
+      </c>
+      <c r="H44" t="n">
+        <v>41.85202763770076</v>
+      </c>
+      <c r="I44" t="n">
+        <v>31</v>
+      </c>
+      <c r="J44" t="n">
+        <v>47</v>
+      </c>
+      <c r="K44" t="n">
+        <v>148.8047064002711</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.887583554646186</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7116304172472246</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.1547835070914456</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.8177177481992517</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1621</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1689</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1706</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1765</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.216464669474953</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.711665678596882</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.5047989908780709</v>
+      </c>
+      <c r="G45" t="n">
+        <v>76</v>
+      </c>
+      <c r="H45" t="n">
+        <v>14.8972164751649</v>
+      </c>
+      <c r="I45" t="n">
+        <v>17</v>
+      </c>
+      <c r="J45" t="n">
         <v>59</v>
       </c>
-      <c r="H27" t="n">
-        <v>27.38089332017535</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="K45" t="n">
+        <v>124.7777883698248</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6.812237468071915</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8319165608829791</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.2232599189873385</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.6782738149521836</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1622</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1121</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1149</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.235379400143386</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.792485284532181</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.442894115611206</v>
+      </c>
+      <c r="G46" t="n">
+        <v>47</v>
+      </c>
+      <c r="H46" t="n">
+        <v>22.88093644764604</v>
+      </c>
+      <c r="I46" t="n">
+        <v>19</v>
+      </c>
+      <c r="J46" t="n">
+        <v>28</v>
+      </c>
+      <c r="K46" t="n">
+        <v>102.0251758393748</v>
+      </c>
+      <c r="L46" t="n">
+        <v>8.882750106231011</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8035291496946864</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.2395615729976662</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9473157841401028</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1623</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1294</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.498669293580539</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.055775177969334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.442894115611206</v>
+      </c>
+      <c r="G47" t="n">
+        <v>98</v>
+      </c>
+      <c r="H47" t="n">
+        <v>31.55591449512963</v>
+      </c>
+      <c r="I47" t="n">
+        <v>29</v>
+      </c>
+      <c r="J47" t="n">
+        <v>69</v>
+      </c>
+      <c r="K47" t="n">
+        <v>184.1844516520535</v>
+      </c>
+      <c r="L47" t="n">
+        <v>9.605613807716772</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7801349941306955</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.4202898550724637</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.407582421311755</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.8703190939226495</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1624</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1254</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.365443284267479</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.899830073597338</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.4656132106701414</v>
+      </c>
+      <c r="G48" t="n">
+        <v>123</v>
+      </c>
+      <c r="H48" t="n">
+        <v>83.12909331095557</v>
+      </c>
+      <c r="I48" t="n">
+        <v>28</v>
+      </c>
+      <c r="J48" t="n">
+        <v>95</v>
+      </c>
+      <c r="K48" t="n">
+        <v>312.4027521620425</v>
+      </c>
+      <c r="L48" t="n">
+        <v>17.97511610623974</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8945502987710549</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.2947368421052631</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.19434762578328</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9170887774099538</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1625</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.458490322902049</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.856258858413004</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.6022314644890453</v>
+      </c>
+      <c r="G49" t="n">
+        <v>82</v>
+      </c>
+      <c r="H49" t="n">
+        <v>106.0396535616742</v>
+      </c>
+      <c r="I49" t="n">
+        <v>30</v>
+      </c>
+      <c r="J49" t="n">
+        <v>52</v>
+      </c>
+      <c r="K49" t="n">
+        <v>256.1273992735316</v>
+      </c>
+      <c r="L49" t="n">
+        <v>14.06474549652267</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.5922954264759135</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.04626368274387134</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.7884940256896212</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1626</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1695</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1721</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1773</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.288015803188451</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.892230241673345</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.3957855615151062</v>
+      </c>
+      <c r="G50" t="n">
+        <v>78</v>
+      </c>
+      <c r="H50" t="n">
+        <v>57.88713160842804</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26</v>
+      </c>
+      <c r="J50" t="n">
+        <v>52</v>
+      </c>
+      <c r="K50" t="n">
+        <v>103.3344245863242</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.659967384959074</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8041969804465374</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.3451311296851756</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.8380521326292854</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1627</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>408</v>
+      </c>
+      <c r="B51" t="n">
+        <v>434</v>
+      </c>
+      <c r="C51" t="n">
+        <v>537</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.358495193590307</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.79028193696322</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.5682132566270868</v>
+      </c>
+      <c r="G51" t="n">
+        <v>129</v>
+      </c>
+      <c r="H51" t="n">
+        <v>25.78851374427734</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26</v>
+      </c>
+      <c r="J51" t="n">
+        <v>103</v>
+      </c>
+      <c r="K51" t="n">
+        <v>201.137448652236</v>
+      </c>
+      <c r="L51" t="n">
+        <v>12.25150814104687</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8649352278067201</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.2524271844660194</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.5243463872701345</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.8674832084557216</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1628</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1886</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.016800454782514</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.448587198155427</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.5682132566270868</v>
+      </c>
+      <c r="G52" t="n">
+        <v>113</v>
+      </c>
+      <c r="H52" t="n">
+        <v>138.8915344624638</v>
+      </c>
+      <c r="I52" t="n">
+        <v>34</v>
+      </c>
+      <c r="J52" t="n">
+        <v>79</v>
+      </c>
+      <c r="K52" t="n">
+        <v>155.9224509461534</v>
+      </c>
+      <c r="L52" t="n">
+        <v>7.357118520756522</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.7264168615006029</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.4303797468354431</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.1384907295269243</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.7728650091655233</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1629</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>541</v>
+      </c>
+      <c r="B53" t="n">
+        <v>596</v>
+      </c>
+      <c r="C53" t="n">
+        <v>695</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.453450113324513</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.929643775419043</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.5238063379054693</v>
+      </c>
+      <c r="G53" t="n">
+        <v>154</v>
+      </c>
+      <c r="H53" t="n">
+        <v>69.10820388613604</v>
+      </c>
+      <c r="I53" t="n">
+        <v>55</v>
+      </c>
+      <c r="J53" t="n">
+        <v>99</v>
+      </c>
+      <c r="K53" t="n">
+        <v>202.0803797421484</v>
+      </c>
+      <c r="L53" t="n">
+        <v>9.137021844666936</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.7765272439580769</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.2482900546773558</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.7922500405015855</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1630</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>695</v>
+      </c>
+      <c r="B54" t="n">
+        <v>724</v>
+      </c>
+      <c r="C54" t="n">
+        <v>777</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.176768295069884</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.6529619571644145</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.5238063379054693</v>
+      </c>
+      <c r="G54" t="n">
+        <v>82</v>
+      </c>
+      <c r="H54" t="n">
+        <v>33.06796647037311</v>
+      </c>
+      <c r="I54" t="n">
+        <v>29</v>
+      </c>
+      <c r="J54" t="n">
+        <v>53</v>
+      </c>
+      <c r="K54" t="n">
+        <v>70.33210891082319</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.382464334518478</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.736693017112917</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.5471698113207547</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.1739113264134698</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.5549205934817978</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1631</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>777</v>
+      </c>
+      <c r="B55" t="n">
+        <v>804</v>
+      </c>
+      <c r="C55" t="n">
+        <v>852</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.623807022106642</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.100000684201172</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.5238063379054693</v>
+      </c>
+      <c r="G55" t="n">
+        <v>75</v>
+      </c>
+      <c r="H55" t="n">
+        <v>19.18454105129604</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>48</v>
+      </c>
+      <c r="K55" t="n">
+        <v>90.64725935180297</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6.047304631112964</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.743718557063393</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.3863702227455731</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.6683177623227736</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1632</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2271</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2362</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.325268040722614</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.854675425500283</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.4705926152223304</v>
+      </c>
+      <c r="G56" t="n">
+        <v>91</v>
+      </c>
+      <c r="H56" t="n">
+        <v>39.77421862435676</v>
+      </c>
+      <c r="I56" t="n">
+        <v>29</v>
+      </c>
+      <c r="J56" t="n">
+        <v>62</v>
+      </c>
+      <c r="K56" t="n">
+        <v>213.5698422557777</v>
+      </c>
+      <c r="L56" t="n">
+        <v>21.29795933980454</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.7963897663088647</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.4677419354838709</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.1241989878012205</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9541625801300148</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1633</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2362</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2391</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.737250622882307</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.266658007659976</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.4705926152223304</v>
+      </c>
+      <c r="G57" t="n">
+        <v>137</v>
+      </c>
+      <c r="H57" t="n">
+        <v>34.71088612844051</v>
+      </c>
+      <c r="I57" t="n">
+        <v>29</v>
+      </c>
+      <c r="J57" t="n">
+        <v>108</v>
+      </c>
+      <c r="K57" t="n">
+        <v>262.9002912940071</v>
+      </c>
+      <c r="L57" t="n">
+        <v>23.93666039370156</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.9056455595352697</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.2685185185185185</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.2137132473753202</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.9155625960572978</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1634</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2748</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2767</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2798</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.627564489375928</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.126979262145471</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.500585227230457</v>
+      </c>
+      <c r="G58" t="n">
+        <v>50</v>
+      </c>
+      <c r="H58" t="n">
+        <v>15.71514447934396</v>
+      </c>
+      <c r="I58" t="n">
+        <v>19</v>
+      </c>
+      <c r="J58" t="n">
+        <v>31</v>
+      </c>
+      <c r="K58" t="n">
+        <v>117.1979719639432</v>
+      </c>
+      <c r="L58" t="n">
+        <v>10.44242142869087</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8257856948980551</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.3602559185057533</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.9759584747121894</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1635</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2798</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2880</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.863685885441994</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.363100658211537</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.500585227230457</v>
+      </c>
+      <c r="G59" t="n">
+        <v>82</v>
+      </c>
+      <c r="H59" t="n">
+        <v>53.08315184737239</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>63</v>
+      </c>
+      <c r="K59" t="n">
+        <v>113.254108451288</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5.364864906877576</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8431677118416925</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.156568748103813</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.8452894273879474</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1636</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2254</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2359</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.536175848020631</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.141667469376149</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.3945083786444811</v>
+      </c>
+      <c r="G60" t="n">
+        <v>166</v>
+      </c>
+      <c r="H60" t="n">
+        <v>82.2442496849053</v>
+      </c>
+      <c r="I60" t="n">
+        <v>61</v>
+      </c>
+      <c r="J60" t="n">
+        <v>105</v>
+      </c>
+      <c r="K60" t="n">
+        <v>401.7250210860714</v>
+      </c>
+      <c r="L60" t="n">
+        <v>29.5017174995421</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.735679559795742</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.580952380952381</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.3539665222777896</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9792598900751064</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1637</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2091</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2193</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.683124947161222</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.162398928600501</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5207260185607203</v>
+      </c>
+      <c r="G61" t="n">
+        <v>157</v>
+      </c>
+      <c r="H61" t="n">
+        <v>32.22219809257194</v>
+      </c>
+      <c r="I61" t="n">
+        <v>55</v>
+      </c>
+      <c r="J61" t="n">
+        <v>102</v>
+      </c>
+      <c r="K61" t="n">
+        <v>255.2983457877875</v>
+      </c>
+      <c r="L61" t="n">
+        <v>12.03515898795437</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.6566665763017729</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.5392156862745098</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3498818928994173</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.8050644822151661</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1638</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2462</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2510</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2576</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.017377748643269</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.496651730082549</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.5207260185607203</v>
+      </c>
+      <c r="G62" t="n">
+        <v>114</v>
+      </c>
+      <c r="H62" t="n">
+        <v>51.84231992329433</v>
+      </c>
+      <c r="I62" t="n">
+        <v>48</v>
+      </c>
+      <c r="J62" t="n">
+        <v>66</v>
+      </c>
+      <c r="K62" t="n">
+        <v>126.0283806553718</v>
+      </c>
+      <c r="L62" t="n">
+        <v>6.592082074868693</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.7439201347027747</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.2979474866414841</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.6958067785214479</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1639</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2576</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2672</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2836</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.109780192827931</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.589054174267211</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5207260185607203</v>
+      </c>
+      <c r="G63" t="n">
+        <v>260</v>
+      </c>
+      <c r="H63" t="n">
+        <v>104.2960125110235</v>
+      </c>
+      <c r="I63" t="n">
+        <v>96</v>
+      </c>
+      <c r="J63" t="n">
+        <v>164</v>
+      </c>
+      <c r="K63" t="n">
+        <v>376.3735210812119</v>
+      </c>
+      <c r="L63" t="n">
+        <v>10.16166966236708</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.6835852747918811</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.5853658536585366</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.6633897058592002</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.9469837382607582</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1640</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2065</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2092</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2129</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.024453544187844</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.5741602436632</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4502933005246437</v>
+      </c>
+      <c r="G64" t="n">
+        <v>64</v>
+      </c>
+      <c r="H64" t="n">
+        <v>25.54039858461738</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="n">
         <v>37</v>
       </c>
-      <c r="K27" t="n">
-        <v>126.5661281704465</v>
-      </c>
-      <c r="L27" t="n">
-        <v>9.114046664815913</v>
-      </c>
-      <c r="M27" t="inlineStr">
+      <c r="K64" t="n">
+        <v>103.0842713846724</v>
+      </c>
+      <c r="L64" t="n">
+        <v>10.35537906645225</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>0.7901164529775481</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.5945945945945946</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.1676418460240822</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.9746010320009271</v>
-      </c>
-      <c r="T27" t="inlineStr">
+      <c r="P64" t="n">
+        <v>0.8255347909910605</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.2242314828404958</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9891484780908142</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1641</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2631</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2691</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2766</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.876461111367161</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.426167810842517</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.4502933005246437</v>
+      </c>
+      <c r="G65" t="n">
+        <v>135</v>
+      </c>
+      <c r="H65" t="n">
+        <v>112.941383823696</v>
+      </c>
+      <c r="I65" t="n">
+        <v>60</v>
+      </c>
+      <c r="J65" t="n">
+        <v>75</v>
+      </c>
+      <c r="K65" t="n">
+        <v>237.6103724340774</v>
+      </c>
+      <c r="L65" t="n">
+        <v>9.848670096241847</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.698968652260745</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.2608874930617854</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.7527111302402074</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1642</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2401</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2476</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2571</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.427337025390122</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.886972229500205</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.5403647958899167</v>
+      </c>
+      <c r="G66" t="n">
+        <v>170</v>
+      </c>
+      <c r="H66" t="n">
+        <v>155.2986889042172</v>
+      </c>
+      <c r="I66" t="n">
+        <v>75</v>
+      </c>
+      <c r="J66" t="n">
+        <v>95</v>
+      </c>
+      <c r="K66" t="n">
+        <v>418.7106007129643</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.725824298461395</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.534911848482011</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.09851434684311233</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.9671350335795137</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1643</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>597</v>
+      </c>
+      <c r="B67" t="n">
+        <v>626</v>
+      </c>
+      <c r="C67" t="n">
+        <v>674</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.63467400453036</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.100882199974323</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.5337918045560377</v>
+      </c>
+      <c r="G67" t="n">
+        <v>77</v>
+      </c>
+      <c r="H67" t="n">
+        <v>109.9540820817098</v>
+      </c>
+      <c r="I67" t="n">
+        <v>29</v>
+      </c>
+      <c r="J67" t="n">
+        <v>48</v>
+      </c>
+      <c r="K67" t="n">
+        <v>128.8593040933869</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5.978733904304915</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.7029556527788919</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.264126545868548</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.9390916192221588</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1644</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2111</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.626124647223469</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.092332842667431</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.5337918045560377</v>
+      </c>
+      <c r="G68" t="n">
+        <v>216</v>
+      </c>
+      <c r="H68" t="n">
+        <v>31.27631969619119</v>
+      </c>
+      <c r="I68" t="n">
+        <v>52</v>
+      </c>
+      <c r="J68" t="n">
+        <v>164</v>
+      </c>
+      <c r="K68" t="n">
+        <v>236.9662991348128</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5.959333275497389</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(2029), 'value': np.float64(1.142276443299782), 'amplitude': np.float64(1.6760682478558198), 'start_idx': np.int64(1999), 'end_idx': np.int64(2038), 'duration': np.float64(39.0), 'fwhm': np.float64(51.83897973339526), 'rise_time': np.float64(30.0), 'decay_time': np.float64(9.0), 'auc': np.float64(47.68174056484277)}]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.6340001381896134</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.3170731707317073</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.5068665798579021</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.3062520778413921</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1645</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1523</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1543</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1568</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.347039749548971</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7966911465224484</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.5503486030265229</v>
+      </c>
+      <c r="G69" t="n">
+        <v>45</v>
+      </c>
+      <c r="H69" t="n">
+        <v>19.28274664045739</v>
+      </c>
+      <c r="I69" t="n">
+        <v>20</v>
+      </c>
+      <c r="J69" t="n">
+        <v>25</v>
+      </c>
+      <c r="K69" t="n">
+        <v>30.88298481794355</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4.203087859972732</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.8000140601414312</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.2962719848581348</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9875172173409916</v>
+      </c>
+      <c r="T69" t="inlineStr">
         <is>
           <t>n34</t>
         </is>
       </c>
-      <c r="U27" t="n">
-        <v>807</v>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
+      <c r="U69" t="n">
+        <v>1646</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1761</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1789</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1887</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.224510097638182</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.674161494611659</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5503486030265229</v>
+      </c>
+      <c r="G70" t="n">
+        <v>126</v>
+      </c>
+      <c r="H70" t="n">
+        <v>33.89212289801458</v>
+      </c>
+      <c r="I70" t="n">
+        <v>28</v>
+      </c>
+      <c r="J70" t="n">
+        <v>98</v>
+      </c>
+      <c r="K70" t="n">
+        <v>178.382892314398</v>
+      </c>
+      <c r="L70" t="n">
+        <v>6.941006298366765</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.8190437849297558</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.3877163736045113</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.8864772055911495</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1647</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2530</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2547</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2573</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.280035175731883</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.72968657270536</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.5503486030265229</v>
+      </c>
+      <c r="G71" t="n">
+        <v>43</v>
+      </c>
+      <c r="H71" t="n">
+        <v>22.06573515811169</v>
+      </c>
+      <c r="I71" t="n">
+        <v>17</v>
+      </c>
+      <c r="J71" t="n">
+        <v>26</v>
+      </c>
+      <c r="K71" t="n">
+        <v>110.4398774416964</v>
+      </c>
+      <c r="L71" t="n">
+        <v>10.23449830045346</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.6717162826405985</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.08773269399291353</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.8887385892221683</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1648</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2573</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2597</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2643</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.902669907442327</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.352321304415804</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.5503486030265229</v>
+      </c>
+      <c r="G72" t="n">
+        <v>70</v>
+      </c>
+      <c r="H72" t="n">
+        <v>34.52601191723443</v>
+      </c>
+      <c r="I72" t="n">
+        <v>24</v>
+      </c>
+      <c r="J72" t="n">
+        <v>46</v>
+      </c>
+      <c r="K72" t="n">
+        <v>144.7362732282568</v>
+      </c>
+      <c r="L72" t="n">
+        <v>9.05702794113091</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.7588800878325651</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.1162528962336723</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9677284542294881</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1649</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>787</v>
+      </c>
+      <c r="B73" t="n">
+        <v>803</v>
+      </c>
+      <c r="C73" t="n">
+        <v>852</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9647047997317155</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.4668191548576527</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.4978856448740628</v>
+      </c>
+      <c r="G73" t="n">
+        <v>65</v>
+      </c>
+      <c r="H73" t="n">
+        <v>11.36529475249279</v>
+      </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>49</v>
+      </c>
+      <c r="K73" t="n">
+        <v>37.12256324021772</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.468658501472524</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.8298782952528271</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.3265306122448979</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.3748492318527384</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.8065029237852871</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>1650</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2127</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2139</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2168</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.395460853335263</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.8975752084612</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.4978856448740628</v>
+      </c>
+      <c r="G74" t="n">
+        <v>41</v>
+      </c>
+      <c r="H74" t="n">
+        <v>11.22893046730906</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>29</v>
+      </c>
+      <c r="K74" t="n">
+        <v>74.99010826688102</v>
+      </c>
+      <c r="L74" t="n">
+        <v>13.57923933225958</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.7527293758036644</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.1135211846128962</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.8564208527496445</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1651</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social32024-12-07121733trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social32024-12-07121733trace/processed_No.2979240926social32024-12-07121733trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social32024-12-07121733trace/processed_No.2979240926social32024-12-07121733trace_transients.xlsx
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1579</v>
+        <v>1651</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1580</v>
+        <v>1652</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1581</v>
+        <v>1653</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1582</v>
+        <v>1654</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1583</v>
+        <v>1655</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1584</v>
+        <v>1656</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1585</v>
+        <v>1657</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1586</v>
+        <v>1658</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1587</v>
+        <v>1659</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1588</v>
+        <v>1660</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1589</v>
+        <v>1661</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1590</v>
+        <v>1662</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1591</v>
+        <v>1663</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1592</v>
+        <v>1664</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1593</v>
+        <v>1665</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1594</v>
+        <v>1666</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1595</v>
+        <v>1667</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1596</v>
+        <v>1668</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="B20" t="n">
-        <v>398</v>
+        <v>173</v>
       </c>
       <c r="C20" t="n">
-        <v>573</v>
+        <v>253</v>
       </c>
       <c r="D20" t="n">
-        <v>2.939662543971956</v>
+        <v>2.834777434520686</v>
       </c>
       <c r="E20" t="n">
-        <v>2.258267873739988</v>
+        <v>2.153382764288718</v>
       </c>
       <c r="F20" t="n">
         <v>-0.6813946702319682</v>
       </c>
       <c r="G20" t="n">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="H20" t="n">
-        <v>261.4116656913832</v>
+        <v>117.6661305545297</v>
       </c>
       <c r="I20" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>455.3547702511748</v>
+        <v>216.809668620154</v>
       </c>
       <c r="L20" t="n">
-        <v>8.512270482367938</v>
+        <v>8.208558608005774</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,16 +2154,16 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8180328394316799</v>
+        <v>0.8774645635669642</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2336745851217464</v>
+        <v>0.299650598168389</v>
       </c>
       <c r="S20" t="n">
-        <v>0.6111287605798748</v>
+        <v>0.9453734313354218</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1597</v>
+        <v>1669</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1795</v>
+        <v>443</v>
       </c>
       <c r="B21" t="n">
-        <v>1838</v>
+        <v>465</v>
       </c>
       <c r="C21" t="n">
-        <v>1916</v>
+        <v>573</v>
       </c>
       <c r="D21" t="n">
-        <v>2.758680947705056</v>
+        <v>2.177966746033379</v>
       </c>
       <c r="E21" t="n">
-        <v>2.077286277473088</v>
+        <v>1.496572075801411</v>
       </c>
       <c r="F21" t="n">
         <v>-0.6813946702319682</v>
       </c>
       <c r="G21" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H21" t="n">
-        <v>40.54537405657084</v>
+        <v>58.09450144083263</v>
       </c>
       <c r="I21" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J21" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="K21" t="n">
-        <v>209.3373294782928</v>
+        <v>216.5894351612833</v>
       </c>
       <c r="L21" t="n">
-        <v>7.988208867570133</v>
+        <v>6.306656552077953</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,16 +2240,16 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8475752996983145</v>
+        <v>0.8595788385798874</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5512820512820513</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3090373675204875</v>
+        <v>0.1871345800081002</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9434109916966782</v>
+        <v>0.7755460403014668</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1598</v>
+        <v>1670</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,65 +2277,65 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>1795</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1838</v>
+      </c>
+      <c r="C22" t="n">
         <v>1916</v>
       </c>
-      <c r="B22" t="n">
-        <v>1948</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2269</v>
-      </c>
       <c r="D22" t="n">
-        <v>3.090423704412395</v>
+        <v>2.758680947705056</v>
       </c>
       <c r="E22" t="n">
-        <v>2.409029034180427</v>
+        <v>2.077286277473088</v>
       </c>
       <c r="F22" t="n">
         <v>-0.6813946702319682</v>
       </c>
       <c r="G22" t="n">
-        <v>353</v>
+        <v>121</v>
       </c>
       <c r="H22" t="n">
-        <v>85.69671358798928</v>
+        <v>40.54537405657084</v>
       </c>
       <c r="I22" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J22" t="n">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="K22" t="n">
-        <v>361.7823652397507</v>
+        <v>209.3373294782928</v>
       </c>
       <c r="L22" t="n">
-        <v>8.948823915528573</v>
+        <v>7.988208867570133</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2191), 'value': np.float64(0.5907362977297098), 'amplitude': np.float64(1.2721309679616781), 'start_idx': np.int64(2166), 'end_idx': np.int64(2226), 'duration': np.float64(60.0), 'fwhm': np.float64(36.141997489161895), 'rise_time': np.float64(25.0), 'decay_time': np.float64(35.0), 'auc': np.float64(52.55029750989921)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7220780179593475</v>
+        <v>0.8475752996983145</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.09968847352024922</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5546920798167031</v>
+        <v>0.3090373675204875</v>
       </c>
       <c r="S22" t="n">
-        <v>0.436494034349339</v>
+        <v>0.9434109916966782</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1599</v>
+        <v>1671</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,73 +2363,73 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1916</v>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>1948</v>
       </c>
       <c r="C23" t="n">
-        <v>120</v>
+        <v>2269</v>
       </c>
       <c r="D23" t="n">
-        <v>3.387490405228292</v>
+        <v>3.090423704412395</v>
       </c>
       <c r="E23" t="n">
-        <v>2.704757810449327</v>
+        <v>2.409029034180427</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6827325947789653</v>
+        <v>-0.6813946702319682</v>
       </c>
       <c r="G23" t="n">
-        <v>120</v>
+        <v>353</v>
       </c>
       <c r="H23" t="n">
-        <v>36.21679679377062</v>
+        <v>85.69671358798928</v>
       </c>
       <c r="I23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J23" t="n">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="K23" t="n">
-        <v>349.0024909385019</v>
+        <v>361.7823652397507</v>
       </c>
       <c r="L23" t="n">
-        <v>12.50254047478934</v>
+        <v>8.948823915528573</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2191), 'value': np.float64(0.5907362977297098), 'amplitude': np.float64(1.2721309679616781), 'start_idx': np.int64(2166), 'end_idx': np.int64(2226), 'duration': np.float64(60.0), 'fwhm': np.float64(36.141997489161895), 'rise_time': np.float64(25.0), 'decay_time': np.float64(35.0), 'auc': np.float64(52.55029750989921)}]</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7168210684888903</v>
+        <v>0.7220780179593475</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.09968847352024922</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1167988453810293</v>
+        <v>0.5546920798167031</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6696700257763162</v>
+        <v>0.436494034349339</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1600</v>
+        <v>1672</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>34</v>
+      </c>
+      <c r="C24" t="n">
         <v>120</v>
       </c>
-      <c r="B24" t="n">
-        <v>141</v>
-      </c>
-      <c r="C24" t="n">
-        <v>176</v>
-      </c>
       <c r="D24" t="n">
-        <v>2.324456634708414</v>
+        <v>3.387490405228292</v>
       </c>
       <c r="E24" t="n">
-        <v>1.641724039929449</v>
+        <v>2.704757810449327</v>
       </c>
       <c r="F24" t="n">
         <v>-0.6827325947789653</v>
       </c>
       <c r="G24" t="n">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="H24" t="n">
-        <v>20.54845578964495</v>
+        <v>36.21679679377062</v>
       </c>
       <c r="I24" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J24" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="K24" t="n">
-        <v>109.0726701209526</v>
+        <v>349.0024909385019</v>
       </c>
       <c r="L24" t="n">
-        <v>8.579098294265435</v>
+        <v>12.50254047478934</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,16 +2498,16 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7059685653627551</v>
+        <v>0.7168210684888903</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="R24" t="n">
-        <v>0.05831129021727938</v>
+        <v>0.1167988453810293</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9691315567395065</v>
+        <v>0.6696700257763162</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1601</v>
+        <v>1673</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="C25" t="n">
-        <v>378</v>
+        <v>176</v>
       </c>
       <c r="D25" t="n">
-        <v>3.134947093726718</v>
+        <v>2.324456634708414</v>
       </c>
       <c r="E25" t="n">
-        <v>2.452214498947753</v>
+        <v>1.641724039929449</v>
       </c>
       <c r="F25" t="n">
         <v>-0.6827325947789653</v>
       </c>
       <c r="G25" t="n">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="H25" t="n">
-        <v>79.74035551195431</v>
+        <v>20.54845578964495</v>
       </c>
       <c r="I25" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="K25" t="n">
-        <v>336.163598515244</v>
+        <v>109.0726701209526</v>
       </c>
       <c r="L25" t="n">
-        <v>11.57045430007648</v>
+        <v>8.579098294265435</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,16 +2584,16 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8723276437488585</v>
+        <v>0.7059685653627551</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1569736891064739</v>
+        <v>0.05831129021727938</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8926182739971089</v>
+        <v>0.9691315567395065</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1602</v>
+        <v>1674</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>436</v>
+        <v>222</v>
       </c>
       <c r="B26" t="n">
-        <v>463</v>
+        <v>258</v>
       </c>
       <c r="C26" t="n">
-        <v>517</v>
+        <v>378</v>
       </c>
       <c r="D26" t="n">
-        <v>1.622799402729844</v>
+        <v>3.134947093726718</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9400668079508786</v>
+        <v>2.452214498947753</v>
       </c>
       <c r="F26" t="n">
         <v>-0.6827325947789653</v>
       </c>
       <c r="G26" t="n">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="H26" t="n">
-        <v>38.94418212516973</v>
+        <v>79.74035551195431</v>
       </c>
       <c r="I26" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>82.52499365444201</v>
+        <v>336.163598515244</v>
       </c>
       <c r="L26" t="n">
-        <v>5.989423670035901</v>
+        <v>11.57045430007648</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,16 +2670,16 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8648987408822524</v>
+        <v>0.8723276437488585</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2238651482032091</v>
+        <v>0.1569736891064739</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9742584281794406</v>
+        <v>0.8926182739971089</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1603</v>
+        <v>1675</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1171</v>
+        <v>436</v>
       </c>
       <c r="B27" t="n">
-        <v>1256</v>
+        <v>463</v>
       </c>
       <c r="C27" t="n">
-        <v>1396</v>
+        <v>517</v>
       </c>
       <c r="D27" t="n">
-        <v>1.580403565771348</v>
+        <v>1.622799402729844</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8976709709923825</v>
+        <v>0.9400668079508786</v>
       </c>
       <c r="F27" t="n">
         <v>-0.6827325947789653</v>
       </c>
       <c r="G27" t="n">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="H27" t="n">
-        <v>23.61454813085584</v>
+        <v>38.94418212516973</v>
       </c>
       <c r="I27" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="J27" t="n">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="K27" t="n">
-        <v>182.4685679991099</v>
+        <v>82.52499365444201</v>
       </c>
       <c r="L27" t="n">
-        <v>5.832949229040269</v>
+        <v>5.989423670035901</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,16 +2756,16 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.496614046898315</v>
+        <v>0.8648987408822524</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="R27" t="n">
-        <v>0.5162779030471452</v>
+        <v>0.2238651482032091</v>
       </c>
       <c r="S27" t="n">
-        <v>0.3318038002831204</v>
+        <v>0.9742584281794406</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1604</v>
+        <v>1676</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1355</v>
+        <v>1171</v>
       </c>
       <c r="B28" t="n">
-        <v>1398</v>
+        <v>1256</v>
       </c>
       <c r="C28" t="n">
-        <v>1471</v>
+        <v>1396</v>
       </c>
       <c r="D28" t="n">
-        <v>2.403084310302626</v>
+        <v>1.580403565771348</v>
       </c>
       <c r="E28" t="n">
-        <v>1.911301417198715</v>
+        <v>0.8976709709923825</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.491782893103911</v>
+        <v>-0.6827325947789653</v>
       </c>
       <c r="G28" t="n">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="H28" t="n">
-        <v>40.65329394124342</v>
+        <v>23.61454813085584</v>
       </c>
       <c r="I28" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="J28" t="n">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>133.5614185715482</v>
+        <v>182.4685679991099</v>
       </c>
       <c r="L28" t="n">
-        <v>5.739420128250011</v>
+        <v>5.832949229040269</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.761081341185187</v>
+        <v>0.496614046898315</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.589041095890411</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3788988529910823</v>
+        <v>0.5162779030471452</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5710812183779346</v>
+        <v>0.3318038002831204</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1605</v>
+        <v>1677</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,65 +2879,65 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>1355</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C29" t="n">
         <v>1471</v>
       </c>
-      <c r="B29" t="n">
-        <v>1553</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1664</v>
-      </c>
       <c r="D29" t="n">
-        <v>2.049022018513618</v>
+        <v>2.403084310302626</v>
       </c>
       <c r="E29" t="n">
-        <v>1.557239125409707</v>
+        <v>1.911301417198715</v>
       </c>
       <c r="F29" t="n">
         <v>-0.491782893103911</v>
       </c>
       <c r="G29" t="n">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="H29" t="n">
-        <v>75.7522779453484</v>
+        <v>40.65329394124342</v>
       </c>
       <c r="I29" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="J29" t="n">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="K29" t="n">
-        <v>219.5887564651581</v>
+        <v>133.5614185715482</v>
       </c>
       <c r="L29" t="n">
-        <v>4.893793432825308</v>
+        <v>5.739420128250011</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1521), 'value': np.float64(1.5059698273166466), 'amplitude': np.float64(1.9977527204205576), 'start_idx': np.int64(1513), 'end_idx': np.int64(1539), 'duration': np.float64(26.0), 'fwhm': np.float64(22.23936299137449), 'rise_time': np.float64(8.0), 'decay_time': np.float64(18.0), 'auc': np.float64(44.78945270779928)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.6086833800268964</v>
+        <v>0.761081341185187</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7387387387387387</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4247800127396131</v>
+        <v>0.3788988529910823</v>
       </c>
       <c r="S29" t="n">
-        <v>0.7734850146465306</v>
+        <v>0.5710812183779346</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1606</v>
+        <v>1678</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,65 +2965,65 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1967</v>
+        <v>1539</v>
       </c>
       <c r="B30" t="n">
-        <v>1984</v>
+        <v>1553</v>
       </c>
       <c r="C30" t="n">
-        <v>2076</v>
+        <v>1664</v>
       </c>
       <c r="D30" t="n">
-        <v>2.502663295173999</v>
+        <v>2.049022018513618</v>
       </c>
       <c r="E30" t="n">
-        <v>2.010880402070088</v>
+        <v>1.557239125409707</v>
       </c>
       <c r="F30" t="n">
         <v>-0.491782893103911</v>
       </c>
       <c r="G30" t="n">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="H30" t="n">
-        <v>14.78028004917496</v>
+        <v>75.7522779453484</v>
       </c>
       <c r="I30" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="K30" t="n">
-        <v>140.4642417187941</v>
+        <v>122.6197379923076</v>
       </c>
       <c r="L30" t="n">
-        <v>5.977250165120206</v>
+        <v>4.893793432825308</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2053), 'value': np.float64(1.015314453736898), 'amplitude': np.float64(1.507097346840809), 'start_idx': np.int64(2047), 'end_idx': np.int64(2075), 'duration': np.float64(28.0), 'fwhm': np.float64(22.989375768464242), 'rise_time': np.float64(6.0), 'decay_time': np.float64(22.0), 'auc': np.float64(28.205178668230715)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.6970439377185594</v>
+        <v>0.8268446283538639</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1847826086956522</v>
+        <v>0.1261261261261261</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3674363356600903</v>
+        <v>0.4362086664283293</v>
       </c>
       <c r="S30" t="n">
-        <v>0.3802386881098624</v>
+        <v>0.7734850146465306</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1607</v>
+        <v>1679</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,73 +3051,73 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>255</v>
+        <v>1967</v>
       </c>
       <c r="B31" t="n">
-        <v>284</v>
+        <v>1984</v>
       </c>
       <c r="C31" t="n">
-        <v>380</v>
+        <v>2076</v>
       </c>
       <c r="D31" t="n">
-        <v>4.258341234249293</v>
+        <v>2.502663295173999</v>
       </c>
       <c r="E31" t="n">
-        <v>3.834210904668902</v>
+        <v>2.010880402070088</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4241303295803909</v>
+        <v>-0.491782893103911</v>
       </c>
       <c r="G31" t="n">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H31" t="n">
-        <v>12.19964560501597</v>
+        <v>14.78028004917496</v>
       </c>
       <c r="I31" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J31" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K31" t="n">
-        <v>363.5854829014353</v>
+        <v>140.4642417187941</v>
       </c>
       <c r="L31" t="n">
-        <v>15.77578646775305</v>
+        <v>5.977250165120206</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2053), 'value': np.float64(1.015314453736898), 'amplitude': np.float64(1.507097346840809), 'start_idx': np.int64(2047), 'end_idx': np.int64(2075), 'duration': np.float64(28.0), 'fwhm': np.float64(22.989375768464242), 'rise_time': np.float64(6.0), 'decay_time': np.float64(22.0), 'auc': np.float64(28.205178668230715)}]</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7190877296816479</v>
+        <v>0.6970439377185594</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3020833333333333</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3418481963584756</v>
+        <v>0.3674363356600903</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8890221050424419</v>
+        <v>0.3802386881098624</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1608</v>
+        <v>1680</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="B32" t="n">
+        <v>284</v>
+      </c>
+      <c r="C32" t="n">
+        <v>380</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.258341234249293</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.834210904668902</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.4241303295803909</v>
+      </c>
+      <c r="G32" t="n">
+        <v>125</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12.19964560501597</v>
+      </c>
+      <c r="I32" t="n">
+        <v>29</v>
+      </c>
+      <c r="J32" t="n">
         <v>96</v>
       </c>
-      <c r="C32" t="n">
-        <v>212</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.647838413119804</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1.074306019552746</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-0.5735323935670584</v>
-      </c>
-      <c r="G32" t="n">
-        <v>138</v>
-      </c>
-      <c r="H32" t="n">
-        <v>19.76395472587878</v>
-      </c>
-      <c r="I32" t="n">
-        <v>22</v>
-      </c>
-      <c r="J32" t="n">
-        <v>116</v>
-      </c>
       <c r="K32" t="n">
-        <v>138.8661735935054</v>
+        <v>363.5854829014353</v>
       </c>
       <c r="L32" t="n">
-        <v>4.965820292223112</v>
+        <v>15.77578646775305</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6743505820122855</v>
+        <v>0.7190877296816479</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.3020833333333333</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3222549269745065</v>
+        <v>0.3418481963584756</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2550204169955226</v>
+        <v>0.8890221050424419</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1609</v>
+        <v>1681</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1837</v>
+        <v>74</v>
       </c>
       <c r="B33" t="n">
-        <v>1865</v>
+        <v>96</v>
       </c>
       <c r="C33" t="n">
-        <v>1922</v>
+        <v>212</v>
       </c>
       <c r="D33" t="n">
-        <v>2.523837676346235</v>
+        <v>1.647838413119804</v>
       </c>
       <c r="E33" t="n">
-        <v>1.950305282779176</v>
+        <v>1.074306019552746</v>
       </c>
       <c r="F33" t="n">
         <v>-0.5735323935670584</v>
       </c>
       <c r="G33" t="n">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="H33" t="n">
-        <v>34.34524438254903</v>
+        <v>19.76395472587878</v>
       </c>
       <c r="I33" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J33" t="n">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="K33" t="n">
-        <v>115.4738062530465</v>
+        <v>138.8661735935054</v>
       </c>
       <c r="L33" t="n">
-        <v>7.605675561203324</v>
+        <v>4.965820292223112</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,16 +3272,16 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8925576236815315</v>
+        <v>0.6743505820122855</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.4912280701754386</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2276550392459284</v>
+        <v>0.3222549269745065</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9860004075717309</v>
+        <v>0.2550204169955226</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1610</v>
+        <v>1682</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2286</v>
+        <v>1837</v>
       </c>
       <c r="B34" t="n">
-        <v>2319</v>
+        <v>1865</v>
       </c>
       <c r="C34" t="n">
-        <v>2387</v>
+        <v>1922</v>
       </c>
       <c r="D34" t="n">
-        <v>2.959437574053979</v>
+        <v>2.523837676346235</v>
       </c>
       <c r="E34" t="n">
-        <v>2.38590518048692</v>
+        <v>1.950305282779176</v>
       </c>
       <c r="F34" t="n">
         <v>-0.5735323935670584</v>
       </c>
       <c r="G34" t="n">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H34" t="n">
-        <v>67.10504223399857</v>
+        <v>34.34524438254903</v>
       </c>
       <c r="I34" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J34" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6117965188446</v>
+        <v>115.4738062530465</v>
       </c>
       <c r="L34" t="n">
-        <v>8.918371511306875</v>
+        <v>7.605675561203324</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,16 +3358,16 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.7599434891061209</v>
+        <v>0.8925576236815315</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4852941176470588</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1712353224920229</v>
+        <v>0.2276550392459284</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7880324008160153</v>
+        <v>0.9860004075717309</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1611</v>
+        <v>1683</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2442</v>
+        <v>2286</v>
       </c>
       <c r="B35" t="n">
-        <v>2476</v>
+        <v>2319</v>
       </c>
       <c r="C35" t="n">
-        <v>2554</v>
+        <v>2387</v>
       </c>
       <c r="D35" t="n">
-        <v>4.063941601963686</v>
+        <v>2.959437574053979</v>
       </c>
       <c r="E35" t="n">
-        <v>3.490409208396628</v>
+        <v>2.38590518048692</v>
       </c>
       <c r="F35" t="n">
         <v>-0.5735323935670584</v>
       </c>
       <c r="G35" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H35" t="n">
-        <v>109.5673371391931</v>
+        <v>67.10504223399857</v>
       </c>
       <c r="I35" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J35" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K35" t="n">
-        <v>255.4228034081735</v>
+        <v>192.6117965188446</v>
       </c>
       <c r="L35" t="n">
-        <v>12.24683410264314</v>
+        <v>8.918371511306875</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,16 +3444,16 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.85007488125932</v>
+        <v>0.7599434891061209</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3805302600686474</v>
+        <v>0.1712353224920229</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9818780722604469</v>
+        <v>0.7880324008160153</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1612</v>
+        <v>1684</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>542</v>
+        <v>2442</v>
       </c>
       <c r="B36" t="n">
-        <v>574</v>
+        <v>2476</v>
       </c>
       <c r="C36" t="n">
-        <v>639</v>
+        <v>2554</v>
       </c>
       <c r="D36" t="n">
-        <v>3.892650563921128</v>
+        <v>4.063941601963686</v>
       </c>
       <c r="E36" t="n">
-        <v>3.366280058207948</v>
+        <v>3.490409208396628</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5263705057131801</v>
+        <v>-0.5735323935670584</v>
       </c>
       <c r="G36" t="n">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H36" t="n">
-        <v>122.0119721144318</v>
+        <v>109.5673371391931</v>
       </c>
       <c r="I36" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J36" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="K36" t="n">
-        <v>279.4671885957063</v>
+        <v>255.4228034081735</v>
       </c>
       <c r="L36" t="n">
-        <v>19.41616941410477</v>
+        <v>12.24683410264314</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7203276645097118</v>
+        <v>0.85007488125932</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1199042019143856</v>
+        <v>0.3805302600686474</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9339804336391723</v>
+        <v>0.9818780722604469</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1613</v>
+        <v>1685</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>812</v>
+        <v>542</v>
       </c>
       <c r="B37" t="n">
-        <v>840</v>
+        <v>574</v>
       </c>
       <c r="C37" t="n">
-        <v>902</v>
+        <v>639</v>
       </c>
       <c r="D37" t="n">
-        <v>3.67036806415077</v>
+        <v>3.892650563921128</v>
       </c>
       <c r="E37" t="n">
-        <v>3.14399755843759</v>
+        <v>3.366280058207948</v>
       </c>
       <c r="F37" t="n">
         <v>-0.5263705057131801</v>
       </c>
       <c r="G37" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H37" t="n">
-        <v>52.0851671450838</v>
+        <v>122.0119721144318</v>
       </c>
       <c r="I37" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J37" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K37" t="n">
-        <v>257.2772381463366</v>
+        <v>279.4671885957063</v>
       </c>
       <c r="L37" t="n">
-        <v>18.30744552469803</v>
+        <v>19.41616941410477</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,16 +3616,16 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.7119428110351437</v>
+        <v>0.7203276645097118</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="R37" t="n">
-        <v>0.09145217412174672</v>
+        <v>0.1199042019143856</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8004222124834017</v>
+        <v>0.9339804336391723</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1614</v>
+        <v>1686</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>812</v>
+      </c>
+      <c r="B38" t="n">
+        <v>840</v>
+      </c>
+      <c r="C38" t="n">
         <v>902</v>
       </c>
-      <c r="B38" t="n">
-        <v>914</v>
-      </c>
-      <c r="C38" t="n">
-        <v>938</v>
-      </c>
       <c r="D38" t="n">
-        <v>1.83906528308339</v>
+        <v>3.67036806415077</v>
       </c>
       <c r="E38" t="n">
-        <v>1.31269477737021</v>
+        <v>3.14399755843759</v>
       </c>
       <c r="F38" t="n">
         <v>-0.5263705057131801</v>
       </c>
       <c r="G38" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H38" t="n">
-        <v>17.35269768217586</v>
+        <v>52.0851671450838</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J38" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="K38" t="n">
-        <v>57.88133712682564</v>
+        <v>257.2772381463366</v>
       </c>
       <c r="L38" t="n">
-        <v>9.17308207186643</v>
+        <v>18.30744552469803</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,16 +3702,16 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7134287141299774</v>
+        <v>0.7119428110351437</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.5</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="R38" t="n">
-        <v>0.06622600251165452</v>
+        <v>0.09145217412174672</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9223925378018161</v>
+        <v>0.8004222124834017</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1615</v>
+        <v>1687</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1124</v>
+        <v>902</v>
       </c>
       <c r="B39" t="n">
-        <v>1148</v>
+        <v>914</v>
       </c>
       <c r="C39" t="n">
-        <v>1253</v>
+        <v>938</v>
       </c>
       <c r="D39" t="n">
-        <v>2.209468042400285</v>
+        <v>1.83906528308339</v>
       </c>
       <c r="E39" t="n">
-        <v>1.571797328661024</v>
+        <v>1.31269477737021</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6376707137392609</v>
+        <v>-0.5263705057131801</v>
       </c>
       <c r="G39" t="n">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="H39" t="n">
-        <v>38.07157587583265</v>
+        <v>17.35269768217586</v>
       </c>
       <c r="I39" t="n">
+        <v>12</v>
+      </c>
+      <c r="J39" t="n">
         <v>24</v>
       </c>
-      <c r="J39" t="n">
-        <v>105</v>
-      </c>
       <c r="K39" t="n">
-        <v>106.4811950412531</v>
+        <v>57.88133712682564</v>
       </c>
       <c r="L39" t="n">
-        <v>5.979856194193678</v>
+        <v>9.17308207186643</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.8488278827802238</v>
+        <v>0.7134287141299774</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="R39" t="n">
-        <v>0.5904083788659132</v>
+        <v>0.06622600251165452</v>
       </c>
       <c r="S39" t="n">
-        <v>0.629753445054074</v>
+        <v>0.9223925378018161</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1616</v>
+        <v>1688</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1342</v>
+        <v>1124</v>
       </c>
       <c r="B40" t="n">
-        <v>1370</v>
+        <v>1148</v>
       </c>
       <c r="C40" t="n">
-        <v>1443</v>
+        <v>1253</v>
       </c>
       <c r="D40" t="n">
-        <v>3.057398101415031</v>
+        <v>2.209468042400285</v>
       </c>
       <c r="E40" t="n">
-        <v>2.41972738767577</v>
+        <v>1.571797328661024</v>
       </c>
       <c r="F40" t="n">
         <v>-0.6376707137392609</v>
       </c>
       <c r="G40" t="n">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="H40" t="n">
-        <v>54.09007415604538</v>
+        <v>38.07157587583265</v>
       </c>
       <c r="I40" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J40" t="n">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="K40" t="n">
-        <v>179.6069591081969</v>
+        <v>106.4811950412531</v>
       </c>
       <c r="L40" t="n">
-        <v>8.274752394698996</v>
+        <v>5.979856194193678</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,16 +3874,16 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8379753615425878</v>
+        <v>0.8488278827802238</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3835616438356164</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1580960916951803</v>
+        <v>0.5904083788659132</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9386926558975114</v>
+        <v>0.629753445054074</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1617</v>
+        <v>1689</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>1342</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C41" t="n">
         <v>1443</v>
       </c>
-      <c r="B41" t="n">
-        <v>1474</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1554</v>
-      </c>
       <c r="D41" t="n">
-        <v>2.303031955145058</v>
+        <v>3.057398101415031</v>
       </c>
       <c r="E41" t="n">
-        <v>1.665361241405797</v>
+        <v>2.41972738767577</v>
       </c>
       <c r="F41" t="n">
         <v>-0.6376707137392609</v>
       </c>
       <c r="G41" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H41" t="n">
-        <v>39.24895831580307</v>
+        <v>54.09007415604538</v>
       </c>
       <c r="I41" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J41" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K41" t="n">
-        <v>147.1148270289102</v>
+        <v>179.6069591081969</v>
       </c>
       <c r="L41" t="n">
-        <v>6.233083999458517</v>
+        <v>8.274752394698996</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,16 +3960,16 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.8646475631774707</v>
+        <v>0.8379753615425878</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3875</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2904873586504881</v>
+        <v>0.1580960916951803</v>
       </c>
       <c r="S41" t="n">
-        <v>0.6946738918414581</v>
+        <v>0.9386926558975114</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1618</v>
+        <v>1690</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>1443</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1474</v>
+      </c>
+      <c r="C42" t="n">
         <v>1554</v>
       </c>
-      <c r="B42" t="n">
-        <v>1587</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1744</v>
-      </c>
       <c r="D42" t="n">
-        <v>3.186742915472643</v>
+        <v>2.303031955145058</v>
       </c>
       <c r="E42" t="n">
-        <v>2.549072201733382</v>
+        <v>1.665361241405797</v>
       </c>
       <c r="F42" t="n">
         <v>-0.6376707137392609</v>
       </c>
       <c r="G42" t="n">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="H42" t="n">
-        <v>157.8099769586447</v>
+        <v>39.24895831580307</v>
       </c>
       <c r="I42" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J42" t="n">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="K42" t="n">
-        <v>358.4133520442783</v>
+        <v>147.1148270289102</v>
       </c>
       <c r="L42" t="n">
-        <v>8.624820090943647</v>
+        <v>6.233083999458517</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,16 +4046,16 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8553336372869262</v>
+        <v>0.8646475631774707</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.2101910828025478</v>
+        <v>0.3875</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4549530883325994</v>
+        <v>0.2904873586504881</v>
       </c>
       <c r="S42" t="n">
-        <v>0.8051618827159222</v>
+        <v>0.6946738918414581</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1619</v>
+        <v>1691</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2078</v>
+        <v>1554</v>
       </c>
       <c r="B43" t="n">
-        <v>2099</v>
+        <v>1587</v>
       </c>
       <c r="C43" t="n">
-        <v>2147</v>
+        <v>1744</v>
       </c>
       <c r="D43" t="n">
-        <v>1.691822603378259</v>
+        <v>3.186742915472643</v>
       </c>
       <c r="E43" t="n">
-        <v>1.054151889638998</v>
+        <v>2.549072201733382</v>
       </c>
       <c r="F43" t="n">
         <v>-0.6376707137392609</v>
       </c>
       <c r="G43" t="n">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="H43" t="n">
-        <v>16.64965413447271</v>
+        <v>157.8099769586447</v>
       </c>
       <c r="I43" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J43" t="n">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="K43" t="n">
-        <v>67.37953088841493</v>
+        <v>358.4133520442783</v>
       </c>
       <c r="L43" t="n">
-        <v>4.5788649938099</v>
+        <v>8.624820090943647</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8423718390432904</v>
+        <v>0.8553336372869262</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4375</v>
+        <v>0.2101910828025478</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3494928266683455</v>
+        <v>0.4549530883325994</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9453019691719923</v>
+        <v>0.8051618827159222</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1620</v>
+        <v>1692</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>435</v>
+        <v>2078</v>
       </c>
       <c r="B44" t="n">
-        <v>466</v>
+        <v>2099</v>
       </c>
       <c r="C44" t="n">
-        <v>513</v>
+        <v>2147</v>
       </c>
       <c r="D44" t="n">
-        <v>2.509108112391998</v>
+        <v>1.691822603378259</v>
       </c>
       <c r="E44" t="n">
-        <v>1.972279407642962</v>
+        <v>1.054151889638998</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5368287047490357</v>
+        <v>-0.6376707137392609</v>
       </c>
       <c r="G44" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H44" t="n">
-        <v>41.85202763770076</v>
+        <v>16.64965413447271</v>
       </c>
       <c r="I44" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J44" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44" t="n">
-        <v>148.8047064002711</v>
+        <v>67.37953088841493</v>
       </c>
       <c r="L44" t="n">
-        <v>5.887583554646186</v>
+        <v>4.5788649938099</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.7116304172472246</v>
+        <v>0.8423718390432904</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.4375</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1547835070914456</v>
+        <v>0.3494928266683455</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8177177481992517</v>
+        <v>0.9453019691719923</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1621</v>
+        <v>1693</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1689</v>
+        <v>435</v>
       </c>
       <c r="B45" t="n">
-        <v>1706</v>
+        <v>466</v>
       </c>
       <c r="C45" t="n">
-        <v>1765</v>
+        <v>513</v>
       </c>
       <c r="D45" t="n">
-        <v>2.216464669474953</v>
+        <v>2.509108112391998</v>
       </c>
       <c r="E45" t="n">
-        <v>1.711665678596882</v>
+        <v>1.972279407642962</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5047989908780709</v>
+        <v>-0.5368287047490357</v>
       </c>
       <c r="G45" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H45" t="n">
-        <v>14.8972164751649</v>
+        <v>41.85202763770076</v>
       </c>
       <c r="I45" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J45" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K45" t="n">
-        <v>124.7777883698248</v>
+        <v>148.8047064002711</v>
       </c>
       <c r="L45" t="n">
-        <v>6.812237468071915</v>
+        <v>5.887583554646186</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8319165608829791</v>
+        <v>0.7116304172472246</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.288135593220339</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2232599189873385</v>
+        <v>0.1547835070914456</v>
       </c>
       <c r="S45" t="n">
-        <v>0.6782738149521836</v>
+        <v>0.8177177481992517</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1622</v>
+        <v>1694</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1102</v>
+        <v>1689</v>
       </c>
       <c r="B46" t="n">
-        <v>1121</v>
+        <v>1706</v>
       </c>
       <c r="C46" t="n">
-        <v>1149</v>
+        <v>1765</v>
       </c>
       <c r="D46" t="n">
-        <v>3.235379400143386</v>
+        <v>2.216464669474953</v>
       </c>
       <c r="E46" t="n">
-        <v>2.792485284532181</v>
+        <v>1.711665678596882</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.442894115611206</v>
+        <v>-0.5047989908780709</v>
       </c>
       <c r="G46" t="n">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H46" t="n">
-        <v>22.88093644764604</v>
+        <v>14.8972164751649</v>
       </c>
       <c r="I46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J46" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="K46" t="n">
-        <v>102.0251758393748</v>
+        <v>124.7777883698248</v>
       </c>
       <c r="L46" t="n">
-        <v>8.882750106231011</v>
+        <v>6.812237468071915</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8035291496946864</v>
+        <v>0.8319165608829791</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2395615729976662</v>
+        <v>0.2232599189873385</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9473157841401028</v>
+        <v>0.6782738149521836</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1623</v>
+        <v>1695</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1196</v>
+        <v>1102</v>
       </c>
       <c r="B47" t="n">
-        <v>1225</v>
+        <v>1121</v>
       </c>
       <c r="C47" t="n">
-        <v>1294</v>
+        <v>1149</v>
       </c>
       <c r="D47" t="n">
-        <v>3.498669293580539</v>
+        <v>3.235379400143386</v>
       </c>
       <c r="E47" t="n">
-        <v>3.055775177969334</v>
+        <v>2.792485284532181</v>
       </c>
       <c r="F47" t="n">
         <v>-0.442894115611206</v>
       </c>
       <c r="G47" t="n">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="H47" t="n">
-        <v>31.55591449512963</v>
+        <v>22.88093644764604</v>
       </c>
       <c r="I47" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J47" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="K47" t="n">
-        <v>184.1844516520535</v>
+        <v>102.0251758393748</v>
       </c>
       <c r="L47" t="n">
-        <v>9.605613807716772</v>
+        <v>8.882750106231011</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7801349941306955</v>
+        <v>0.8035291496946864</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="R47" t="n">
-        <v>0.407582421311755</v>
+        <v>0.2395615729976662</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8703190939226495</v>
+        <v>0.9473157841401028</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1624</v>
+        <v>1696</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1226</v>
+        <v>1196</v>
       </c>
       <c r="B48" t="n">
-        <v>1254</v>
+        <v>1225</v>
       </c>
       <c r="C48" t="n">
-        <v>1349</v>
+        <v>1294</v>
       </c>
       <c r="D48" t="n">
-        <v>4.365443284267479</v>
+        <v>3.498669293580539</v>
       </c>
       <c r="E48" t="n">
-        <v>3.899830073597338</v>
+        <v>3.055775177969334</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.4656132106701414</v>
+        <v>-0.442894115611206</v>
       </c>
       <c r="G48" t="n">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="H48" t="n">
-        <v>83.12909331095557</v>
+        <v>31.55591449512963</v>
       </c>
       <c r="I48" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J48" t="n">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K48" t="n">
-        <v>312.4027521620425</v>
+        <v>184.1844516520535</v>
       </c>
       <c r="L48" t="n">
-        <v>17.97511610623974</v>
+        <v>9.605613807716772</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.8945502987710549</v>
+        <v>0.7801349941306955</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.2947368421052631</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="R48" t="n">
-        <v>0.19434762578328</v>
+        <v>0.407582421311755</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9170887774099538</v>
+        <v>0.8703190939226495</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1625</v>
+        <v>1697</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1151</v>
+        <v>1226</v>
       </c>
       <c r="B49" t="n">
-        <v>1181</v>
+        <v>1254</v>
       </c>
       <c r="C49" t="n">
-        <v>1233</v>
+        <v>1349</v>
       </c>
       <c r="D49" t="n">
-        <v>3.458490322902049</v>
+        <v>4.365443284267479</v>
       </c>
       <c r="E49" t="n">
-        <v>2.856258858413004</v>
+        <v>3.899830073597338</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.6022314644890453</v>
+        <v>-0.4656132106701414</v>
       </c>
       <c r="G49" t="n">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="H49" t="n">
-        <v>106.0396535616742</v>
+        <v>83.12909331095557</v>
       </c>
       <c r="I49" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J49" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K49" t="n">
-        <v>256.1273992735316</v>
+        <v>312.4027521620425</v>
       </c>
       <c r="L49" t="n">
-        <v>14.06474549652267</v>
+        <v>17.97511610623974</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.5922954264759135</v>
+        <v>0.8945502987710549</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="R49" t="n">
-        <v>0.04626368274387134</v>
+        <v>0.19434762578328</v>
       </c>
       <c r="S49" t="n">
-        <v>0.7884940256896212</v>
+        <v>0.9170887774099538</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1626</v>
+        <v>1698</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1695</v>
+        <v>1151</v>
       </c>
       <c r="B50" t="n">
-        <v>1721</v>
+        <v>1181</v>
       </c>
       <c r="C50" t="n">
-        <v>1773</v>
+        <v>1233</v>
       </c>
       <c r="D50" t="n">
-        <v>2.288015803188451</v>
+        <v>3.458490322902049</v>
       </c>
       <c r="E50" t="n">
-        <v>1.892230241673345</v>
+        <v>2.856258858413004</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.3957855615151062</v>
+        <v>-0.6022314644890453</v>
       </c>
       <c r="G50" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H50" t="n">
-        <v>57.88713160842804</v>
+        <v>106.0396535616742</v>
       </c>
       <c r="I50" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J50" t="n">
         <v>52</v>
       </c>
       <c r="K50" t="n">
-        <v>103.3344245863242</v>
+        <v>256.1273992735316</v>
       </c>
       <c r="L50" t="n">
-        <v>5.659967384959074</v>
+        <v>14.06474549652267</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.8041969804465374</v>
+        <v>0.5922954264759135</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.5</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="R50" t="n">
-        <v>0.3451311296851756</v>
+        <v>0.04626368274387134</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8380521326292854</v>
+        <v>0.7884940256896212</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1627</v>
+        <v>1699</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>408</v>
+        <v>1695</v>
       </c>
       <c r="B51" t="n">
-        <v>434</v>
+        <v>1721</v>
       </c>
       <c r="C51" t="n">
-        <v>537</v>
+        <v>1773</v>
       </c>
       <c r="D51" t="n">
-        <v>3.358495193590307</v>
+        <v>2.288015803188451</v>
       </c>
       <c r="E51" t="n">
-        <v>2.79028193696322</v>
+        <v>1.892230241673345</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5682132566270868</v>
+        <v>-0.3957855615151062</v>
       </c>
       <c r="G51" t="n">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="H51" t="n">
-        <v>25.78851374427734</v>
+        <v>57.88713160842804</v>
       </c>
       <c r="I51" t="n">
         <v>26</v>
       </c>
       <c r="J51" t="n">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="K51" t="n">
-        <v>201.137448652236</v>
+        <v>103.3344245863242</v>
       </c>
       <c r="L51" t="n">
-        <v>12.25150814104687</v>
+        <v>5.659967384959074</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.8649352278067201</v>
+        <v>0.8041969804465374</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2524271844660194</v>
+        <v>0.5</v>
       </c>
       <c r="R51" t="n">
-        <v>0.5243463872701345</v>
+        <v>0.3451311296851756</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8674832084557216</v>
+        <v>0.8380521326292854</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1628</v>
+        <v>1700</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1886</v>
+        <v>408</v>
       </c>
       <c r="B52" t="n">
-        <v>1920</v>
+        <v>434</v>
       </c>
       <c r="C52" t="n">
-        <v>1999</v>
+        <v>537</v>
       </c>
       <c r="D52" t="n">
-        <v>2.016800454782514</v>
+        <v>3.358495193590307</v>
       </c>
       <c r="E52" t="n">
-        <v>1.448587198155427</v>
+        <v>2.79028193696322</v>
       </c>
       <c r="F52" t="n">
         <v>-0.5682132566270868</v>
       </c>
       <c r="G52" t="n">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="H52" t="n">
-        <v>138.8915344624638</v>
+        <v>25.78851374427734</v>
       </c>
       <c r="I52" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J52" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="K52" t="n">
-        <v>155.9224509461534</v>
+        <v>201.137448652236</v>
       </c>
       <c r="L52" t="n">
-        <v>7.357118520756522</v>
+        <v>12.25150814104687</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,16 +4906,16 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.7264168615006029</v>
+        <v>0.8649352278067201</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.4303797468354431</v>
+        <v>0.2524271844660194</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1384907295269243</v>
+        <v>0.5243463872701345</v>
       </c>
       <c r="S52" t="n">
-        <v>0.7728650091655233</v>
+        <v>0.8674832084557216</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1629</v>
+        <v>1701</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>541</v>
+        <v>1886</v>
       </c>
       <c r="B53" t="n">
-        <v>596</v>
+        <v>1920</v>
       </c>
       <c r="C53" t="n">
-        <v>695</v>
+        <v>1999</v>
       </c>
       <c r="D53" t="n">
-        <v>2.453450113324513</v>
+        <v>2.016800454782514</v>
       </c>
       <c r="E53" t="n">
-        <v>1.929643775419043</v>
+        <v>1.448587198155427</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.5238063379054693</v>
+        <v>-0.5682132566270868</v>
       </c>
       <c r="G53" t="n">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="H53" t="n">
-        <v>69.10820388613604</v>
+        <v>138.8915344624638</v>
       </c>
       <c r="I53" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J53" t="n">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="K53" t="n">
-        <v>202.0803797421484</v>
+        <v>155.9224509461534</v>
       </c>
       <c r="L53" t="n">
-        <v>9.137021844666936</v>
+        <v>7.357118520756522</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.7765272439580769</v>
+        <v>0.7264168615006029</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4303797468354431</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2482900546773558</v>
+        <v>0.1384907295269243</v>
       </c>
       <c r="S53" t="n">
-        <v>0.7922500405015855</v>
+        <v>0.7728650091655233</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1630</v>
+        <v>1702</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>541</v>
+      </c>
+      <c r="B54" t="n">
+        <v>596</v>
+      </c>
+      <c r="C54" t="n">
         <v>695</v>
       </c>
-      <c r="B54" t="n">
-        <v>724</v>
-      </c>
-      <c r="C54" t="n">
-        <v>777</v>
-      </c>
       <c r="D54" t="n">
-        <v>1.176768295069884</v>
+        <v>2.453450113324513</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6529619571644145</v>
+        <v>1.929643775419043</v>
       </c>
       <c r="F54" t="n">
         <v>-0.5238063379054693</v>
       </c>
       <c r="G54" t="n">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="H54" t="n">
-        <v>33.06796647037311</v>
+        <v>69.10820388613604</v>
       </c>
       <c r="I54" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J54" t="n">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="K54" t="n">
-        <v>70.33210891082319</v>
+        <v>202.0803797421484</v>
       </c>
       <c r="L54" t="n">
-        <v>4.382464334518478</v>
+        <v>9.137021844666936</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,16 +5078,16 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.736693017112917</v>
+        <v>0.7765272439580769</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1739113264134698</v>
+        <v>0.2482900546773558</v>
       </c>
       <c r="S54" t="n">
-        <v>0.5549205934817978</v>
+        <v>0.7922500405015855</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1631</v>
+        <v>1703</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>695</v>
+      </c>
+      <c r="B55" t="n">
+        <v>724</v>
+      </c>
+      <c r="C55" t="n">
         <v>777</v>
       </c>
-      <c r="B55" t="n">
-        <v>804</v>
-      </c>
-      <c r="C55" t="n">
-        <v>852</v>
-      </c>
       <c r="D55" t="n">
-        <v>1.623807022106642</v>
+        <v>1.176768295069884</v>
       </c>
       <c r="E55" t="n">
-        <v>1.100000684201172</v>
+        <v>0.6529619571644145</v>
       </c>
       <c r="F55" t="n">
         <v>-0.5238063379054693</v>
       </c>
       <c r="G55" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H55" t="n">
-        <v>19.18454105129604</v>
+        <v>33.06796647037311</v>
       </c>
       <c r="I55" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J55" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K55" t="n">
-        <v>90.64725935180297</v>
+        <v>70.33210891082319</v>
       </c>
       <c r="L55" t="n">
-        <v>6.047304631112964</v>
+        <v>4.382464334518478</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.743718557063393</v>
+        <v>0.736693017112917</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.5625</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="R55" t="n">
-        <v>0.3863702227455731</v>
+        <v>0.1739113264134698</v>
       </c>
       <c r="S55" t="n">
-        <v>0.6683177623227736</v>
+        <v>0.5549205934817978</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1632</v>
+        <v>1704</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2271</v>
+        <v>777</v>
       </c>
       <c r="B56" t="n">
-        <v>2300</v>
+        <v>804</v>
       </c>
       <c r="C56" t="n">
-        <v>2362</v>
+        <v>852</v>
       </c>
       <c r="D56" t="n">
-        <v>3.325268040722614</v>
+        <v>1.623807022106642</v>
       </c>
       <c r="E56" t="n">
-        <v>2.854675425500283</v>
+        <v>1.100000684201172</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.4705926152223304</v>
+        <v>-0.5238063379054693</v>
       </c>
       <c r="G56" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H56" t="n">
-        <v>39.77421862435676</v>
+        <v>19.18454105129604</v>
       </c>
       <c r="I56" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J56" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K56" t="n">
-        <v>213.5698422557777</v>
+        <v>90.64725935180297</v>
       </c>
       <c r="L56" t="n">
-        <v>21.29795933980454</v>
+        <v>6.047304631112964</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.7963897663088647</v>
+        <v>0.743718557063393</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.5625</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1241989878012205</v>
+        <v>0.3863702227455731</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9541625801300148</v>
+        <v>0.6683177623227736</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1633</v>
+        <v>1705</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>2271</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C57" t="n">
         <v>2362</v>
       </c>
-      <c r="B57" t="n">
-        <v>2391</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2499</v>
-      </c>
       <c r="D57" t="n">
-        <v>3.737250622882307</v>
+        <v>3.325268040722614</v>
       </c>
       <c r="E57" t="n">
-        <v>3.266658007659976</v>
+        <v>2.854675425500283</v>
       </c>
       <c r="F57" t="n">
         <v>-0.4705926152223304</v>
       </c>
       <c r="G57" t="n">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="H57" t="n">
-        <v>34.71088612844051</v>
+        <v>39.77421862435676</v>
       </c>
       <c r="I57" t="n">
         <v>29</v>
       </c>
       <c r="J57" t="n">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="K57" t="n">
-        <v>262.9002912940071</v>
+        <v>213.5698422557777</v>
       </c>
       <c r="L57" t="n">
-        <v>23.93666039370156</v>
+        <v>21.29795933980454</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,16 +5336,16 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.9056455595352697</v>
+        <v>0.7963897663088647</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="R57" t="n">
-        <v>0.2137132473753202</v>
+        <v>0.1241989878012205</v>
       </c>
       <c r="S57" t="n">
-        <v>0.9155625960572978</v>
+        <v>0.9541625801300148</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1634</v>
+        <v>1706</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2748</v>
+        <v>2362</v>
       </c>
       <c r="B58" t="n">
-        <v>2767</v>
+        <v>2391</v>
       </c>
       <c r="C58" t="n">
-        <v>2798</v>
+        <v>2499</v>
       </c>
       <c r="D58" t="n">
-        <v>3.627564489375928</v>
+        <v>3.737250622882307</v>
       </c>
       <c r="E58" t="n">
-        <v>3.126979262145471</v>
+        <v>3.266658007659976</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.500585227230457</v>
+        <v>-0.4705926152223304</v>
       </c>
       <c r="G58" t="n">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="H58" t="n">
-        <v>15.71514447934396</v>
+        <v>34.71088612844051</v>
       </c>
       <c r="I58" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J58" t="n">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="K58" t="n">
-        <v>117.1979719639432</v>
+        <v>262.9002912940071</v>
       </c>
       <c r="L58" t="n">
-        <v>10.44242142869087</v>
+        <v>23.93666039370156</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.8257856948980551</v>
+        <v>0.9056455595352697</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3602559185057533</v>
+        <v>0.2137132473753202</v>
       </c>
       <c r="S58" t="n">
-        <v>0.9759584747121894</v>
+        <v>0.9155625960572978</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1635</v>
+        <v>1707</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>2748</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2767</v>
+      </c>
+      <c r="C59" t="n">
         <v>2798</v>
       </c>
-      <c r="B59" t="n">
-        <v>2817</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2880</v>
-      </c>
       <c r="D59" t="n">
-        <v>1.863685885441994</v>
+        <v>3.627564489375928</v>
       </c>
       <c r="E59" t="n">
-        <v>1.363100658211537</v>
+        <v>3.126979262145471</v>
       </c>
       <c r="F59" t="n">
         <v>-0.500585227230457</v>
       </c>
       <c r="G59" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H59" t="n">
-        <v>53.08315184737239</v>
+        <v>15.71514447934396</v>
       </c>
       <c r="I59" t="n">
         <v>19</v>
       </c>
       <c r="J59" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="K59" t="n">
-        <v>113.254108451288</v>
+        <v>117.1979719639432</v>
       </c>
       <c r="L59" t="n">
-        <v>5.364864906877576</v>
+        <v>10.44242142869087</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,16 +5508,16 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.8431677118416925</v>
+        <v>0.8257856948980551</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.3015873015873016</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="R59" t="n">
-        <v>0.156568748103813</v>
+        <v>0.3602559185057533</v>
       </c>
       <c r="S59" t="n">
-        <v>0.8452894273879474</v>
+        <v>0.9759584747121894</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1636</v>
+        <v>1708</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2193</v>
+        <v>2798</v>
       </c>
       <c r="B60" t="n">
-        <v>2254</v>
+        <v>2817</v>
       </c>
       <c r="C60" t="n">
-        <v>2359</v>
+        <v>2880</v>
       </c>
       <c r="D60" t="n">
-        <v>4.536175848020631</v>
+        <v>1.863685885441994</v>
       </c>
       <c r="E60" t="n">
-        <v>4.141667469376149</v>
+        <v>1.363100658211537</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3945083786444811</v>
+        <v>-0.500585227230457</v>
       </c>
       <c r="G60" t="n">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="H60" t="n">
-        <v>82.2442496849053</v>
+        <v>53.08315184737239</v>
       </c>
       <c r="I60" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="J60" t="n">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="K60" t="n">
-        <v>401.7250210860714</v>
+        <v>113.254108451288</v>
       </c>
       <c r="L60" t="n">
-        <v>29.5017174995421</v>
+        <v>5.364864906877576</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.735679559795742</v>
+        <v>0.8431677118416925</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.580952380952381</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="R60" t="n">
-        <v>0.3539665222777896</v>
+        <v>0.156568748103813</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9792598900751064</v>
+        <v>0.8452894273879474</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1637</v>
+        <v>1709</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2036</v>
+        <v>2193</v>
       </c>
       <c r="B61" t="n">
-        <v>2091</v>
+        <v>2254</v>
       </c>
       <c r="C61" t="n">
-        <v>2193</v>
+        <v>2359</v>
       </c>
       <c r="D61" t="n">
-        <v>3.683124947161222</v>
+        <v>4.536175848020631</v>
       </c>
       <c r="E61" t="n">
-        <v>3.162398928600501</v>
+        <v>4.141667469376149</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5207260185607203</v>
+        <v>-0.3945083786444811</v>
       </c>
       <c r="G61" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H61" t="n">
-        <v>32.22219809257194</v>
+        <v>82.2442496849053</v>
       </c>
       <c r="I61" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J61" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K61" t="n">
-        <v>255.2983457877875</v>
+        <v>401.7250210860714</v>
       </c>
       <c r="L61" t="n">
-        <v>12.03515898795437</v>
+        <v>29.5017174995421</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.6566665763017729</v>
+        <v>0.735679559795742</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.5392156862745098</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="R61" t="n">
-        <v>0.3498818928994173</v>
+        <v>0.3539665222777896</v>
       </c>
       <c r="S61" t="n">
-        <v>0.8050644822151661</v>
+        <v>0.9792598900751064</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1638</v>
+        <v>1710</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1639</v>
+        <v>1711</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1640</v>
+        <v>1712</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1641</v>
+        <v>1713</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1642</v>
+        <v>1714</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1643</v>
+        <v>1715</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1644</v>
+        <v>1716</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1645</v>
+        <v>1717</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1646</v>
+        <v>1718</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1647</v>
+        <v>1719</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1648</v>
+        <v>1720</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1649</v>
+        <v>1721</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1650</v>
+        <v>1722</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1651</v>
+        <v>1723</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
